--- a/outputs/aht/wl_senior_aht_monthly.xlsx
+++ b/outputs/aht/wl_senior_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>434.0287264933856</v>
+        <v>459.019376261511</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5309525244703</v>
+        <v>429.776999814311</v>
       </c>
       <c r="E2" t="n">
-        <v>496.0740068116293</v>
+        <v>515.0252147660098</v>
       </c>
       <c r="F2" t="n">
-        <v>434.0287264933856</v>
+        <v>459.019376261511</v>
       </c>
       <c r="G2" t="n">
-        <v>434.0287264933856</v>
+        <v>459.019376261511</v>
       </c>
       <c r="H2" t="n">
-        <v>8.357763761825703</v>
+        <v>9.152610243475827</v>
       </c>
       <c r="I2" t="n">
-        <v>8.357763761825703</v>
+        <v>9.152610243475827</v>
       </c>
       <c r="J2" t="n">
-        <v>8.357763761825703</v>
+        <v>9.152610243475827</v>
       </c>
       <c r="K2" t="n">
-        <v>8.357763761825703</v>
+        <v>9.152610243475827</v>
       </c>
       <c r="L2" t="n">
-        <v>8.357763761825703</v>
+        <v>9.152610243475827</v>
       </c>
       <c r="M2" t="n">
-        <v>8.357763761825703</v>
+        <v>9.152610243475827</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>442.3864902552114</v>
+        <v>468.1719865049868</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>434.5746149885624</v>
+        <v>458.2786253353577</v>
       </c>
       <c r="D3" t="n">
-        <v>392.9906200147323</v>
+        <v>416.180803446325</v>
       </c>
       <c r="E3" t="n">
-        <v>500.3255847322653</v>
+        <v>500.0721853227264</v>
       </c>
       <c r="F3" t="n">
-        <v>434.5746149885624</v>
+        <v>458.2786253353577</v>
       </c>
       <c r="G3" t="n">
-        <v>434.5746149885624</v>
+        <v>458.2786253353577</v>
       </c>
       <c r="H3" t="n">
-        <v>10.95155348686348</v>
+        <v>-1.650499565430092</v>
       </c>
       <c r="I3" t="n">
-        <v>10.95155348686348</v>
+        <v>-1.650499565430092</v>
       </c>
       <c r="J3" t="n">
-        <v>10.95155348686348</v>
+        <v>-1.650499565430092</v>
       </c>
       <c r="K3" t="n">
-        <v>10.95155348686348</v>
+        <v>-1.650499565430092</v>
       </c>
       <c r="L3" t="n">
-        <v>10.95155348686348</v>
+        <v>-1.650499565430092</v>
       </c>
       <c r="M3" t="n">
-        <v>10.95155348686348</v>
+        <v>-1.650499565430092</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>445.5261684754258</v>
+        <v>456.6281257699276</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>435.085284871147</v>
+        <v>457.6095599827029</v>
       </c>
       <c r="D4" t="n">
-        <v>340.7014714474455</v>
+        <v>406.4258239458645</v>
       </c>
       <c r="E4" t="n">
-        <v>459.1555642239351</v>
+        <v>490.6302217887869</v>
       </c>
       <c r="F4" t="n">
-        <v>435.085284871147</v>
+        <v>457.6095599827029</v>
       </c>
       <c r="G4" t="n">
-        <v>435.085284871147</v>
+        <v>457.6095599827029</v>
       </c>
       <c r="H4" t="n">
-        <v>-31.88828229630604</v>
+        <v>-9.42331228400335</v>
       </c>
       <c r="I4" t="n">
-        <v>-31.88828229630604</v>
+        <v>-9.42331228400335</v>
       </c>
       <c r="J4" t="n">
-        <v>-31.88828229630604</v>
+        <v>-9.42331228400335</v>
       </c>
       <c r="K4" t="n">
-        <v>-31.88828229630604</v>
+        <v>-9.42331228400335</v>
       </c>
       <c r="L4" t="n">
-        <v>-31.88828229630604</v>
+        <v>-9.42331228400335</v>
       </c>
       <c r="M4" t="n">
-        <v>-31.88828229630604</v>
+        <v>-9.42331228400335</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>403.197002574841</v>
+        <v>448.1862476986996</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>435.6311733677583</v>
+        <v>456.8688090557147</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6505529419767</v>
+        <v>405.3415126800187</v>
       </c>
       <c r="E5" t="n">
-        <v>577.46974638791</v>
+        <v>489.3650520445303</v>
       </c>
       <c r="F5" t="n">
-        <v>435.6311733677583</v>
+        <v>456.8688090557147</v>
       </c>
       <c r="G5" t="n">
-        <v>435.6311733677583</v>
+        <v>456.8688090557147</v>
       </c>
       <c r="H5" t="n">
-        <v>81.32760750898817</v>
+        <v>-10.07121570738152</v>
       </c>
       <c r="I5" t="n">
-        <v>81.32760750898817</v>
+        <v>-10.07121570738152</v>
       </c>
       <c r="J5" t="n">
-        <v>81.32760750898817</v>
+        <v>-10.07121570738152</v>
       </c>
       <c r="K5" t="n">
-        <v>81.32760750898817</v>
+        <v>-10.07121570738152</v>
       </c>
       <c r="L5" t="n">
-        <v>81.32760750898817</v>
+        <v>-10.07121570738152</v>
       </c>
       <c r="M5" t="n">
-        <v>81.32760750898817</v>
+        <v>-10.07121570738152</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>516.9587808767465</v>
+        <v>446.7975933483332</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>436.1594525580273</v>
+        <v>456.1519533199195</v>
       </c>
       <c r="D6" t="n">
-        <v>358.4469648835778</v>
+        <v>407.8394321341469</v>
       </c>
       <c r="E6" t="n">
-        <v>472.6388375575378</v>
+        <v>492.3424640905224</v>
       </c>
       <c r="F6" t="n">
-        <v>436.1594525580273</v>
+        <v>456.1519533199195</v>
       </c>
       <c r="G6" t="n">
-        <v>436.1594525580273</v>
+        <v>456.1519533199195</v>
       </c>
       <c r="H6" t="n">
-        <v>-20.39144860540221</v>
+        <v>-5.911349308826043</v>
       </c>
       <c r="I6" t="n">
-        <v>-20.39144860540221</v>
+        <v>-5.911349308826043</v>
       </c>
       <c r="J6" t="n">
-        <v>-20.39144860540221</v>
+        <v>-5.911349308826043</v>
       </c>
       <c r="K6" t="n">
-        <v>-20.39144860540221</v>
+        <v>-5.911349308826043</v>
       </c>
       <c r="L6" t="n">
-        <v>-20.39144860540221</v>
+        <v>-5.911349308826043</v>
       </c>
       <c r="M6" t="n">
-        <v>-20.39144860540221</v>
+        <v>-5.911349308826043</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>415.7680039526251</v>
+        <v>450.2406040110935</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>436.7053410546384</v>
+        <v>455.4112023924092</v>
       </c>
       <c r="D7" t="n">
-        <v>368.3821986072967</v>
+        <v>416.6559913103114</v>
       </c>
       <c r="E7" t="n">
-        <v>489.1922228269513</v>
+        <v>503.4571008393248</v>
       </c>
       <c r="F7" t="n">
-        <v>436.7053410546384</v>
+        <v>455.4112023924092</v>
       </c>
       <c r="G7" t="n">
-        <v>436.7053410546384</v>
+        <v>455.4112023924092</v>
       </c>
       <c r="H7" t="n">
-        <v>-7.152723281521214</v>
+        <v>3.503583742491565</v>
       </c>
       <c r="I7" t="n">
-        <v>-7.152723281521214</v>
+        <v>3.503583742491565</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.152723281521214</v>
+        <v>3.503583742491565</v>
       </c>
       <c r="K7" t="n">
-        <v>-7.152723281521214</v>
+        <v>3.503583742491565</v>
       </c>
       <c r="L7" t="n">
-        <v>-7.152723281521214</v>
+        <v>3.503583742491565</v>
       </c>
       <c r="M7" t="n">
-        <v>-7.152723281521214</v>
+        <v>3.503583742491565</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>429.5526177731172</v>
+        <v>458.9147861349008</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>437.2336202441133</v>
+        <v>454.6943466561089</v>
       </c>
       <c r="D8" t="n">
-        <v>382.6590132982552</v>
+        <v>424.395500955289</v>
       </c>
       <c r="E8" t="n">
-        <v>499.5512719146428</v>
+        <v>504.9580596024727</v>
       </c>
       <c r="F8" t="n">
-        <v>437.2336202441133</v>
+        <v>454.6943466561089</v>
       </c>
       <c r="G8" t="n">
-        <v>437.2336202441133</v>
+        <v>454.6943466561089</v>
       </c>
       <c r="H8" t="n">
-        <v>2.45271920405173</v>
+        <v>10.24797141670004</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45271920405173</v>
+        <v>10.24797141670004</v>
       </c>
       <c r="J8" t="n">
-        <v>2.45271920405173</v>
+        <v>10.24797141670004</v>
       </c>
       <c r="K8" t="n">
-        <v>2.45271920405173</v>
+        <v>10.24797141670004</v>
       </c>
       <c r="L8" t="n">
-        <v>2.45271920405173</v>
+        <v>10.24797141670004</v>
       </c>
       <c r="M8" t="n">
-        <v>2.45271920405173</v>
+        <v>10.24797141670004</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>439.686339448165</v>
+        <v>464.9423180728089</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>437.7795087399041</v>
+        <v>453.9535957308064</v>
       </c>
       <c r="D9" t="n">
-        <v>375.6611967503241</v>
+        <v>409.3858651133342</v>
       </c>
       <c r="E9" t="n">
-        <v>489.976094716272</v>
+        <v>488.8949320131334</v>
       </c>
       <c r="F9" t="n">
-        <v>437.7795087399041</v>
+        <v>453.9535957308064</v>
       </c>
       <c r="G9" t="n">
-        <v>437.7795087399041</v>
+        <v>453.9535957308064</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.199995870067744</v>
+        <v>-5.771189356453241</v>
       </c>
       <c r="I9" t="n">
-        <v>-4.199995870067744</v>
+        <v>-5.771189356453241</v>
       </c>
       <c r="J9" t="n">
-        <v>-4.199995870067744</v>
+        <v>-5.771189356453241</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.199995870067744</v>
+        <v>-5.771189356453241</v>
       </c>
       <c r="L9" t="n">
-        <v>-4.199995870067744</v>
+        <v>-5.771189356453241</v>
       </c>
       <c r="M9" t="n">
-        <v>-4.199995870067744</v>
+        <v>-5.771189356453241</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.5795128698363</v>
+        <v>448.1824063743531</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>438.325397236008</v>
+        <v>453.2128448055038</v>
       </c>
       <c r="D10" t="n">
-        <v>369.9091671699093</v>
+        <v>399.9603116987567</v>
       </c>
       <c r="E10" t="n">
-        <v>485.5410353608122</v>
+        <v>479.9045304339994</v>
       </c>
       <c r="F10" t="n">
-        <v>438.325397236008</v>
+        <v>453.2128448055038</v>
       </c>
       <c r="G10" t="n">
-        <v>438.325397236008</v>
+        <v>453.2128448055038</v>
       </c>
       <c r="H10" t="n">
-        <v>-9.51818726000959</v>
+        <v>-14.63427280406135</v>
       </c>
       <c r="I10" t="n">
-        <v>-9.51818726000959</v>
+        <v>-14.63427280406135</v>
       </c>
       <c r="J10" t="n">
-        <v>-9.51818726000959</v>
+        <v>-14.63427280406135</v>
       </c>
       <c r="K10" t="n">
-        <v>-9.51818726000959</v>
+        <v>-14.63427280406135</v>
       </c>
       <c r="L10" t="n">
-        <v>-9.51818726000959</v>
+        <v>-14.63427280406135</v>
       </c>
       <c r="M10" t="n">
-        <v>-9.51818726000959</v>
+        <v>-14.63427280406135</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>428.8072099759984</v>
+        <v>438.5785720014425</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>438.853676425786</v>
+        <v>452.4959890710966</v>
       </c>
       <c r="D11" t="n">
-        <v>366.962883102049</v>
+        <v>403.9766468396194</v>
       </c>
       <c r="E11" t="n">
-        <v>484.5006408803728</v>
+        <v>484.1140800850985</v>
       </c>
       <c r="F11" t="n">
-        <v>438.853676425786</v>
+        <v>452.4959890710966</v>
       </c>
       <c r="G11" t="n">
-        <v>438.853676425786</v>
+        <v>452.4959890710966</v>
       </c>
       <c r="H11" t="n">
-        <v>-10.56376466759366</v>
+        <v>-8.783967964140059</v>
       </c>
       <c r="I11" t="n">
-        <v>-10.56376466759366</v>
+        <v>-8.783967964140059</v>
       </c>
       <c r="J11" t="n">
-        <v>-10.56376466759366</v>
+        <v>-8.783967964140059</v>
       </c>
       <c r="K11" t="n">
-        <v>-10.56376466759366</v>
+        <v>-8.783967964140059</v>
       </c>
       <c r="L11" t="n">
-        <v>-10.56376466759366</v>
+        <v>-8.783967964140059</v>
       </c>
       <c r="M11" t="n">
-        <v>-10.56376466759366</v>
+        <v>-8.783967964140059</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>428.2899117581924</v>
+        <v>443.7120211069566</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>439.3995649210847</v>
+        <v>451.7552381455425</v>
       </c>
       <c r="D12" t="n">
-        <v>395.4564489630178</v>
+        <v>421.2469207430683</v>
       </c>
       <c r="E12" t="n">
-        <v>507.477369044165</v>
+        <v>502.2122342211827</v>
       </c>
       <c r="F12" t="n">
-        <v>439.3995649210847</v>
+        <v>451.7552381455425</v>
       </c>
       <c r="G12" t="n">
-        <v>439.3995649210847</v>
+        <v>451.7552381455425</v>
       </c>
       <c r="H12" t="n">
-        <v>9.704341468448863</v>
+        <v>10.89731604923849</v>
       </c>
       <c r="I12" t="n">
-        <v>9.704341468448863</v>
+        <v>10.89731604923849</v>
       </c>
       <c r="J12" t="n">
-        <v>9.704341468448863</v>
+        <v>10.89731604923849</v>
       </c>
       <c r="K12" t="n">
-        <v>9.704341468448863</v>
+        <v>10.89731604923849</v>
       </c>
       <c r="L12" t="n">
-        <v>9.704341468448863</v>
+        <v>10.89731604923849</v>
       </c>
       <c r="M12" t="n">
-        <v>9.704341468448863</v>
+        <v>10.89731604923849</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>449.1039063895336</v>
+        <v>462.652554194781</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>439.9278441100834</v>
+        <v>451.0383824120615</v>
       </c>
       <c r="D13" t="n">
-        <v>406.8584334527978</v>
+        <v>420.7189735397569</v>
       </c>
       <c r="E13" t="n">
-        <v>520.7233787556688</v>
+        <v>508.3704372932592</v>
       </c>
       <c r="F13" t="n">
-        <v>439.9278441100834</v>
+        <v>451.0383824120615</v>
       </c>
       <c r="G13" t="n">
-        <v>439.9278441100834</v>
+        <v>451.0383824120615</v>
       </c>
       <c r="H13" t="n">
-        <v>22.92434171865135</v>
+        <v>15.20228874068018</v>
       </c>
       <c r="I13" t="n">
-        <v>22.92434171865135</v>
+        <v>15.20228874068018</v>
       </c>
       <c r="J13" t="n">
-        <v>22.92434171865135</v>
+        <v>15.20228874068018</v>
       </c>
       <c r="K13" t="n">
-        <v>22.92434171865135</v>
+        <v>15.20228874068018</v>
       </c>
       <c r="L13" t="n">
-        <v>22.92434171865135</v>
+        <v>15.20228874068018</v>
       </c>
       <c r="M13" t="n">
-        <v>22.92434171865135</v>
+        <v>15.20228874068018</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>462.8521858287348</v>
+        <v>466.2406711527416</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>440.4737326053822</v>
+        <v>450.2976314874645</v>
       </c>
       <c r="D14" t="n">
-        <v>388.574416860043</v>
+        <v>414.8717176990723</v>
       </c>
       <c r="E14" t="n">
-        <v>505.6815865773165</v>
+        <v>500.822314309104</v>
       </c>
       <c r="F14" t="n">
-        <v>440.4737326053822</v>
+        <v>450.2976314874645</v>
       </c>
       <c r="G14" t="n">
-        <v>440.4737326053822</v>
+        <v>450.2976314874645</v>
       </c>
       <c r="H14" t="n">
-        <v>6.821467140943304</v>
+        <v>7.04677666728006</v>
       </c>
       <c r="I14" t="n">
-        <v>6.821467140943304</v>
+        <v>7.04677666728006</v>
       </c>
       <c r="J14" t="n">
-        <v>6.821467140943304</v>
+        <v>7.04677666728006</v>
       </c>
       <c r="K14" t="n">
-        <v>6.821467140943304</v>
+        <v>7.04677666728006</v>
       </c>
       <c r="L14" t="n">
-        <v>6.821467140943304</v>
+        <v>7.04677666728006</v>
       </c>
       <c r="M14" t="n">
-        <v>6.821467140943304</v>
+        <v>7.04677666728006</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>447.2951997463255</v>
+        <v>457.3444081547445</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>441.0196210993776</v>
+        <v>449.5568805811096</v>
       </c>
       <c r="D15" t="n">
-        <v>371.9594195314573</v>
+        <v>406.6789903408566</v>
       </c>
       <c r="E15" t="n">
-        <v>493.6013710252683</v>
+        <v>489.921500674222</v>
       </c>
       <c r="F15" t="n">
-        <v>441.0196210993776</v>
+        <v>449.5568805811096</v>
       </c>
       <c r="G15" t="n">
-        <v>441.0196210993776</v>
+        <v>449.5568805811096</v>
       </c>
       <c r="H15" t="n">
-        <v>-9.670594635019485</v>
+        <v>-0.7147433240692663</v>
       </c>
       <c r="I15" t="n">
-        <v>-9.670594635019485</v>
+        <v>-0.7147433240692663</v>
       </c>
       <c r="J15" t="n">
-        <v>-9.670594635019485</v>
+        <v>-0.7147433240692663</v>
       </c>
       <c r="K15" t="n">
-        <v>-9.670594635019485</v>
+        <v>-0.7147433240692663</v>
       </c>
       <c r="L15" t="n">
-        <v>-9.670594635019485</v>
+        <v>-0.7147433240692663</v>
       </c>
       <c r="M15" t="n">
-        <v>-9.670594635019485</v>
+        <v>-0.7147433240692663</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>431.3490264643581</v>
+        <v>448.8421372570403</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>441.5126816745993</v>
+        <v>448.8878152463375</v>
       </c>
       <c r="D16" t="n">
-        <v>368.3536749924276</v>
+        <v>402.155070930452</v>
       </c>
       <c r="E16" t="n">
-        <v>480.6374851813762</v>
+        <v>487.1027710194218</v>
       </c>
       <c r="F16" t="n">
-        <v>441.5126816745993</v>
+        <v>448.8878152463375</v>
       </c>
       <c r="G16" t="n">
-        <v>441.5126816745993</v>
+        <v>448.8878152463375</v>
       </c>
       <c r="H16" t="n">
-        <v>-13.53469953221135</v>
+        <v>-6.129263358901601</v>
       </c>
       <c r="I16" t="n">
-        <v>-13.53469953221135</v>
+        <v>-6.129263358901601</v>
       </c>
       <c r="J16" t="n">
-        <v>-13.53469953221135</v>
+        <v>-6.129263358901601</v>
       </c>
       <c r="K16" t="n">
-        <v>-13.53469953221135</v>
+        <v>-6.129263358901601</v>
       </c>
       <c r="L16" t="n">
-        <v>-13.53469953221135</v>
+        <v>-6.129263358901601</v>
       </c>
       <c r="M16" t="n">
-        <v>-13.53469953221135</v>
+        <v>-6.129263358901601</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>427.9779821423879</v>
+        <v>442.7585518874359</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>442.0585701665854</v>
+        <v>448.147547703848</v>
       </c>
       <c r="D17" t="n">
-        <v>424.179088687399</v>
+        <v>397.1389596953733</v>
       </c>
       <c r="E17" t="n">
-        <v>547.1643220925097</v>
+        <v>483.726764178712</v>
       </c>
       <c r="F17" t="n">
-        <v>442.0585701665854</v>
+        <v>448.147547703848</v>
       </c>
       <c r="G17" t="n">
-        <v>442.0585701665854</v>
+        <v>448.147547703848</v>
       </c>
       <c r="H17" t="n">
-        <v>44.54531433294145</v>
+        <v>-7.752693721568894</v>
       </c>
       <c r="I17" t="n">
-        <v>44.54531433294145</v>
+        <v>-7.752693721568894</v>
       </c>
       <c r="J17" t="n">
-        <v>44.54531433294145</v>
+        <v>-7.752693721568894</v>
       </c>
       <c r="K17" t="n">
-        <v>44.54531433294145</v>
+        <v>-7.752693721568894</v>
       </c>
       <c r="L17" t="n">
-        <v>44.54531433294145</v>
+        <v>-7.752693721568894</v>
       </c>
       <c r="M17" t="n">
-        <v>44.54531433294145</v>
+        <v>-7.752693721568894</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>486.6038844995268</v>
+        <v>440.3948539822791</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>442.5868493523783</v>
+        <v>447.4311597595034</v>
       </c>
       <c r="D18" t="n">
-        <v>380.2792748957588</v>
+        <v>398.7958066088242</v>
       </c>
       <c r="E18" t="n">
-        <v>494.5958945679307</v>
+        <v>485.1210937359657</v>
       </c>
       <c r="F18" t="n">
-        <v>442.5868493523783</v>
+        <v>447.4311597595034</v>
       </c>
       <c r="G18" t="n">
-        <v>442.5868493523783</v>
+        <v>447.4311597595034</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.770890997533003</v>
+        <v>-3.590866520302798</v>
       </c>
       <c r="I18" t="n">
-        <v>-8.770890997533003</v>
+        <v>-3.590866520302798</v>
       </c>
       <c r="J18" t="n">
-        <v>-8.770890997533003</v>
+        <v>-3.590866520302798</v>
       </c>
       <c r="K18" t="n">
-        <v>-8.770890997533003</v>
+        <v>-3.590866520302798</v>
       </c>
       <c r="L18" t="n">
-        <v>-8.770890997533003</v>
+        <v>-3.590866520302798</v>
       </c>
       <c r="M18" t="n">
-        <v>-8.770890997533003</v>
+        <v>-3.590866520302798</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>433.8159583548453</v>
+        <v>443.8402932392005</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>443.1327378443643</v>
+        <v>446.6923688393248</v>
       </c>
       <c r="D19" t="n">
-        <v>380.0878555576193</v>
+        <v>406.427493782111</v>
       </c>
       <c r="E19" t="n">
-        <v>501.3802972597398</v>
+        <v>489.0979287437185</v>
       </c>
       <c r="F19" t="n">
-        <v>443.1327378443643</v>
+        <v>446.6923688393248</v>
       </c>
       <c r="G19" t="n">
-        <v>443.1327378443643</v>
+        <v>446.6923688393248</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.8083753862930212</v>
+        <v>0.2274718660764166</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8083753862930212</v>
+        <v>0.2274718660764166</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.8083753862930212</v>
+        <v>0.2274718660764166</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.8083753862930212</v>
+        <v>0.2274718660764166</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.8083753862930212</v>
+        <v>0.2274718660764166</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.8083753862930212</v>
+        <v>0.2274718660764166</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>442.3243624580713</v>
+        <v>446.9198407054012</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>443.6610170310847</v>
+        <v>445.9774098843132</v>
       </c>
       <c r="D20" t="n">
-        <v>388.8031539593654</v>
+        <v>406.8892438065942</v>
       </c>
       <c r="E20" t="n">
-        <v>506.0228737232068</v>
+        <v>489.9530362180943</v>
       </c>
       <c r="F20" t="n">
-        <v>443.6610170310847</v>
+        <v>445.9774098843132</v>
       </c>
       <c r="G20" t="n">
-        <v>443.6610170310847</v>
+        <v>445.9774098843132</v>
       </c>
       <c r="H20" t="n">
-        <v>2.793756515711515</v>
+        <v>3.183442923720184</v>
       </c>
       <c r="I20" t="n">
-        <v>2.793756515711515</v>
+        <v>3.183442923720184</v>
       </c>
       <c r="J20" t="n">
-        <v>2.793756515711515</v>
+        <v>3.183442923720184</v>
       </c>
       <c r="K20" t="n">
-        <v>2.793756515711515</v>
+        <v>3.183442923720184</v>
       </c>
       <c r="L20" t="n">
-        <v>2.793756515711515</v>
+        <v>3.183442923720184</v>
       </c>
       <c r="M20" t="n">
-        <v>2.793756515711515</v>
+        <v>3.183442923720184</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>446.4547735467962</v>
+        <v>449.1608528080334</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>444.2069055240291</v>
+        <v>445.2445661086051</v>
       </c>
       <c r="D21" t="n">
-        <v>383.4531785804559</v>
+        <v>396.9657612299033</v>
       </c>
       <c r="E21" t="n">
-        <v>493.8863163420562</v>
+        <v>478.4833715189426</v>
       </c>
       <c r="F21" t="n">
-        <v>444.2069055240291</v>
+        <v>445.2445661086051</v>
       </c>
       <c r="G21" t="n">
-        <v>444.2069055240291</v>
+        <v>445.2445661086051</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.705176759825969</v>
+        <v>-6.957114574483072</v>
       </c>
       <c r="I21" t="n">
-        <v>-5.705176759825969</v>
+        <v>-6.957114574483072</v>
       </c>
       <c r="J21" t="n">
-        <v>-5.705176759825969</v>
+        <v>-6.957114574483072</v>
       </c>
       <c r="K21" t="n">
-        <v>-5.705176759825969</v>
+        <v>-6.957114574483072</v>
       </c>
       <c r="L21" t="n">
-        <v>-5.705176759825969</v>
+        <v>-6.957114574483072</v>
       </c>
       <c r="M21" t="n">
-        <v>-5.705176759825969</v>
+        <v>-6.957114574483072</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>438.5017287642031</v>
+        <v>438.287451534122</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>444.7527940158587</v>
+        <v>444.511722332897</v>
       </c>
       <c r="D22" t="n">
-        <v>371.8495024777847</v>
+        <v>395.1261073956534</v>
       </c>
       <c r="E22" t="n">
-        <v>494.3267805849843</v>
+        <v>475.116318341367</v>
       </c>
       <c r="F22" t="n">
-        <v>444.7527940158587</v>
+        <v>444.511722332897</v>
       </c>
       <c r="G22" t="n">
-        <v>444.7527940158587</v>
+        <v>444.511722332897</v>
       </c>
       <c r="H22" t="n">
-        <v>-10.73436397595383</v>
+        <v>-9.907318232840165</v>
       </c>
       <c r="I22" t="n">
-        <v>-10.73436397595383</v>
+        <v>-9.907318232840165</v>
       </c>
       <c r="J22" t="n">
-        <v>-10.73436397595383</v>
+        <v>-9.907318232840165</v>
       </c>
       <c r="K22" t="n">
-        <v>-10.73436397595383</v>
+        <v>-9.907318232840165</v>
       </c>
       <c r="L22" t="n">
-        <v>-10.73436397595383</v>
+        <v>-9.907318232840165</v>
       </c>
       <c r="M22" t="n">
-        <v>-10.73436397595383</v>
+        <v>-9.907318232840165</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>434.0184300399048</v>
+        <v>434.6044041000568</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>445.2810732015003</v>
+        <v>443.8132082734325</v>
       </c>
       <c r="D23" t="n">
-        <v>384.2647494969792</v>
+        <v>400.2624173586813</v>
       </c>
       <c r="E23" t="n">
-        <v>502.9288384185696</v>
+        <v>482.2262977485702</v>
       </c>
       <c r="F23" t="n">
-        <v>445.2810732015003</v>
+        <v>443.8132082734325</v>
       </c>
       <c r="G23" t="n">
-        <v>445.2810732015003</v>
+        <v>443.8132082734325</v>
       </c>
       <c r="H23" t="n">
-        <v>-7.421828539275444</v>
+        <v>-1.422774003150453</v>
       </c>
       <c r="I23" t="n">
-        <v>-7.421828539275444</v>
+        <v>-1.422774003150453</v>
       </c>
       <c r="J23" t="n">
-        <v>-7.421828539275444</v>
+        <v>-1.422774003150453</v>
       </c>
       <c r="K23" t="n">
-        <v>-7.421828539275444</v>
+        <v>-1.422774003150453</v>
       </c>
       <c r="L23" t="n">
-        <v>-7.421828539275444</v>
+        <v>-1.422774003150453</v>
       </c>
       <c r="M23" t="n">
-        <v>-7.421828539275444</v>
+        <v>-1.422774003150453</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>437.8592446622249</v>
+        <v>442.3904342702821</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>445.8269616929716</v>
+        <v>443.0914104119859</v>
       </c>
       <c r="D24" t="n">
-        <v>396.3641705284887</v>
+        <v>413.3161914863506</v>
       </c>
       <c r="E24" t="n">
-        <v>511.4826683475324</v>
+        <v>498.612635374868</v>
       </c>
       <c r="F24" t="n">
-        <v>445.8269616929716</v>
+        <v>443.0914104119859</v>
       </c>
       <c r="G24" t="n">
-        <v>445.8269616929716</v>
+        <v>443.0914104119859</v>
       </c>
       <c r="H24" t="n">
-        <v>10.16803784951541</v>
+        <v>12.90529901609956</v>
       </c>
       <c r="I24" t="n">
-        <v>10.16803784951541</v>
+        <v>12.90529901609956</v>
       </c>
       <c r="J24" t="n">
-        <v>10.16803784951541</v>
+        <v>12.90529901609956</v>
       </c>
       <c r="K24" t="n">
-        <v>10.16803784951541</v>
+        <v>12.90529901609956</v>
       </c>
       <c r="L24" t="n">
-        <v>10.16803784951541</v>
+        <v>12.90529901609956</v>
       </c>
       <c r="M24" t="n">
-        <v>10.16803784951541</v>
+        <v>12.90529901609956</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>455.9949995424871</v>
+        <v>455.9967094280855</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>446.3552408782664</v>
+        <v>442.3943777573575</v>
       </c>
       <c r="D25" t="n">
-        <v>396.6431992532381</v>
+        <v>404.98872249741</v>
       </c>
       <c r="E25" t="n">
-        <v>518.0033686589589</v>
+        <v>489.3752049189532</v>
       </c>
       <c r="F25" t="n">
-        <v>446.3552408782664</v>
+        <v>442.3943777573575</v>
       </c>
       <c r="G25" t="n">
-        <v>446.3552408782664</v>
+        <v>442.3943777573575</v>
       </c>
       <c r="H25" t="n">
-        <v>12.90978094185208</v>
+        <v>4.538096363861372</v>
       </c>
       <c r="I25" t="n">
-        <v>12.90978094185208</v>
+        <v>4.538096363861372</v>
       </c>
       <c r="J25" t="n">
-        <v>12.90978094185208</v>
+        <v>4.538096363861372</v>
       </c>
       <c r="K25" t="n">
-        <v>12.90978094185208</v>
+        <v>4.538096363861372</v>
       </c>
       <c r="L25" t="n">
-        <v>12.90978094185208</v>
+        <v>4.538096363861372</v>
       </c>
       <c r="M25" t="n">
-        <v>12.90978094185208</v>
+        <v>4.538096363861372</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>459.2650218201185</v>
+        <v>446.9324741212189</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>446.9011293697378</v>
+        <v>441.6741106809081</v>
       </c>
       <c r="D26" t="n">
-        <v>397.3213750281128</v>
+        <v>402.3316675921673</v>
       </c>
       <c r="E26" t="n">
-        <v>513.6640533077308</v>
+        <v>489.8604738285523</v>
       </c>
       <c r="F26" t="n">
-        <v>446.9011293697378</v>
+        <v>441.6741106809081</v>
       </c>
       <c r="G26" t="n">
-        <v>446.9011293697378</v>
+        <v>441.6741106809081</v>
       </c>
       <c r="H26" t="n">
-        <v>7.033167542086616</v>
+        <v>5.108949849372692</v>
       </c>
       <c r="I26" t="n">
-        <v>7.033167542086616</v>
+        <v>5.108949849372692</v>
       </c>
       <c r="J26" t="n">
-        <v>7.033167542086616</v>
+        <v>5.108949849372692</v>
       </c>
       <c r="K26" t="n">
-        <v>7.033167542086616</v>
+        <v>5.108949849372692</v>
       </c>
       <c r="L26" t="n">
-        <v>7.033167542086616</v>
+        <v>5.108949849372692</v>
       </c>
       <c r="M26" t="n">
-        <v>7.033167542086616</v>
+        <v>5.108949849372692</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>453.9342969118244</v>
+        <v>446.7830605302809</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>447.4470178667004</v>
+        <v>440.9576288373445</v>
       </c>
       <c r="D27" t="n">
-        <v>385.5711131858819</v>
+        <v>395.3018815006022</v>
       </c>
       <c r="E27" t="n">
-        <v>502.6855131345455</v>
+        <v>482.1106074049453</v>
       </c>
       <c r="F27" t="n">
-        <v>447.4470178667004</v>
+        <v>440.9576288373445</v>
       </c>
       <c r="G27" t="n">
-        <v>447.4470178667004</v>
+        <v>440.9576288373445</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.997236738452538</v>
+        <v>0.3606274844027267</v>
       </c>
       <c r="I27" t="n">
-        <v>-2.997236738452538</v>
+        <v>0.3606274844027267</v>
       </c>
       <c r="J27" t="n">
-        <v>-2.997236738452538</v>
+        <v>0.3606274844027267</v>
       </c>
       <c r="K27" t="n">
-        <v>-2.997236738452538</v>
+        <v>0.3606274844027267</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.997236738452538</v>
+        <v>0.3606274844027267</v>
       </c>
       <c r="M27" t="n">
-        <v>-2.997236738452538</v>
+        <v>0.3606274844027267</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>444.4497811282479</v>
+        <v>441.3182563217472</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>447.9400784446021</v>
+        <v>440.3104839463837</v>
       </c>
       <c r="D28" t="n">
-        <v>393.5365472995185</v>
+        <v>398.3208402715653</v>
       </c>
       <c r="E28" t="n">
-        <v>507.1597603124142</v>
+        <v>477.9322586144082</v>
       </c>
       <c r="F28" t="n">
-        <v>447.9400784446021</v>
+        <v>440.3104839463837</v>
       </c>
       <c r="G28" t="n">
-        <v>447.9400784446021</v>
+        <v>440.3104839463837</v>
       </c>
       <c r="H28" t="n">
-        <v>4.241378214311161</v>
+        <v>-2.807353967828815</v>
       </c>
       <c r="I28" t="n">
-        <v>4.241378214311161</v>
+        <v>-2.807353967828815</v>
       </c>
       <c r="J28" t="n">
-        <v>4.241378214311161</v>
+        <v>-2.807353967828815</v>
       </c>
       <c r="K28" t="n">
-        <v>4.241378214311161</v>
+        <v>-2.807353967828815</v>
       </c>
       <c r="L28" t="n">
-        <v>4.241378214311161</v>
+        <v>-2.807353967828815</v>
       </c>
       <c r="M28" t="n">
-        <v>4.241378214311161</v>
+        <v>-2.807353967828815</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>452.1814566589133</v>
+        <v>437.5031299785549</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>448.4860805325255</v>
+        <v>439.59400210282</v>
       </c>
       <c r="D29" t="n">
-        <v>399.0540153222331</v>
+        <v>393.7233478688714</v>
       </c>
       <c r="E29" t="n">
-        <v>510.3360478954237</v>
+        <v>476.9477616119146</v>
       </c>
       <c r="F29" t="n">
-        <v>448.4860805325255</v>
+        <v>439.59400210282</v>
       </c>
       <c r="G29" t="n">
-        <v>448.4860805325255</v>
+        <v>439.59400210282</v>
       </c>
       <c r="H29" t="n">
-        <v>7.602259267697963</v>
+        <v>-5.481289680307745</v>
       </c>
       <c r="I29" t="n">
-        <v>7.602259267697963</v>
+        <v>-5.481289680307745</v>
       </c>
       <c r="J29" t="n">
-        <v>7.602259267697963</v>
+        <v>-5.481289680307745</v>
       </c>
       <c r="K29" t="n">
-        <v>7.602259267697963</v>
+        <v>-5.481289680307745</v>
       </c>
       <c r="L29" t="n">
-        <v>7.602259267697963</v>
+        <v>-5.481289680307745</v>
       </c>
       <c r="M29" t="n">
-        <v>7.602259267697963</v>
+        <v>-5.481289680307745</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>456.0883398002234</v>
+        <v>434.1127124225123</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>449.0144696498706</v>
+        <v>441.8243176087895</v>
       </c>
       <c r="D30" t="n">
-        <v>390.9851768162238</v>
+        <v>397.0946618199086</v>
       </c>
       <c r="E30" t="n">
-        <v>512.0339659354104</v>
+        <v>482.5809821029803</v>
       </c>
       <c r="F30" t="n">
-        <v>449.0144696498706</v>
+        <v>441.8243176087895</v>
       </c>
       <c r="G30" t="n">
-        <v>449.0144696498706</v>
+        <v>441.8243176087895</v>
       </c>
       <c r="H30" t="n">
-        <v>3.379212181826527</v>
+        <v>-1.416835543322853</v>
       </c>
       <c r="I30" t="n">
-        <v>3.379212181826527</v>
+        <v>-1.416835543322853</v>
       </c>
       <c r="J30" t="n">
-        <v>3.379212181826527</v>
+        <v>-1.416835543322853</v>
       </c>
       <c r="K30" t="n">
-        <v>3.379212181826527</v>
+        <v>-1.416835543322853</v>
       </c>
       <c r="L30" t="n">
-        <v>3.379212181826527</v>
+        <v>-1.416835543322853</v>
       </c>
       <c r="M30" t="n">
-        <v>3.379212181826527</v>
+        <v>-1.416835543322853</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>452.3936818316971</v>
+        <v>440.4074820654666</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>449.5618548232878</v>
+        <v>444.128976964958</v>
       </c>
       <c r="D31" t="n">
-        <v>398.2251045981429</v>
+        <v>399.2369294381965</v>
       </c>
       <c r="E31" t="n">
-        <v>511.7479998618138</v>
+        <v>482.8728252937294</v>
       </c>
       <c r="F31" t="n">
-        <v>449.5618548232878</v>
+        <v>444.128976964958</v>
       </c>
       <c r="G31" t="n">
-        <v>449.5618548232878</v>
+        <v>444.128976964958</v>
       </c>
       <c r="H31" t="n">
-        <v>5.529423721977355</v>
+        <v>-3.204302157503518</v>
       </c>
       <c r="I31" t="n">
-        <v>5.529423721977355</v>
+        <v>-3.204302157503518</v>
       </c>
       <c r="J31" t="n">
-        <v>5.529423721977355</v>
+        <v>-3.204302157503518</v>
       </c>
       <c r="K31" t="n">
-        <v>5.529423721977355</v>
+        <v>-3.204302157503518</v>
       </c>
       <c r="L31" t="n">
-        <v>5.529423721977355</v>
+        <v>-3.204302157503518</v>
       </c>
       <c r="M31" t="n">
-        <v>5.529423721977355</v>
+        <v>-3.204302157503518</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>455.0912785452652</v>
+        <v>440.9246748074545</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>450.0915824104658</v>
+        <v>446.3611425721162</v>
       </c>
       <c r="D32" t="n">
-        <v>397.7283864429991</v>
+        <v>399.6479684898454</v>
       </c>
       <c r="E32" t="n">
-        <v>511.8114616558523</v>
+        <v>483.8684276787454</v>
       </c>
       <c r="F32" t="n">
-        <v>450.0915824104658</v>
+        <v>446.3611425721162</v>
       </c>
       <c r="G32" t="n">
-        <v>450.0915824104658</v>
+        <v>446.3611425721162</v>
       </c>
       <c r="H32" t="n">
-        <v>3.015504228001828</v>
+        <v>-3.81246981941387</v>
       </c>
       <c r="I32" t="n">
-        <v>3.015504228001828</v>
+        <v>-3.81246981941387</v>
       </c>
       <c r="J32" t="n">
-        <v>3.015504228001828</v>
+        <v>-3.81246981941387</v>
       </c>
       <c r="K32" t="n">
-        <v>3.015504228001828</v>
+        <v>-3.81246981941387</v>
       </c>
       <c r="L32" t="n">
-        <v>3.015504228001828</v>
+        <v>-3.81246981941387</v>
       </c>
       <c r="M32" t="n">
-        <v>3.015504228001828</v>
+        <v>-3.81246981941387</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>453.1070866384676</v>
+        <v>442.5486727527023</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>450.6389675838832</v>
+        <v>448.6677136995129</v>
       </c>
       <c r="D33" t="n">
-        <v>380.8568934589742</v>
+        <v>399.2676081706527</v>
       </c>
       <c r="E33" t="n">
-        <v>500.556604793067</v>
+        <v>479.0357755338437</v>
       </c>
       <c r="F33" t="n">
-        <v>450.6389675838832</v>
+        <v>448.6677136995129</v>
       </c>
       <c r="G33" t="n">
-        <v>450.6389675838832</v>
+        <v>448.6677136995129</v>
       </c>
       <c r="H33" t="n">
-        <v>-7.260369301928995</v>
+        <v>-7.905222887691687</v>
       </c>
       <c r="I33" t="n">
-        <v>-7.260369301928995</v>
+        <v>-7.905222887691687</v>
       </c>
       <c r="J33" t="n">
-        <v>-7.260369301928995</v>
+        <v>-7.905222887691687</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.260369301928995</v>
+        <v>-7.905222887691687</v>
       </c>
       <c r="L33" t="n">
-        <v>-7.260369301928995</v>
+        <v>-7.905222887691687</v>
       </c>
       <c r="M33" t="n">
-        <v>-7.260369301928995</v>
+        <v>-7.905222887691687</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>443.3785982819542</v>
+        <v>440.7624908118212</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>451.1878193734909</v>
+        <v>450.974760859543</v>
       </c>
       <c r="D34" t="n">
-        <v>377.7282928642687</v>
+        <v>404.2097557006953</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4401667428552</v>
+        <v>485.964202841142</v>
       </c>
       <c r="F34" t="n">
-        <v>451.1878193734909</v>
+        <v>450.974760859543</v>
       </c>
       <c r="G34" t="n">
-        <v>451.1878193734909</v>
+        <v>450.974760859543</v>
       </c>
       <c r="H34" t="n">
-        <v>-11.91893244664027</v>
+        <v>-5.010191466962871</v>
       </c>
       <c r="I34" t="n">
-        <v>-11.91893244664027</v>
+        <v>-5.010191466962871</v>
       </c>
       <c r="J34" t="n">
-        <v>-11.91893244664027</v>
+        <v>-5.010191466962871</v>
       </c>
       <c r="K34" t="n">
-        <v>-11.91893244664027</v>
+        <v>-5.010191466962871</v>
       </c>
       <c r="L34" t="n">
-        <v>-11.91893244664027</v>
+        <v>-5.010191466962871</v>
       </c>
       <c r="M34" t="n">
-        <v>-11.91893244664027</v>
+        <v>-5.010191466962871</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>439.2688869268507</v>
+        <v>445.9645693925801</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>451.7189662666597</v>
+        <v>453.207387143443</v>
       </c>
       <c r="D35" t="n">
-        <v>389.4360122371883</v>
+        <v>416.3542196788955</v>
       </c>
       <c r="E35" t="n">
-        <v>500.5796523802549</v>
+        <v>500.8885264043583</v>
       </c>
       <c r="F35" t="n">
-        <v>451.7189662666597</v>
+        <v>453.207387143443</v>
       </c>
       <c r="G35" t="n">
-        <v>451.7189662666597</v>
+        <v>453.207387143443</v>
       </c>
       <c r="H35" t="n">
-        <v>-4.303682377151198</v>
+        <v>5.845127573008082</v>
       </c>
       <c r="I35" t="n">
-        <v>-4.303682377151198</v>
+        <v>5.845127573008082</v>
       </c>
       <c r="J35" t="n">
-        <v>-4.303682377151198</v>
+        <v>5.845127573008082</v>
       </c>
       <c r="K35" t="n">
-        <v>-4.303682377151198</v>
+        <v>5.845127573008082</v>
       </c>
       <c r="L35" t="n">
-        <v>-4.303682377151198</v>
+        <v>5.845127573008082</v>
       </c>
       <c r="M35" t="n">
-        <v>-4.303682377151198</v>
+        <v>5.845127573008082</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>447.4152838895085</v>
+        <v>459.0525147164511</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>452.276185677637</v>
+        <v>455.5144343045795</v>
       </c>
       <c r="D36" t="n">
-        <v>401.5767343224482</v>
+        <v>427.7870360518027</v>
       </c>
       <c r="E36" t="n">
-        <v>521.0453240308372</v>
+        <v>512.3417062003155</v>
       </c>
       <c r="F36" t="n">
-        <v>452.276185677637</v>
+        <v>455.5144343045795</v>
       </c>
       <c r="G36" t="n">
-        <v>452.276185677637</v>
+        <v>455.5144343045795</v>
       </c>
       <c r="H36" t="n">
-        <v>10.46843212305088</v>
+        <v>14.61541988661441</v>
       </c>
       <c r="I36" t="n">
-        <v>10.46843212305088</v>
+        <v>14.61541988661441</v>
       </c>
       <c r="J36" t="n">
-        <v>10.46843212305088</v>
+        <v>14.61541988661441</v>
       </c>
       <c r="K36" t="n">
-        <v>10.46843212305088</v>
+        <v>14.61541988661441</v>
       </c>
       <c r="L36" t="n">
-        <v>10.46843212305088</v>
+        <v>14.61541988661441</v>
       </c>
       <c r="M36" t="n">
-        <v>10.46843212305088</v>
+        <v>14.61541988661441</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>462.7446178006879</v>
+        <v>470.1298541911939</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>452.8154302689054</v>
+        <v>457.7470605895502</v>
       </c>
       <c r="D37" t="n">
-        <v>395.5294896726102</v>
+        <v>409.7265401191817</v>
       </c>
       <c r="E37" t="n">
-        <v>518.0751261763236</v>
+        <v>491.5279843101457</v>
       </c>
       <c r="F37" t="n">
-        <v>452.8154302689054</v>
+        <v>457.7470605895502</v>
       </c>
       <c r="G37" t="n">
-        <v>452.8154302689054</v>
+        <v>457.7470605895502</v>
       </c>
       <c r="H37" t="n">
-        <v>2.956182103345515</v>
+        <v>-6.20001981674995</v>
       </c>
       <c r="I37" t="n">
-        <v>2.956182103345515</v>
+        <v>-6.20001981674995</v>
       </c>
       <c r="J37" t="n">
-        <v>2.956182103345515</v>
+        <v>-6.20001981674995</v>
       </c>
       <c r="K37" t="n">
-        <v>2.956182103345515</v>
+        <v>-6.20001981674995</v>
       </c>
       <c r="L37" t="n">
-        <v>2.956182103345515</v>
+        <v>-6.20001981674995</v>
       </c>
       <c r="M37" t="n">
-        <v>2.956182103345515</v>
+        <v>-6.20001981674995</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>455.7716123722509</v>
+        <v>451.5470407728002</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>453.3868563981698</v>
+        <v>460.0541077524279</v>
       </c>
       <c r="D38" t="n">
-        <v>402.4297515696563</v>
+        <v>420.681236372772</v>
       </c>
       <c r="E38" t="n">
-        <v>517.6056579946007</v>
+        <v>502.9973753102173</v>
       </c>
       <c r="F38" t="n">
-        <v>453.3868563981698</v>
+        <v>460.0541077524279</v>
       </c>
       <c r="G38" t="n">
-        <v>453.3868563981698</v>
+        <v>460.0541077524279</v>
       </c>
       <c r="H38" t="n">
-        <v>7.545399286869451</v>
+        <v>3.344645489368544</v>
       </c>
       <c r="I38" t="n">
-        <v>7.545399286869451</v>
+        <v>3.344645489368544</v>
       </c>
       <c r="J38" t="n">
-        <v>7.545399286869451</v>
+        <v>3.344645489368544</v>
       </c>
       <c r="K38" t="n">
-        <v>7.545399286869451</v>
+        <v>3.344645489368544</v>
       </c>
       <c r="L38" t="n">
-        <v>7.545399286869451</v>
+        <v>3.344645489368544</v>
       </c>
       <c r="M38" t="n">
-        <v>7.545399286869451</v>
+        <v>3.344645489368544</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.9322556850393</v>
+        <v>463.3987532417964</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>453.9582825274343</v>
+        <v>462.3611549153056</v>
       </c>
       <c r="D39" t="n">
-        <v>401.0549390516011</v>
+        <v>421.1083635108886</v>
       </c>
       <c r="E39" t="n">
-        <v>517.0520442944361</v>
+        <v>507.4283997057028</v>
       </c>
       <c r="F39" t="n">
-        <v>453.9582825274343</v>
+        <v>462.3611549153056</v>
       </c>
       <c r="G39" t="n">
-        <v>453.9582825274343</v>
+        <v>462.3611549153056</v>
       </c>
       <c r="H39" t="n">
-        <v>3.881154965482114</v>
+        <v>1.574794117232408</v>
       </c>
       <c r="I39" t="n">
-        <v>3.881154965482114</v>
+        <v>1.574794117232408</v>
       </c>
       <c r="J39" t="n">
-        <v>3.881154965482114</v>
+        <v>1.574794117232408</v>
       </c>
       <c r="K39" t="n">
-        <v>3.881154965482114</v>
+        <v>1.574794117232408</v>
       </c>
       <c r="L39" t="n">
-        <v>3.881154965482114</v>
+        <v>1.574794117232408</v>
       </c>
       <c r="M39" t="n">
-        <v>3.881154965482114</v>
+        <v>1.574794117232408</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>457.8394374929164</v>
+        <v>463.935949032538</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>454.4744093538667</v>
+        <v>464.5193603239138</v>
       </c>
       <c r="D40" t="n">
-        <v>420.4184883840861</v>
+        <v>409.4985910578625</v>
       </c>
       <c r="E40" t="n">
-        <v>535.4639312426767</v>
+        <v>496.3217235280748</v>
       </c>
       <c r="F40" t="n">
-        <v>454.4744093538667</v>
+        <v>464.5193603239138</v>
       </c>
       <c r="G40" t="n">
-        <v>454.4744093538667</v>
+        <v>464.5193603239138</v>
       </c>
       <c r="H40" t="n">
-        <v>21.42753056280786</v>
+        <v>-12.68390706657896</v>
       </c>
       <c r="I40" t="n">
-        <v>21.42753056280786</v>
+        <v>-12.68390706657896</v>
       </c>
       <c r="J40" t="n">
-        <v>21.42753056280786</v>
+        <v>-12.68390706657896</v>
       </c>
       <c r="K40" t="n">
-        <v>21.42753056280786</v>
+        <v>-12.68390706657896</v>
       </c>
       <c r="L40" t="n">
-        <v>21.42753056280786</v>
+        <v>-12.68390706657896</v>
       </c>
       <c r="M40" t="n">
-        <v>21.42753056280786</v>
+        <v>-12.68390706657896</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>475.9019399166746</v>
+        <v>451.8354532573348</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>456.0597435508215</v>
+        <v>466.8264074848397</v>
       </c>
       <c r="D41" t="n">
-        <v>372.1587818796411</v>
+        <v>414.6889514129061</v>
       </c>
       <c r="E41" t="n">
-        <v>482.760645554792</v>
+        <v>496.2013063311882</v>
       </c>
       <c r="F41" t="n">
-        <v>456.0597435508215</v>
+        <v>466.8264074848397</v>
       </c>
       <c r="G41" t="n">
-        <v>456.0597435508215</v>
+        <v>466.8264074848397</v>
       </c>
       <c r="H41" t="n">
-        <v>-29.46599599343648</v>
+        <v>-12.4319849040092</v>
       </c>
       <c r="I41" t="n">
-        <v>-29.46599599343648</v>
+        <v>-12.4319849040092</v>
       </c>
       <c r="J41" t="n">
-        <v>-29.46599599343648</v>
+        <v>-12.4319849040092</v>
       </c>
       <c r="K41" t="n">
-        <v>-29.46599599343648</v>
+        <v>-12.4319849040092</v>
       </c>
       <c r="L41" t="n">
-        <v>-29.46599599343648</v>
+        <v>-12.4319849040092</v>
       </c>
       <c r="M41" t="n">
-        <v>-29.46599599343648</v>
+        <v>-12.4319849040092</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>426.593747557385</v>
+        <v>454.3944225808305</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>457.5939379349712</v>
+        <v>469.0590306196585</v>
       </c>
       <c r="D42" t="n">
-        <v>413.3361282223804</v>
+        <v>417.5500895426429</v>
       </c>
       <c r="E42" t="n">
-        <v>534.6821188477767</v>
+        <v>501.2424681008981</v>
       </c>
       <c r="F42" t="n">
-        <v>457.5939379349712</v>
+        <v>469.0590306196585</v>
       </c>
       <c r="G42" t="n">
-        <v>457.5939379349712</v>
+        <v>469.0590306196585</v>
       </c>
       <c r="H42" t="n">
-        <v>16.05277349992372</v>
+        <v>-8.376001724168681</v>
       </c>
       <c r="I42" t="n">
-        <v>16.05277349992372</v>
+        <v>-8.376001724168681</v>
       </c>
       <c r="J42" t="n">
-        <v>16.05277349992372</v>
+        <v>-8.376001724168681</v>
       </c>
       <c r="K42" t="n">
-        <v>16.05277349992372</v>
+        <v>-8.376001724168681</v>
       </c>
       <c r="L42" t="n">
-        <v>16.05277349992372</v>
+        <v>-8.376001724168681</v>
       </c>
       <c r="M42" t="n">
-        <v>16.05277349992372</v>
+        <v>-8.376001724168681</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>473.6467114348949</v>
+        <v>460.6830288954898</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>459.1848155955746</v>
+        <v>471.3660745256379</v>
       </c>
       <c r="D43" t="n">
-        <v>413.2607697958738</v>
+        <v>438.293362425361</v>
       </c>
       <c r="E43" t="n">
-        <v>528.9954825431495</v>
+        <v>519.5302862278382</v>
       </c>
       <c r="F43" t="n">
-        <v>459.1848155955746</v>
+        <v>471.3660745256379</v>
       </c>
       <c r="G43" t="n">
-        <v>459.1848155955746</v>
+        <v>471.3660745256379</v>
       </c>
       <c r="H43" t="n">
-        <v>11.85037640212741</v>
+        <v>6.618611073407603</v>
       </c>
       <c r="I43" t="n">
-        <v>11.85037640212741</v>
+        <v>6.618611073407603</v>
       </c>
       <c r="J43" t="n">
-        <v>11.85037640212741</v>
+        <v>6.618611073407603</v>
       </c>
       <c r="K43" t="n">
-        <v>11.85037640212741</v>
+        <v>6.618611073407603</v>
       </c>
       <c r="L43" t="n">
-        <v>11.85037640212741</v>
+        <v>6.618611073407603</v>
       </c>
       <c r="M43" t="n">
-        <v>11.85037640212741</v>
+        <v>6.618611073407603</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>471.035191997702</v>
+        <v>477.9846855990455</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>460.724374621965</v>
+        <v>473.5986782714576</v>
       </c>
       <c r="D44" t="n">
-        <v>405.0332789817982</v>
+        <v>447.3267951830176</v>
       </c>
       <c r="E44" t="n">
-        <v>523.9631563628413</v>
+        <v>530.81356716892</v>
       </c>
       <c r="F44" t="n">
-        <v>460.724374621965</v>
+        <v>473.5986782714576</v>
       </c>
       <c r="G44" t="n">
-        <v>460.724374621965</v>
+        <v>473.5986782714576</v>
       </c>
       <c r="H44" t="n">
-        <v>3.115915209226114</v>
+        <v>17.37113849787994</v>
       </c>
       <c r="I44" t="n">
-        <v>3.115915209226114</v>
+        <v>17.37113849787994</v>
       </c>
       <c r="J44" t="n">
-        <v>3.115915209226114</v>
+        <v>17.37113849787994</v>
       </c>
       <c r="K44" t="n">
-        <v>3.115915209226114</v>
+        <v>17.37113849787994</v>
       </c>
       <c r="L44" t="n">
-        <v>3.115915209226114</v>
+        <v>17.37113849787994</v>
       </c>
       <c r="M44" t="n">
-        <v>3.115915209226114</v>
+        <v>17.37113849787994</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.8402898311911</v>
+        <v>490.9698167693376</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>462.3208536911667</v>
+        <v>475.905702142138</v>
       </c>
       <c r="D45" t="n">
-        <v>393.2411625950143</v>
+        <v>431.1448254768503</v>
       </c>
       <c r="E45" t="n">
-        <v>506.8757273301011</v>
+        <v>514.1130645136667</v>
       </c>
       <c r="F45" t="n">
-        <v>462.3208536911667</v>
+        <v>475.905702142138</v>
       </c>
       <c r="G45" t="n">
-        <v>462.3208536911667</v>
+        <v>475.905702142138</v>
       </c>
       <c r="H45" t="n">
-        <v>-8.863877751305218</v>
+        <v>-4.349587315619806</v>
       </c>
       <c r="I45" t="n">
-        <v>-8.863877751305218</v>
+        <v>-4.349587315619806</v>
       </c>
       <c r="J45" t="n">
-        <v>-8.863877751305218</v>
+        <v>-4.349587315619806</v>
       </c>
       <c r="K45" t="n">
-        <v>-8.863877751305218</v>
+        <v>-4.349587315619806</v>
       </c>
       <c r="L45" t="n">
-        <v>-8.863877751305218</v>
+        <v>-4.349587315619806</v>
       </c>
       <c r="M45" t="n">
-        <v>-8.863877751305218</v>
+        <v>-4.349587315619806</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>453.4569759398615</v>
+        <v>471.5561148265181</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>463.9173327603684</v>
+        <v>478.2092804230047</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3133112595819</v>
+        <v>417.5058774288859</v>
       </c>
       <c r="E46" t="n">
-        <v>508.1418571905418</v>
+        <v>499.4000850340443</v>
       </c>
       <c r="F46" t="n">
-        <v>463.9173327603684</v>
+        <v>478.2092804230047</v>
       </c>
       <c r="G46" t="n">
-        <v>463.9173327603684</v>
+        <v>478.2092804230047</v>
       </c>
       <c r="H46" t="n">
-        <v>-13.07097903859708</v>
+        <v>-19.18352905809908</v>
       </c>
       <c r="I46" t="n">
-        <v>-13.07097903859708</v>
+        <v>-19.18352905809908</v>
       </c>
       <c r="J46" t="n">
-        <v>-13.07097903859708</v>
+        <v>-19.18352905809908</v>
       </c>
       <c r="K46" t="n">
-        <v>-13.07097903859708</v>
+        <v>-19.18352905809908</v>
       </c>
       <c r="L46" t="n">
-        <v>-13.07097903859708</v>
+        <v>-19.18352905809908</v>
       </c>
       <c r="M46" t="n">
-        <v>-13.07097903859708</v>
+        <v>-19.18352905809908</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>450.8463537217713</v>
+        <v>459.0257513649056</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>465.4623125047571</v>
+        <v>480.4385497270692</v>
       </c>
       <c r="D47" t="n">
-        <v>403.8952007691894</v>
+        <v>421.2081411555539</v>
       </c>
       <c r="E47" t="n">
-        <v>521.0207780137413</v>
+        <v>504.6058608291446</v>
       </c>
       <c r="F47" t="n">
-        <v>465.4623125047571</v>
+        <v>480.4385497270692</v>
       </c>
       <c r="G47" t="n">
-        <v>465.4623125047571</v>
+        <v>480.4385497270692</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.212421988598372</v>
+        <v>-16.22744205682543</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.212421988598372</v>
+        <v>-16.22744205682543</v>
       </c>
       <c r="J47" t="n">
-        <v>-1.212421988598372</v>
+        <v>-16.22744205682543</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.212421988598372</v>
+        <v>-16.22744205682543</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.212421988598372</v>
+        <v>-16.22744205682543</v>
       </c>
       <c r="M47" t="n">
-        <v>-1.212421988598372</v>
+        <v>-16.22744205682543</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>464.2498905161588</v>
+        <v>464.2111076702438</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>467.0587915760505</v>
+        <v>482.7387495062102</v>
       </c>
       <c r="D48" t="n">
-        <v>418.1286907792849</v>
+        <v>449.4911910786099</v>
       </c>
       <c r="E48" t="n">
-        <v>534.3884253582064</v>
+        <v>534.1142021328022</v>
       </c>
       <c r="F48" t="n">
-        <v>467.0587915760505</v>
+        <v>482.7387495062102</v>
       </c>
       <c r="G48" t="n">
-        <v>467.0587915760505</v>
+        <v>482.7387495062102</v>
       </c>
       <c r="H48" t="n">
-        <v>10.60725646516211</v>
+        <v>8.59348506612481</v>
       </c>
       <c r="I48" t="n">
-        <v>10.60725646516211</v>
+        <v>8.59348506612481</v>
       </c>
       <c r="J48" t="n">
-        <v>10.60725646516211</v>
+        <v>8.59348506612481</v>
       </c>
       <c r="K48" t="n">
-        <v>10.60725646516211</v>
+        <v>8.59348506612481</v>
       </c>
       <c r="L48" t="n">
-        <v>10.60725646516211</v>
+        <v>8.59348506612481</v>
       </c>
       <c r="M48" t="n">
-        <v>10.60725646516211</v>
+        <v>8.59348506612481</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>477.6660480412125</v>
+        <v>491.332234572335</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>468.6037713224634</v>
+        <v>484.9647492924757</v>
       </c>
       <c r="D49" t="n">
-        <v>403.8704972001763</v>
+        <v>469.530487696294</v>
       </c>
       <c r="E49" t="n">
-        <v>522.5681593664788</v>
+        <v>550.3490277650727</v>
       </c>
       <c r="F49" t="n">
-        <v>468.6037713224634</v>
+        <v>484.9647492924757</v>
       </c>
       <c r="G49" t="n">
-        <v>468.6037713224634</v>
+        <v>484.9647492924757</v>
       </c>
       <c r="H49" t="n">
-        <v>-6.924957948684497</v>
+        <v>25.77943574454211</v>
       </c>
       <c r="I49" t="n">
-        <v>-6.924957948684497</v>
+        <v>25.77943574454211</v>
       </c>
       <c r="J49" t="n">
-        <v>-6.924957948684497</v>
+        <v>25.77943574454211</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.924957948684497</v>
+        <v>25.77943574454211</v>
       </c>
       <c r="L49" t="n">
-        <v>-6.924957948684497</v>
+        <v>25.77943574454211</v>
       </c>
       <c r="M49" t="n">
-        <v>-6.924957948684497</v>
+        <v>25.77943574454211</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>461.6788133737789</v>
+        <v>510.7441850370178</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>470.2002503952988</v>
+        <v>487.2590816225047</v>
       </c>
       <c r="D50" t="n">
-        <v>419.2700380526639</v>
+        <v>453.5024241507463</v>
       </c>
       <c r="E50" t="n">
-        <v>532.9595451815396</v>
+        <v>534.2847734774687</v>
       </c>
       <c r="F50" t="n">
-        <v>470.2002503952988</v>
+        <v>487.2590816225047</v>
       </c>
       <c r="G50" t="n">
-        <v>470.2002503952988</v>
+        <v>487.2590816225047</v>
       </c>
       <c r="H50" t="n">
-        <v>8.357763761895161</v>
+        <v>9.152610243443512</v>
       </c>
       <c r="I50" t="n">
-        <v>8.357763761895161</v>
+        <v>9.152610243443512</v>
       </c>
       <c r="J50" t="n">
-        <v>8.357763761895161</v>
+        <v>9.152610243443512</v>
       </c>
       <c r="K50" t="n">
-        <v>8.357763761895161</v>
+        <v>9.152610243443512</v>
       </c>
       <c r="L50" t="n">
-        <v>8.357763761895161</v>
+        <v>9.152610243443512</v>
       </c>
       <c r="M50" t="n">
-        <v>8.357763761895161</v>
+        <v>9.152610243443512</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>478.558014157194</v>
+        <v>496.4116918659482</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>471.7967294681342</v>
+        <v>489.5534139525336</v>
       </c>
       <c r="D51" t="n">
-        <v>423.7513422268548</v>
+        <v>444.253357739062</v>
       </c>
       <c r="E51" t="n">
-        <v>544.9677829045438</v>
+        <v>529.3674451964519</v>
       </c>
       <c r="F51" t="n">
-        <v>471.7967294681342</v>
+        <v>489.5534139525336</v>
       </c>
       <c r="G51" t="n">
-        <v>471.7967294681342</v>
+        <v>489.5534139525336</v>
       </c>
       <c r="H51" t="n">
-        <v>10.95155348694666</v>
+        <v>-1.650499565429222</v>
       </c>
       <c r="I51" t="n">
-        <v>10.95155348694666</v>
+        <v>-1.650499565429222</v>
       </c>
       <c r="J51" t="n">
-        <v>10.95155348694666</v>
+        <v>-1.650499565429222</v>
       </c>
       <c r="K51" t="n">
-        <v>10.95155348694666</v>
+        <v>-1.650499565429222</v>
       </c>
       <c r="L51" t="n">
-        <v>10.95155348694666</v>
+        <v>-1.650499565429222</v>
       </c>
       <c r="M51" t="n">
-        <v>10.95155348694666</v>
+        <v>-1.650499565429222</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>482.7482829550809</v>
+        <v>487.9029143871044</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>473.2902098911093</v>
+        <v>491.6220034496611</v>
       </c>
       <c r="D52" t="n">
-        <v>384.8342819792828</v>
+        <v>438.9152250684524</v>
       </c>
       <c r="E52" t="n">
-        <v>500.5025517154977</v>
+        <v>523.4408397859172</v>
       </c>
       <c r="F52" t="n">
-        <v>473.2902098911093</v>
+        <v>491.6220034496611</v>
       </c>
       <c r="G52" t="n">
-        <v>473.2902098911093</v>
+        <v>491.6220034496611</v>
       </c>
       <c r="H52" t="n">
-        <v>-31.88828229624188</v>
+        <v>-9.423312284019753</v>
       </c>
       <c r="I52" t="n">
-        <v>-31.88828229624188</v>
+        <v>-9.423312284019753</v>
       </c>
       <c r="J52" t="n">
-        <v>-31.88828229624188</v>
+        <v>-9.423312284019753</v>
       </c>
       <c r="K52" t="n">
-        <v>-31.88828229624188</v>
+        <v>-9.423312284019753</v>
       </c>
       <c r="L52" t="n">
-        <v>-31.88828229624188</v>
+        <v>-9.423312284019753</v>
       </c>
       <c r="M52" t="n">
-        <v>-31.88828229624188</v>
+        <v>-9.423312284019753</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>441.4019275948674</v>
+        <v>482.1986911656414</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>474.8866889642831</v>
+        <v>493.9122275357665</v>
       </c>
       <c r="D53" t="n">
-        <v>500.199538256757</v>
+        <v>443.1586441148112</v>
       </c>
       <c r="E53" t="n">
-        <v>614.1763063077196</v>
+        <v>526.9151488693642</v>
       </c>
       <c r="F53" t="n">
-        <v>474.8866889642831</v>
+        <v>493.9122275357665</v>
       </c>
       <c r="G53" t="n">
-        <v>474.8866889642831</v>
+        <v>493.9122275357665</v>
       </c>
       <c r="H53" t="n">
-        <v>81.32760750913839</v>
+        <v>-10.0712157074342</v>
       </c>
       <c r="I53" t="n">
-        <v>81.32760750913839</v>
+        <v>-10.0712157074342</v>
       </c>
       <c r="J53" t="n">
-        <v>81.32760750913839</v>
+        <v>-10.0712157074342</v>
       </c>
       <c r="K53" t="n">
-        <v>81.32760750913839</v>
+        <v>-10.0712157074342</v>
       </c>
       <c r="L53" t="n">
-        <v>81.32760750913839</v>
+        <v>-10.0712157074342</v>
       </c>
       <c r="M53" t="n">
-        <v>81.32760750913839</v>
+        <v>-10.0712157074342</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>556.2142964734214</v>
+        <v>483.8410118283323</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>476.4316687125158</v>
+        <v>496.1272857089572</v>
       </c>
       <c r="D54" t="n">
-        <v>396.5397484618044</v>
+        <v>447.9475946729497</v>
       </c>
       <c r="E54" t="n">
-        <v>511.7491829827002</v>
+        <v>534.4596605741727</v>
       </c>
       <c r="F54" t="n">
-        <v>476.4316687125158</v>
+        <v>496.1272857089572</v>
       </c>
       <c r="G54" t="n">
-        <v>476.4316687125158</v>
+        <v>496.1272857089572</v>
       </c>
       <c r="H54" t="n">
-        <v>-20.39144860533723</v>
+        <v>-5.911349308826205</v>
       </c>
       <c r="I54" t="n">
-        <v>-20.39144860533723</v>
+        <v>-5.911349308826205</v>
       </c>
       <c r="J54" t="n">
-        <v>-20.39144860533723</v>
+        <v>-5.911349308826205</v>
       </c>
       <c r="K54" t="n">
-        <v>-20.39144860533723</v>
+        <v>-5.911349308826205</v>
       </c>
       <c r="L54" t="n">
-        <v>-20.39144860533723</v>
+        <v>-5.911349308826205</v>
       </c>
       <c r="M54" t="n">
-        <v>-20.39144860533723</v>
+        <v>-5.911349308826205</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>456.0402201071786</v>
+        <v>490.2159364001309</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>478.0281477856662</v>
+        <v>498.4161791545874</v>
       </c>
       <c r="D55" t="n">
-        <v>411.0618845776088</v>
+        <v>460.8685044642672</v>
       </c>
       <c r="E55" t="n">
-        <v>528.6319975282611</v>
+        <v>543.1191591568419</v>
       </c>
       <c r="F55" t="n">
-        <v>478.0281477856662</v>
+        <v>498.4161791545874</v>
       </c>
       <c r="G55" t="n">
-        <v>478.0281477856662</v>
+        <v>498.4161791545874</v>
       </c>
       <c r="H55" t="n">
-        <v>-7.152723281458537</v>
+        <v>3.503583742515806</v>
       </c>
       <c r="I55" t="n">
-        <v>-7.152723281458537</v>
+        <v>3.503583742515806</v>
       </c>
       <c r="J55" t="n">
-        <v>-7.152723281458537</v>
+        <v>3.503583742515806</v>
       </c>
       <c r="K55" t="n">
-        <v>-7.152723281458537</v>
+        <v>3.503583742515806</v>
       </c>
       <c r="L55" t="n">
-        <v>-7.152723281458537</v>
+        <v>3.503583742515806</v>
       </c>
       <c r="M55" t="n">
-        <v>-7.152723281458537</v>
+        <v>3.503583742515806</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>470.8754245042077</v>
+        <v>501.9197628971032</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>479.5731275338763</v>
+        <v>500.631237327778</v>
       </c>
       <c r="D56" t="n">
-        <v>421.7409239666702</v>
+        <v>471.5599678105626</v>
       </c>
       <c r="E56" t="n">
-        <v>539.5734067353426</v>
+        <v>551.0979465371752</v>
       </c>
       <c r="F56" t="n">
-        <v>479.5731275338763</v>
+        <v>500.631237327778</v>
       </c>
       <c r="G56" t="n">
-        <v>479.5731275338763</v>
+        <v>500.631237327778</v>
       </c>
       <c r="H56" t="n">
-        <v>2.452719204002897</v>
+        <v>10.24797141667642</v>
       </c>
       <c r="I56" t="n">
-        <v>2.452719204002897</v>
+        <v>10.24797141667642</v>
       </c>
       <c r="J56" t="n">
-        <v>2.452719204002897</v>
+        <v>10.24797141667642</v>
       </c>
       <c r="K56" t="n">
-        <v>2.452719204002897</v>
+        <v>10.24797141667642</v>
       </c>
       <c r="L56" t="n">
-        <v>2.452719204002897</v>
+        <v>10.24797141667642</v>
       </c>
       <c r="M56" t="n">
-        <v>2.452719204002897</v>
+        <v>10.24797141667642</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>482.0258467378792</v>
+        <v>510.8792087444544</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>481.1696065188629</v>
+        <v>502.9201307734082</v>
       </c>
       <c r="D57" t="n">
-        <v>414.4812195832332</v>
+        <v>455.9496582606374</v>
       </c>
       <c r="E57" t="n">
-        <v>530.444569568803</v>
+        <v>537.585305759624</v>
       </c>
       <c r="F57" t="n">
-        <v>481.1696065188629</v>
+        <v>502.9201307734082</v>
       </c>
       <c r="G57" t="n">
-        <v>481.1696065188629</v>
+        <v>502.9201307734082</v>
       </c>
       <c r="H57" t="n">
-        <v>-4.199995870135397</v>
+        <v>-5.771189356461719</v>
       </c>
       <c r="I57" t="n">
-        <v>-4.199995870135397</v>
+        <v>-5.771189356461719</v>
       </c>
       <c r="J57" t="n">
-        <v>-4.199995870135397</v>
+        <v>-5.771189356461719</v>
       </c>
       <c r="K57" t="n">
-        <v>-4.199995870135397</v>
+        <v>-5.771189356461719</v>
       </c>
       <c r="L57" t="n">
-        <v>-4.199995870135397</v>
+        <v>-5.771189356461719</v>
       </c>
       <c r="M57" t="n">
-        <v>-4.199995870135397</v>
+        <v>-5.771189356461719</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>476.9696106487275</v>
+        <v>497.1489414169465</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>482.7660855038496</v>
+        <v>505.2090242190384</v>
       </c>
       <c r="D58" t="n">
-        <v>415.1924979020878</v>
+        <v>448.1896612403768</v>
       </c>
       <c r="E58" t="n">
-        <v>531.440346410451</v>
+        <v>531.2855330681338</v>
       </c>
       <c r="F58" t="n">
-        <v>482.7660855038496</v>
+        <v>505.2090242190384</v>
       </c>
       <c r="G58" t="n">
-        <v>482.7660855038496</v>
+        <v>505.2090242190384</v>
       </c>
       <c r="H58" t="n">
-        <v>-9.518187260012501</v>
+        <v>-14.63427280403126</v>
       </c>
       <c r="I58" t="n">
-        <v>-9.518187260012501</v>
+        <v>-14.63427280403126</v>
       </c>
       <c r="J58" t="n">
-        <v>-9.518187260012501</v>
+        <v>-14.63427280403126</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.518187260012501</v>
+        <v>-14.63427280403126</v>
       </c>
       <c r="L58" t="n">
-        <v>-9.518187260012501</v>
+        <v>-14.63427280403126</v>
       </c>
       <c r="M58" t="n">
-        <v>-9.518187260012501</v>
+        <v>-14.63427280403126</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>473.2478982438371</v>
+        <v>490.5747514150072</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>484.3110651667399</v>
+        <v>507.424082392229</v>
       </c>
       <c r="D59" t="n">
-        <v>414.2680596491242</v>
+        <v>455.8586798271809</v>
       </c>
       <c r="E59" t="n">
-        <v>530.7375087945762</v>
+        <v>539.9739036656148</v>
       </c>
       <c r="F59" t="n">
-        <v>484.3110651667399</v>
+        <v>507.424082392229</v>
       </c>
       <c r="G59" t="n">
-        <v>484.3110651667399</v>
+        <v>507.424082392229</v>
       </c>
       <c r="H59" t="n">
-        <v>-10.56376466764055</v>
+        <v>-8.783967964157499</v>
       </c>
       <c r="I59" t="n">
-        <v>-10.56376466764055</v>
+        <v>-8.783967964157499</v>
       </c>
       <c r="J59" t="n">
-        <v>-10.56376466764055</v>
+        <v>-8.783967964157499</v>
       </c>
       <c r="K59" t="n">
-        <v>-10.56376466764055</v>
+        <v>-8.783967964157499</v>
       </c>
       <c r="L59" t="n">
-        <v>-10.56376466764055</v>
+        <v>-8.783967964157499</v>
       </c>
       <c r="M59" t="n">
-        <v>-10.56376466764055</v>
+        <v>-8.783967964157499</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>473.7473004990994</v>
+        <v>498.6401144280715</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>485.9061536579908</v>
+        <v>509.7129758378593</v>
       </c>
       <c r="D60" t="n">
-        <v>437.5888108799306</v>
+        <v>480.1381719924244</v>
       </c>
       <c r="E60" t="n">
-        <v>555.3255934399783</v>
+        <v>563.7801764254257</v>
       </c>
       <c r="F60" t="n">
-        <v>485.9061536579908</v>
+        <v>509.7129758378593</v>
       </c>
       <c r="G60" t="n">
-        <v>485.9061536579908</v>
+        <v>509.7129758378593</v>
       </c>
       <c r="H60" t="n">
-        <v>9.704341468411547</v>
+        <v>10.89731604924355</v>
       </c>
       <c r="I60" t="n">
-        <v>9.704341468411547</v>
+        <v>10.89731604924355</v>
       </c>
       <c r="J60" t="n">
-        <v>9.704341468411547</v>
+        <v>10.89731604924355</v>
       </c>
       <c r="K60" t="n">
-        <v>9.704341468411547</v>
+        <v>10.89731604924355</v>
       </c>
       <c r="L60" t="n">
-        <v>9.704341468411547</v>
+        <v>10.89731604924355</v>
       </c>
       <c r="M60" t="n">
-        <v>9.704341468411547</v>
+        <v>10.89731604924355</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>495.6104951264023</v>
+        <v>520.6102918871028</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>487.4497876817819</v>
+        <v>511.9280340110498</v>
       </c>
       <c r="D61" t="n">
-        <v>454.7033403871966</v>
+        <v>486.3500921529724</v>
       </c>
       <c r="E61" t="n">
-        <v>569.5140785018179</v>
+        <v>571.341746396152</v>
       </c>
       <c r="F61" t="n">
-        <v>487.4497876817819</v>
+        <v>511.9280340110498</v>
       </c>
       <c r="G61" t="n">
-        <v>487.4497876817819</v>
+        <v>511.9280340110498</v>
       </c>
       <c r="H61" t="n">
-        <v>22.92434171867872</v>
+        <v>15.20228874064008</v>
       </c>
       <c r="I61" t="n">
-        <v>22.92434171867872</v>
+        <v>15.20228874064008</v>
       </c>
       <c r="J61" t="n">
-        <v>22.92434171867872</v>
+        <v>15.20228874064008</v>
       </c>
       <c r="K61" t="n">
-        <v>22.92434171867872</v>
+        <v>15.20228874064008</v>
       </c>
       <c r="L61" t="n">
-        <v>22.92434171867872</v>
+        <v>15.20228874064008</v>
       </c>
       <c r="M61" t="n">
-        <v>22.92434171867872</v>
+        <v>15.20228874064008</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>510.3741294004606</v>
+        <v>527.1303227516898</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>489.0436014777149</v>
+        <v>514.2169274566801</v>
       </c>
       <c r="D62" t="n">
-        <v>435.9217193557158</v>
+        <v>478.9264119411498</v>
       </c>
       <c r="E62" t="n">
-        <v>554.5313281089998</v>
+        <v>562.0435413533611</v>
       </c>
       <c r="F62" t="n">
-        <v>489.0436014777149</v>
+        <v>514.2169274566801</v>
       </c>
       <c r="G62" t="n">
-        <v>489.0436014777149</v>
+        <v>514.2169274566801</v>
       </c>
       <c r="H62" t="n">
-        <v>6.821467141046404</v>
+        <v>7.046776667220843</v>
       </c>
       <c r="I62" t="n">
-        <v>6.821467141046404</v>
+        <v>7.046776667220843</v>
       </c>
       <c r="J62" t="n">
-        <v>6.821467141046404</v>
+        <v>7.046776667220843</v>
       </c>
       <c r="K62" t="n">
-        <v>6.821467141046404</v>
+        <v>7.046776667220843</v>
       </c>
       <c r="L62" t="n">
-        <v>6.821467141046404</v>
+        <v>7.046776667220843</v>
       </c>
       <c r="M62" t="n">
-        <v>6.821467141046404</v>
+        <v>7.046776667220843</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>495.8650686187613</v>
+        <v>521.2637041239009</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>490.6374152736478</v>
+        <v>516.5058209023103</v>
       </c>
       <c r="D63" t="n">
-        <v>424.0306542110404</v>
+        <v>471.7015963198319</v>
       </c>
       <c r="E63" t="n">
-        <v>539.6325263422835</v>
+        <v>555.4557554608315</v>
       </c>
       <c r="F63" t="n">
-        <v>490.6374152736478</v>
+        <v>516.5058209023103</v>
       </c>
       <c r="G63" t="n">
-        <v>490.6374152736478</v>
+        <v>516.5058209023103</v>
       </c>
       <c r="H63" t="n">
-        <v>-9.670594635048445</v>
+        <v>-0.7147433240225082</v>
       </c>
       <c r="I63" t="n">
-        <v>-9.670594635048445</v>
+        <v>-0.7147433240225082</v>
       </c>
       <c r="J63" t="n">
-        <v>-9.670594635048445</v>
+        <v>-0.7147433240225082</v>
       </c>
       <c r="K63" t="n">
-        <v>-9.670594635048445</v>
+        <v>-0.7147433240225082</v>
       </c>
       <c r="L63" t="n">
-        <v>-9.670594635048445</v>
+        <v>-0.7147433240225082</v>
       </c>
       <c r="M63" t="n">
-        <v>-9.670594635048445</v>
+        <v>-0.7147433240225082</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>480.9668206385993</v>
+        <v>515.7910775782879</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>492.076989024813</v>
+        <v>518.5732085306215</v>
       </c>
       <c r="D64" t="n">
-        <v>419.4577236039975</v>
+        <v>472.587064347275</v>
       </c>
       <c r="E64" t="n">
-        <v>536.6687294114929</v>
+        <v>552.7238180259598</v>
       </c>
       <c r="F64" t="n">
-        <v>492.076989024813</v>
+        <v>518.5732085306215</v>
       </c>
       <c r="G64" t="n">
-        <v>492.076989024813</v>
+        <v>518.5732085306215</v>
       </c>
       <c r="H64" t="n">
-        <v>-13.53469953227415</v>
+        <v>-6.129263358848327</v>
       </c>
       <c r="I64" t="n">
-        <v>-13.53469953227415</v>
+        <v>-6.129263358848327</v>
       </c>
       <c r="J64" t="n">
-        <v>-13.53469953227415</v>
+        <v>-6.129263358848327</v>
       </c>
       <c r="K64" t="n">
-        <v>-13.53469953227415</v>
+        <v>-6.129263358848327</v>
       </c>
       <c r="L64" t="n">
-        <v>-13.53469953227415</v>
+        <v>-6.129263358848327</v>
       </c>
       <c r="M64" t="n">
-        <v>-13.53469953227415</v>
+        <v>-6.129263358848327</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>478.5422894925388</v>
+        <v>512.4439451717732</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>493.6708028207459</v>
+        <v>520.8621019762518</v>
       </c>
       <c r="D65" t="n">
-        <v>478.1360396757996</v>
+        <v>472.3699915243142</v>
       </c>
       <c r="E65" t="n">
-        <v>593.2086239576638</v>
+        <v>559.137146831986</v>
       </c>
       <c r="F65" t="n">
-        <v>493.6708028207459</v>
+        <v>520.8621019762518</v>
       </c>
       <c r="G65" t="n">
-        <v>493.6708028207459</v>
+        <v>520.8621019762518</v>
       </c>
       <c r="H65" t="n">
-        <v>44.5453143330605</v>
+        <v>-7.752693721643516</v>
       </c>
       <c r="I65" t="n">
-        <v>44.5453143330605</v>
+        <v>-7.752693721643516</v>
       </c>
       <c r="J65" t="n">
-        <v>44.5453143330605</v>
+        <v>-7.752693721643516</v>
       </c>
       <c r="K65" t="n">
-        <v>44.5453143330605</v>
+        <v>-7.752693721643516</v>
       </c>
       <c r="L65" t="n">
-        <v>44.5453143330605</v>
+        <v>-7.752693721643516</v>
       </c>
       <c r="M65" t="n">
-        <v>44.5453143330605</v>
+        <v>-7.752693721643516</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>538.2161171538064</v>
+        <v>513.1094082546083</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>495.2132032684229</v>
+        <v>523.0771601494423</v>
       </c>
       <c r="D66" t="n">
-        <v>429.4471605937658</v>
+        <v>477.3178238259194</v>
       </c>
       <c r="E66" t="n">
-        <v>549.1045499486373</v>
+        <v>563.7556175972925</v>
       </c>
       <c r="F66" t="n">
-        <v>495.2132032684229</v>
+        <v>523.0771601494423</v>
       </c>
       <c r="G66" t="n">
-        <v>495.2132032684229</v>
+        <v>523.0771601494423</v>
       </c>
       <c r="H66" t="n">
-        <v>-8.770890997531003</v>
+        <v>-3.590866520296351</v>
       </c>
       <c r="I66" t="n">
-        <v>-8.770890997531003</v>
+        <v>-3.590866520296351</v>
       </c>
       <c r="J66" t="n">
-        <v>-8.770890997531003</v>
+        <v>-3.590866520296351</v>
       </c>
       <c r="K66" t="n">
-        <v>-8.770890997531003</v>
+        <v>-3.590866520296351</v>
       </c>
       <c r="L66" t="n">
-        <v>-8.770890997531003</v>
+        <v>-3.590866520296351</v>
       </c>
       <c r="M66" t="n">
-        <v>-8.770890997531003</v>
+        <v>-3.590866520296351</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>486.4423122708919</v>
+        <v>519.486293629146</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>496.8070170643558</v>
+        <v>525.3660535950726</v>
       </c>
       <c r="D67" t="n">
-        <v>436.1787144344435</v>
+        <v>483.7332239093914</v>
       </c>
       <c r="E67" t="n">
-        <v>552.259743625659</v>
+        <v>567.8007044298927</v>
       </c>
       <c r="F67" t="n">
-        <v>496.8070170643558</v>
+        <v>525.3423255244924</v>
       </c>
       <c r="G67" t="n">
-        <v>496.8070170643558</v>
+        <v>525.3945140700417</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.8083753862872403</v>
+        <v>0.2274718661034142</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.8083753862872403</v>
+        <v>0.2274718661034142</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.8083753862872403</v>
+        <v>0.2274718661034142</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.8083753862872403</v>
+        <v>0.2274718661034142</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.8083753862872403</v>
+        <v>0.2274718661034142</v>
       </c>
       <c r="M67" t="n">
-        <v>-0.8083753862872403</v>
+        <v>0.2274718661034142</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>495.9986416780686</v>
+        <v>525.593525461176</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>498.3494175120328</v>
+        <v>527.5811117682631</v>
       </c>
       <c r="D68" t="n">
-        <v>446.9945659192367</v>
+        <v>490.9326253865106</v>
       </c>
       <c r="E68" t="n">
-        <v>559.9446165699209</v>
+        <v>574.682949163594</v>
       </c>
       <c r="F68" t="n">
-        <v>498.3494175120328</v>
+        <v>527.4339709628762</v>
       </c>
       <c r="G68" t="n">
-        <v>498.3494175120328</v>
+        <v>527.7387010357394</v>
       </c>
       <c r="H68" t="n">
-        <v>2.793756515781625</v>
+        <v>3.183442923729702</v>
       </c>
       <c r="I68" t="n">
-        <v>2.793756515781625</v>
+        <v>3.183442923729702</v>
       </c>
       <c r="J68" t="n">
-        <v>2.793756515781625</v>
+        <v>3.183442923729702</v>
       </c>
       <c r="K68" t="n">
-        <v>2.793756515781625</v>
+        <v>3.183442923729702</v>
       </c>
       <c r="L68" t="n">
-        <v>2.793756515781625</v>
+        <v>3.183442923729702</v>
       </c>
       <c r="M68" t="n">
-        <v>2.793756515781625</v>
+        <v>3.183442923729702</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>501.1431740278144</v>
+        <v>530.7645546919928</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>499.9432313079657</v>
+        <v>529.8700052138934</v>
       </c>
       <c r="D69" t="n">
-        <v>437.3643995671202</v>
+        <v>480.2081271801451</v>
       </c>
       <c r="E69" t="n">
-        <v>559.1370476656729</v>
+        <v>563.0681367706621</v>
       </c>
       <c r="F69" t="n">
-        <v>499.9432313079657</v>
+        <v>529.5636392005314</v>
       </c>
       <c r="G69" t="n">
-        <v>499.9432313079657</v>
+        <v>530.223693159803</v>
       </c>
       <c r="H69" t="n">
-        <v>-5.705176759866218</v>
+        <v>-6.957114574490761</v>
       </c>
       <c r="I69" t="n">
-        <v>-5.705176759866218</v>
+        <v>-6.957114574490761</v>
       </c>
       <c r="J69" t="n">
-        <v>-5.705176759866218</v>
+        <v>-6.957114574490761</v>
       </c>
       <c r="K69" t="n">
-        <v>-5.705176759866218</v>
+        <v>-6.957114574490761</v>
       </c>
       <c r="L69" t="n">
-        <v>-5.705176759866218</v>
+        <v>-6.957114574490761</v>
       </c>
       <c r="M69" t="n">
-        <v>-5.705176759866218</v>
+        <v>-6.957114574490761</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>494.2380545480995</v>
+        <v>522.9128906394026</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>501.5370451038986</v>
+        <v>532.1588986595236</v>
       </c>
       <c r="D70" t="n">
-        <v>432.8394430314589</v>
+        <v>481.1727027116433</v>
       </c>
       <c r="E70" t="n">
-        <v>548.4788286671914</v>
+        <v>567.9198816080776</v>
       </c>
       <c r="F70" t="n">
-        <v>501.5370451038986</v>
+        <v>531.6696496110378</v>
       </c>
       <c r="G70" t="n">
-        <v>501.5370451038986</v>
+        <v>532.7246789681193</v>
       </c>
       <c r="H70" t="n">
-        <v>-10.73436397602672</v>
+        <v>-9.907318232850658</v>
       </c>
       <c r="I70" t="n">
-        <v>-10.73436397602672</v>
+        <v>-9.907318232850658</v>
       </c>
       <c r="J70" t="n">
-        <v>-10.73436397602672</v>
+        <v>-9.907318232850658</v>
       </c>
       <c r="K70" t="n">
-        <v>-10.73436397602672</v>
+        <v>-9.907318232850658</v>
       </c>
       <c r="L70" t="n">
-        <v>-10.73436397602672</v>
+        <v>-9.907318232850658</v>
       </c>
       <c r="M70" t="n">
-        <v>-10.73436397602672</v>
+        <v>-9.907318232850658</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>490.8026811278719</v>
+        <v>522.2515804266729</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>503.0794455515756</v>
+        <v>534.3739568327142</v>
       </c>
       <c r="D71" t="n">
-        <v>439.2458009158794</v>
+        <v>490.4693539287421</v>
       </c>
       <c r="E71" t="n">
-        <v>555.1040371837151</v>
+        <v>575.9993856043028</v>
       </c>
       <c r="F71" t="n">
-        <v>503.0794455515756</v>
+        <v>533.6475320419717</v>
       </c>
       <c r="G71" t="n">
-        <v>503.0794455515756</v>
+        <v>535.226144523722</v>
       </c>
       <c r="H71" t="n">
-        <v>-7.421828539307782</v>
+        <v>-1.422774003122263</v>
       </c>
       <c r="I71" t="n">
-        <v>-7.421828539307782</v>
+        <v>-1.422774003122263</v>
       </c>
       <c r="J71" t="n">
-        <v>-7.421828539307782</v>
+        <v>-1.422774003122263</v>
       </c>
       <c r="K71" t="n">
-        <v>-7.421828539307782</v>
+        <v>-1.422774003122263</v>
       </c>
       <c r="L71" t="n">
-        <v>-7.421828539307782</v>
+        <v>-1.422774003122263</v>
       </c>
       <c r="M71" t="n">
-        <v>-7.421828539307782</v>
+        <v>-1.422774003122263</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>495.6576170122678</v>
+        <v>532.9511828295919</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>504.6732593475085</v>
+        <v>536.6628502783444</v>
       </c>
       <c r="D72" t="n">
-        <v>457.2302533770996</v>
+        <v>507.4861790559893</v>
       </c>
       <c r="E72" t="n">
-        <v>570.5856790932021</v>
+        <v>590.3978405565259</v>
       </c>
       <c r="F72" t="n">
-        <v>504.6732593475085</v>
+        <v>535.683296215507</v>
       </c>
       <c r="G72" t="n">
-        <v>504.6732593475085</v>
+        <v>537.7843330645196</v>
       </c>
       <c r="H72" t="n">
-        <v>10.16803784953665</v>
+        <v>12.90529901610133</v>
       </c>
       <c r="I72" t="n">
-        <v>10.16803784953665</v>
+        <v>12.90529901610133</v>
       </c>
       <c r="J72" t="n">
-        <v>10.16803784953665</v>
+        <v>12.90529901610133</v>
       </c>
       <c r="K72" t="n">
-        <v>10.16803784953665</v>
+        <v>12.90529901610133</v>
       </c>
       <c r="L72" t="n">
-        <v>10.16803784953665</v>
+        <v>12.90529901610133</v>
       </c>
       <c r="M72" t="n">
-        <v>10.16803784953665</v>
+        <v>12.90529901610133</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>514.8412971970452</v>
+        <v>549.5681492944458</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>506.2156597951855</v>
+        <v>538.8779084515349</v>
       </c>
       <c r="D73" t="n">
-        <v>464.3736996655877</v>
+        <v>498.0150249598572</v>
       </c>
       <c r="E73" t="n">
-        <v>575.8320680761465</v>
+        <v>584.9461045881624</v>
       </c>
       <c r="F73" t="n">
-        <v>506.2156597951855</v>
+        <v>537.6142050719795</v>
       </c>
       <c r="G73" t="n">
-        <v>506.2156597951855</v>
+        <v>540.2819865164047</v>
       </c>
       <c r="H73" t="n">
-        <v>12.90978094182705</v>
+        <v>4.538096363880601</v>
       </c>
       <c r="I73" t="n">
-        <v>12.90978094182705</v>
+        <v>4.538096363880601</v>
       </c>
       <c r="J73" t="n">
-        <v>12.90978094182705</v>
+        <v>4.538096363880601</v>
       </c>
       <c r="K73" t="n">
-        <v>12.90978094182705</v>
+        <v>4.538096363880601</v>
       </c>
       <c r="L73" t="n">
-        <v>12.90978094182705</v>
+        <v>4.538096363880601</v>
       </c>
       <c r="M73" t="n">
-        <v>12.90978094182705</v>
+        <v>4.538096363880601</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>519.1254407370126</v>
+        <v>543.4160048154156</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>507.8094735911184</v>
+        <v>541.1668018971653</v>
       </c>
       <c r="D74" t="n">
-        <v>458.097262525762</v>
+        <v>505.0826937665012</v>
       </c>
       <c r="E74" t="n">
-        <v>576.75338183129</v>
+        <v>585.4813562815867</v>
       </c>
       <c r="F74" t="n">
-        <v>507.8094735911184</v>
+        <v>539.5288654092963</v>
       </c>
       <c r="G74" t="n">
-        <v>507.8094735911184</v>
+        <v>542.8673990248193</v>
       </c>
       <c r="H74" t="n">
-        <v>7.033167542078792</v>
+        <v>5.108949849419531</v>
       </c>
       <c r="I74" t="n">
-        <v>7.033167542078792</v>
+        <v>5.108949849419531</v>
       </c>
       <c r="J74" t="n">
-        <v>7.033167542078792</v>
+        <v>5.108949849419531</v>
       </c>
       <c r="K74" t="n">
-        <v>7.033167542078792</v>
+        <v>5.108949849419531</v>
       </c>
       <c r="L74" t="n">
-        <v>7.033167542078792</v>
+        <v>5.108949849419531</v>
       </c>
       <c r="M74" t="n">
-        <v>7.033167542078792</v>
+        <v>5.108949849419531</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>514.8426411331972</v>
+        <v>546.2757517465849</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>509.4032873870514</v>
+        <v>543.4556953427955</v>
       </c>
       <c r="D75" t="n">
-        <v>450.2251963816783</v>
+        <v>502.9928707719752</v>
       </c>
       <c r="E75" t="n">
-        <v>562.3413981403432</v>
+        <v>586.51089354362</v>
       </c>
       <c r="F75" t="n">
-        <v>509.4032873870514</v>
+        <v>541.4305380257308</v>
       </c>
       <c r="G75" t="n">
-        <v>509.4032873870514</v>
+        <v>545.5213434814231</v>
       </c>
       <c r="H75" t="n">
-        <v>-2.997236738409127</v>
+        <v>0.3606274844280963</v>
       </c>
       <c r="I75" t="n">
-        <v>-2.997236738409127</v>
+        <v>0.3606274844280963</v>
       </c>
       <c r="J75" t="n">
-        <v>-2.997236738409127</v>
+        <v>0.3606274844280963</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.997236738409127</v>
+        <v>0.3606274844280963</v>
       </c>
       <c r="L75" t="n">
-        <v>-2.997236738409127</v>
+        <v>0.3606274844280963</v>
       </c>
       <c r="M75" t="n">
-        <v>-2.997236738409127</v>
+        <v>0.3606274844280963</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>506.4060506486422</v>
+        <v>543.8163228272235</v>
       </c>
     </row>
     <row r="76">
@@ -4446,40 +4446,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>510.8428611382166</v>
+        <v>545.5230829711068</v>
       </c>
       <c r="D76" t="n">
-        <v>457.3028605299162</v>
+        <v>499.1299642165683</v>
       </c>
       <c r="E76" t="n">
-        <v>570.8883332305513</v>
+        <v>582.1616811465721</v>
       </c>
       <c r="F76" t="n">
-        <v>510.8428611382166</v>
+        <v>543.2113652232466</v>
       </c>
       <c r="G76" t="n">
-        <v>510.8428611382166</v>
+        <v>547.9363001269382</v>
       </c>
       <c r="H76" t="n">
-        <v>4.241378214310335</v>
+        <v>-2.807353967879841</v>
       </c>
       <c r="I76" t="n">
-        <v>4.241378214310335</v>
+        <v>-2.807353967879841</v>
       </c>
       <c r="J76" t="n">
-        <v>4.241378214310335</v>
+        <v>-2.807353967879841</v>
       </c>
       <c r="K76" t="n">
-        <v>4.241378214310335</v>
+        <v>-2.807353967879841</v>
       </c>
       <c r="L76" t="n">
-        <v>4.241378214310335</v>
+        <v>-2.807353967879841</v>
       </c>
       <c r="M76" t="n">
-        <v>4.241378214310335</v>
+        <v>-2.807353967879841</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>515.0842393525269</v>
+        <v>542.7157290032269</v>
       </c>
     </row>
     <row r="77">
@@ -4499,40 +4499,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>512.4366749341494</v>
+        <v>547.8119764167369</v>
       </c>
       <c r="D77" t="n">
-        <v>464.3631840779338</v>
+        <v>502.2818517045218</v>
       </c>
       <c r="E77" t="n">
-        <v>575.8852650887726</v>
+        <v>581.0427248130826</v>
       </c>
       <c r="F77" t="n">
-        <v>512.4366749341494</v>
+        <v>545.1242072144544</v>
       </c>
       <c r="G77" t="n">
-        <v>512.4366749341494</v>
+        <v>550.5553349133992</v>
       </c>
       <c r="H77" t="n">
-        <v>7.602259267721315</v>
+        <v>-5.481289680301181</v>
       </c>
       <c r="I77" t="n">
-        <v>7.602259267721315</v>
+        <v>-5.481289680301181</v>
       </c>
       <c r="J77" t="n">
-        <v>7.602259267721315</v>
+        <v>-5.481289680301181</v>
       </c>
       <c r="K77" t="n">
-        <v>7.602259267721315</v>
+        <v>-5.481289680301181</v>
       </c>
       <c r="L77" t="n">
-        <v>7.602259267721315</v>
+        <v>-5.481289680301181</v>
       </c>
       <c r="M77" t="n">
-        <v>7.602259267721315</v>
+        <v>-5.481289680301181</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>520.0389342018708</v>
+        <v>542.3306867364357</v>
       </c>
     </row>
     <row r="78">
@@ -4552,40 +4552,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>513.9790753818264</v>
+        <v>550.0270345899276</v>
       </c>
       <c r="D78" t="n">
-        <v>461.1110089340409</v>
+        <v>504.9639272943533</v>
       </c>
       <c r="E78" t="n">
-        <v>572.0151205187431</v>
+        <v>590.2525904521593</v>
       </c>
       <c r="F78" t="n">
-        <v>513.9748622421127</v>
+        <v>546.9149734109654</v>
       </c>
       <c r="G78" t="n">
-        <v>513.983179147489</v>
+        <v>553.149370878008</v>
       </c>
       <c r="H78" t="n">
-        <v>3.379212181897375</v>
+        <v>-1.416835543331106</v>
       </c>
       <c r="I78" t="n">
-        <v>3.379212181897375</v>
+        <v>-1.416835543331106</v>
       </c>
       <c r="J78" t="n">
-        <v>3.379212181897375</v>
+        <v>-1.416835543331106</v>
       </c>
       <c r="K78" t="n">
-        <v>3.379212181897375</v>
+        <v>-1.416835543331106</v>
       </c>
       <c r="L78" t="n">
-        <v>3.379212181897375</v>
+        <v>-1.416835543331106</v>
       </c>
       <c r="M78" t="n">
-        <v>3.379212181897375</v>
+        <v>-1.416835543331106</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>517.3582875637238</v>
+        <v>548.6101990465964</v>
       </c>
     </row>
     <row r="79">
@@ -4605,40 +4605,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>515.5728891777594</v>
+        <v>552.3159280355577</v>
       </c>
       <c r="D79" t="n">
-        <v>462.7456198492476</v>
+        <v>506.195461223217</v>
       </c>
       <c r="E79" t="n">
-        <v>576.812383151359</v>
+        <v>589.7321136198867</v>
       </c>
       <c r="F79" t="n">
-        <v>515.5298614093292</v>
+        <v>548.8660078300053</v>
       </c>
       <c r="G79" t="n">
-        <v>515.6131647315077</v>
+        <v>555.7862878304195</v>
       </c>
       <c r="H79" t="n">
-        <v>5.529423722075935</v>
+        <v>-3.204302157517831</v>
       </c>
       <c r="I79" t="n">
-        <v>5.529423722075935</v>
+        <v>-3.204302157517831</v>
       </c>
       <c r="J79" t="n">
-        <v>5.529423722075935</v>
+        <v>-3.204302157517831</v>
       </c>
       <c r="K79" t="n">
-        <v>5.529423722075935</v>
+        <v>-3.204302157517831</v>
       </c>
       <c r="L79" t="n">
-        <v>5.529423722075935</v>
+        <v>-3.204302157517831</v>
       </c>
       <c r="M79" t="n">
-        <v>5.529423722075935</v>
+        <v>-3.204302157517831</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>521.1023128998354</v>
+        <v>549.1116258780398</v>
       </c>
     </row>
     <row r="80">
@@ -4658,40 +4658,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>517.1152896254363</v>
+        <v>554.5309862087483</v>
       </c>
       <c r="D80" t="n">
-        <v>458.8550928080408</v>
+        <v>507.3842396212368</v>
       </c>
       <c r="E80" t="n">
-        <v>578.1658280568955</v>
+        <v>593.7742443067244</v>
       </c>
       <c r="F80" t="n">
-        <v>517.0247473255962</v>
+        <v>550.680540231037</v>
       </c>
       <c r="G80" t="n">
-        <v>517.2147461917025</v>
+        <v>558.4008894217303</v>
       </c>
       <c r="H80" t="n">
-        <v>3.015504228052661</v>
+        <v>-3.812469819415349</v>
       </c>
       <c r="I80" t="n">
-        <v>3.015504228052661</v>
+        <v>-3.812469819415349</v>
       </c>
       <c r="J80" t="n">
-        <v>3.015504228052661</v>
+        <v>-3.812469819415349</v>
       </c>
       <c r="K80" t="n">
-        <v>3.015504228052661</v>
+        <v>-3.812469819415349</v>
       </c>
       <c r="L80" t="n">
-        <v>3.015504228052661</v>
+        <v>-3.812469819415349</v>
       </c>
       <c r="M80" t="n">
-        <v>3.015504228052661</v>
+        <v>-3.812469819415349</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>520.130793853489</v>
+        <v>550.718516389333</v>
       </c>
     </row>
     <row r="81">
@@ -4711,40 +4711,40 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>518.7091034213693</v>
+        <v>556.8198796543785</v>
       </c>
       <c r="D81" t="n">
-        <v>454.0970815281635</v>
+        <v>508.5556147741648</v>
       </c>
       <c r="E81" t="n">
-        <v>572.1199819280766</v>
+        <v>589.1275856267592</v>
       </c>
       <c r="F81" t="n">
-        <v>518.561927159656</v>
+        <v>552.5537965357689</v>
       </c>
       <c r="G81" t="n">
-        <v>518.8679183366597</v>
+        <v>561.0928527402509</v>
       </c>
       <c r="H81" t="n">
-        <v>-7.260369301936993</v>
+        <v>-7.905222887697603</v>
       </c>
       <c r="I81" t="n">
-        <v>-7.260369301936993</v>
+        <v>-7.905222887697603</v>
       </c>
       <c r="J81" t="n">
-        <v>-7.260369301936993</v>
+        <v>-7.905222887697603</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.260369301936993</v>
+        <v>-7.905222887697603</v>
       </c>
       <c r="L81" t="n">
-        <v>-7.260369301936993</v>
+        <v>-7.905222887697603</v>
       </c>
       <c r="M81" t="n">
-        <v>-7.260369301936993</v>
+        <v>-7.905222887697603</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>511.4487341194323</v>
+        <v>548.9146567666809</v>
       </c>
     </row>
     <row r="82">
@@ -4764,40 +4764,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>520.3029172173023</v>
+        <v>559.1087731000088</v>
       </c>
       <c r="D82" t="n">
-        <v>451.1273569000538</v>
+        <v>514.421018570768</v>
       </c>
       <c r="E82" t="n">
-        <v>566.9387300454505</v>
+        <v>595.0426251748936</v>
       </c>
       <c r="F82" t="n">
-        <v>520.0814074665651</v>
+        <v>554.4339734032768</v>
       </c>
       <c r="G82" t="n">
-        <v>520.5311712437716</v>
+        <v>563.8897209961826</v>
       </c>
       <c r="H82" t="n">
-        <v>-11.91893244661879</v>
+        <v>-5.010191466966159</v>
       </c>
       <c r="I82" t="n">
-        <v>-11.91893244661879</v>
+        <v>-5.010191466966159</v>
       </c>
       <c r="J82" t="n">
-        <v>-11.91893244661879</v>
+        <v>-5.010191466966159</v>
       </c>
       <c r="K82" t="n">
-        <v>-11.91893244661879</v>
+        <v>-5.010191466966159</v>
       </c>
       <c r="L82" t="n">
-        <v>-11.91893244661879</v>
+        <v>-5.010191466966159</v>
       </c>
       <c r="M82" t="n">
-        <v>-11.91893244661879</v>
+        <v>-5.010191466966159</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>508.3839847706835</v>
+        <v>554.0985816330426</v>
       </c>
     </row>
     <row r="83">
@@ -4817,40 +4817,40 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>521.8453176649791</v>
+        <v>561.3238312731994</v>
       </c>
       <c r="D83" t="n">
-        <v>458.4297693934384</v>
+        <v>527.6523969234632</v>
       </c>
       <c r="E83" t="n">
-        <v>572.4842492298126</v>
+        <v>610.3162097240222</v>
       </c>
       <c r="F83" t="n">
-        <v>521.5455130432462</v>
+        <v>556.2649290999037</v>
       </c>
       <c r="G83" t="n">
-        <v>522.1530770268927</v>
+        <v>566.5913960803639</v>
       </c>
       <c r="H83" t="n">
-        <v>-4.303682377176131</v>
+        <v>5.84512757298997</v>
       </c>
       <c r="I83" t="n">
-        <v>-4.303682377176131</v>
+        <v>5.84512757298997</v>
       </c>
       <c r="J83" t="n">
-        <v>-4.303682377176131</v>
+        <v>5.84512757298997</v>
       </c>
       <c r="K83" t="n">
-        <v>-4.303682377176131</v>
+        <v>5.84512757298997</v>
       </c>
       <c r="L83" t="n">
-        <v>-4.303682377176131</v>
+        <v>5.84512757298997</v>
       </c>
       <c r="M83" t="n">
-        <v>-4.303682377176131</v>
+        <v>5.84512757298997</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,590 +4862,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>517.541635287803</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C84" t="n">
-        <v>523.4391314609121</v>
-      </c>
-      <c r="D84" t="n">
-        <v>473.6081947564691</v>
-      </c>
-      <c r="E84" t="n">
-        <v>594.3644527233189</v>
-      </c>
-      <c r="F84" t="n">
-        <v>523.0551614279517</v>
-      </c>
-      <c r="G84" t="n">
-        <v>523.8419889718519</v>
-      </c>
-      <c r="H84" t="n">
-        <v>10.46843212309134</v>
-      </c>
-      <c r="I84" t="n">
-        <v>10.46843212309134</v>
-      </c>
-      <c r="J84" t="n">
-        <v>10.46843212309134</v>
-      </c>
-      <c r="K84" t="n">
-        <v>10.46843212309134</v>
-      </c>
-      <c r="L84" t="n">
-        <v>10.46843212309134</v>
-      </c>
-      <c r="M84" t="n">
-        <v>10.46843212309134</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>533.9075635840035</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C85" t="n">
-        <v>524.9815319085891</v>
-      </c>
-      <c r="D85" t="n">
-        <v>472.532805756409</v>
-      </c>
-      <c r="E85" t="n">
-        <v>585.4676417612261</v>
-      </c>
-      <c r="F85" t="n">
-        <v>524.4750482665102</v>
-      </c>
-      <c r="G85" t="n">
-        <v>525.4767675895768</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2.956182103335323</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2.956182103335323</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2.956182103335323</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2.956182103335323</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.956182103335323</v>
-      </c>
-      <c r="M85" t="n">
-        <v>2.956182103335323</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>527.9377140119244</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C86" t="n">
-        <v>526.575345704522</v>
-      </c>
-      <c r="D86" t="n">
-        <v>479.5175864979036</v>
-      </c>
-      <c r="E86" t="n">
-        <v>592.0798345669597</v>
-      </c>
-      <c r="F86" t="n">
-        <v>525.9764888788653</v>
-      </c>
-      <c r="G86" t="n">
-        <v>527.170908222055</v>
-      </c>
-      <c r="H86" t="n">
-        <v>7.545399286812555</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7.545399286812555</v>
-      </c>
-      <c r="J86" t="n">
-        <v>7.545399286812555</v>
-      </c>
-      <c r="K86" t="n">
-        <v>7.545399286812555</v>
-      </c>
-      <c r="L86" t="n">
-        <v>7.545399286812555</v>
-      </c>
-      <c r="M86" t="n">
-        <v>7.545399286812555</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>534.1207449913345</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C87" t="n">
-        <v>528.1691595004548</v>
-      </c>
-      <c r="D87" t="n">
-        <v>471.6542063448345</v>
-      </c>
-      <c r="E87" t="n">
-        <v>594.0097470335093</v>
-      </c>
-      <c r="F87" t="n">
-        <v>527.4549679797351</v>
-      </c>
-      <c r="G87" t="n">
-        <v>528.8512565838961</v>
-      </c>
-      <c r="H87" t="n">
-        <v>3.881154965666222</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.881154965666222</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.881154965666222</v>
-      </c>
-      <c r="K87" t="n">
-        <v>3.881154965666222</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.881154965666222</v>
-      </c>
-      <c r="M87" t="n">
-        <v>3.881154965666222</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>532.0503144661211</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C88" t="n">
-        <v>529.60873325162</v>
-      </c>
-      <c r="D88" t="n">
-        <v>491.0691470658611</v>
-      </c>
-      <c r="E88" t="n">
-        <v>609.2359334399538</v>
-      </c>
-      <c r="F88" t="n">
-        <v>528.7969735549369</v>
-      </c>
-      <c r="G88" t="n">
-        <v>530.3526661899048</v>
-      </c>
-      <c r="H88" t="n">
-        <v>21.42753056283316</v>
-      </c>
-      <c r="I88" t="n">
-        <v>21.42753056283316</v>
-      </c>
-      <c r="J88" t="n">
-        <v>21.42753056283316</v>
-      </c>
-      <c r="K88" t="n">
-        <v>21.42753056283316</v>
-      </c>
-      <c r="L88" t="n">
-        <v>21.42753056283316</v>
-      </c>
-      <c r="M88" t="n">
-        <v>21.42753056283316</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>551.0362638144532</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C89" t="n">
-        <v>531.202547047553</v>
-      </c>
-      <c r="D89" t="n">
-        <v>444.5150012890517</v>
-      </c>
-      <c r="E89" t="n">
-        <v>558.457871101936</v>
-      </c>
-      <c r="F89" t="n">
-        <v>530.2796144591618</v>
-      </c>
-      <c r="G89" t="n">
-        <v>532.0744068139369</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-29.46599599342384</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-29.46599599342384</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-29.46599599342384</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-29.46599599342384</v>
-      </c>
-      <c r="L89" t="n">
-        <v>-29.46599599342384</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-29.46599599342384</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>501.7365510541292</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C90" t="n">
-        <v>532.74494749523</v>
-      </c>
-      <c r="D90" t="n">
-        <v>489.6064871591923</v>
-      </c>
-      <c r="E90" t="n">
-        <v>604.2693367501238</v>
-      </c>
-      <c r="F90" t="n">
-        <v>531.6867391710131</v>
-      </c>
-      <c r="G90" t="n">
-        <v>533.7611740750002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>16.05277349991615</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16.05277349991615</v>
-      </c>
-      <c r="J90" t="n">
-        <v>16.05277349991615</v>
-      </c>
-      <c r="K90" t="n">
-        <v>16.05277349991615</v>
-      </c>
-      <c r="L90" t="n">
-        <v>16.05277349991615</v>
-      </c>
-      <c r="M90" t="n">
-        <v>16.05277349991615</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>548.7977209951462</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>534.3387612911629</v>
-      </c>
-      <c r="D91" t="n">
-        <v>486.1155176213272</v>
-      </c>
-      <c r="E91" t="n">
-        <v>603.3312955338662</v>
-      </c>
-      <c r="F91" t="n">
-        <v>533.1432510312577</v>
-      </c>
-      <c r="G91" t="n">
-        <v>535.4889477016238</v>
-      </c>
-      <c r="H91" t="n">
-        <v>11.85037640217144</v>
-      </c>
-      <c r="I91" t="n">
-        <v>11.85037640217144</v>
-      </c>
-      <c r="J91" t="n">
-        <v>11.85037640217144</v>
-      </c>
-      <c r="K91" t="n">
-        <v>11.85037640217144</v>
-      </c>
-      <c r="L91" t="n">
-        <v>11.85037640217144</v>
-      </c>
-      <c r="M91" t="n">
-        <v>11.85037640217144</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>546.1891376933344</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C92" t="n">
-        <v>535.8811617388399</v>
-      </c>
-      <c r="D92" t="n">
-        <v>476.4264094242237</v>
-      </c>
-      <c r="E92" t="n">
-        <v>595.8639852618041</v>
-      </c>
-      <c r="F92" t="n">
-        <v>534.5361639252072</v>
-      </c>
-      <c r="G92" t="n">
-        <v>537.152066700922</v>
-      </c>
-      <c r="H92" t="n">
-        <v>3.115915209196296</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.115915209196296</v>
-      </c>
-      <c r="J92" t="n">
-        <v>3.115915209196296</v>
-      </c>
-      <c r="K92" t="n">
-        <v>3.115915209196296</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.115915209196296</v>
-      </c>
-      <c r="M92" t="n">
-        <v>3.115915209196296</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>538.9970769480361</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C93" t="n">
-        <v>537.4749755347729</v>
-      </c>
-      <c r="D93" t="n">
-        <v>472.0737612890545</v>
-      </c>
-      <c r="E93" t="n">
-        <v>585.4891450633191</v>
-      </c>
-      <c r="F93" t="n">
-        <v>535.9761266597509</v>
-      </c>
-      <c r="G93" t="n">
-        <v>538.8652382254203</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-8.863877751312737</v>
-      </c>
-      <c r="I93" t="n">
-        <v>-8.863877751312737</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-8.863877751312737</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-8.863877751312737</v>
-      </c>
-      <c r="L93" t="n">
-        <v>-8.863877751312737</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-8.863877751312737</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>528.6110977834601</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C94" t="n">
-        <v>539.0687893307057</v>
-      </c>
-      <c r="D94" t="n">
-        <v>466.3997290744825</v>
-      </c>
-      <c r="E94" t="n">
-        <v>583.5151715528974</v>
-      </c>
-      <c r="F94" t="n">
-        <v>537.3845685050004</v>
-      </c>
-      <c r="G94" t="n">
-        <v>540.6042835908919</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-13.07097903876709</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-13.07097903876709</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-13.07097903876709</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-13.07097903876709</v>
-      </c>
-      <c r="L94" t="n">
-        <v>-13.07097903876709</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-13.07097903876709</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>525.9978102919387</v>
+        <v>567.1689588461894</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/aht/wl_senior_aht_monthly.xlsx
+++ b/outputs/aht/wl_senior_aht_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>459.019376261511</v>
+        <v>462.7804216872533</v>
       </c>
       <c r="D2" t="n">
-        <v>429.776999814311</v>
+        <v>429.9586855571729</v>
       </c>
       <c r="E2" t="n">
-        <v>515.0252147660098</v>
+        <v>512.7632258816815</v>
       </c>
       <c r="F2" t="n">
-        <v>459.019376261511</v>
+        <v>462.7804216872533</v>
       </c>
       <c r="G2" t="n">
-        <v>459.019376261511</v>
+        <v>462.7804216872533</v>
       </c>
       <c r="H2" t="n">
-        <v>9.152610243475827</v>
+        <v>8.41604517055238</v>
       </c>
       <c r="I2" t="n">
-        <v>9.152610243475827</v>
+        <v>8.41604517055238</v>
       </c>
       <c r="J2" t="n">
-        <v>9.152610243475827</v>
+        <v>8.41604517055238</v>
       </c>
       <c r="K2" t="n">
-        <v>9.152610243475827</v>
+        <v>8.41604517055238</v>
       </c>
       <c r="L2" t="n">
-        <v>9.152610243475827</v>
+        <v>8.41604517055238</v>
       </c>
       <c r="M2" t="n">
-        <v>9.152610243475827</v>
+        <v>8.41604517055238</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.1719865049868</v>
+        <v>471.1964668578057</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>458.2786253353577</v>
+        <v>461.6352222440793</v>
       </c>
       <c r="D3" t="n">
-        <v>416.180803446325</v>
+        <v>418.981000696206</v>
       </c>
       <c r="E3" t="n">
-        <v>500.0721853227264</v>
+        <v>495.5620348856548</v>
       </c>
       <c r="F3" t="n">
-        <v>458.2786253353577</v>
+        <v>461.6352222440793</v>
       </c>
       <c r="G3" t="n">
-        <v>458.2786253353577</v>
+        <v>461.6352222440793</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.650499565430092</v>
+        <v>-1.962352075958737</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.650499565430092</v>
+        <v>-1.962352075958737</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.650499565430092</v>
+        <v>-1.962352075958737</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.650499565430092</v>
+        <v>-1.962352075958737</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.650499565430092</v>
+        <v>-1.962352075958737</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.650499565430092</v>
+        <v>-1.962352075958737</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>456.6281257699276</v>
+        <v>459.6728701681206</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>457.6095599827029</v>
+        <v>460.6008485534706</v>
       </c>
       <c r="D4" t="n">
-        <v>406.4258239458645</v>
+        <v>407.3173020313064</v>
       </c>
       <c r="E4" t="n">
-        <v>490.6302217887869</v>
+        <v>491.42202650267</v>
       </c>
       <c r="F4" t="n">
-        <v>457.6095599827029</v>
+        <v>460.6008485534706</v>
       </c>
       <c r="G4" t="n">
-        <v>457.6095599827029</v>
+        <v>460.6008485534706</v>
       </c>
       <c r="H4" t="n">
-        <v>-9.42331228400335</v>
+        <v>-10.23772316334506</v>
       </c>
       <c r="I4" t="n">
-        <v>-9.42331228400335</v>
+        <v>-10.23772316334506</v>
       </c>
       <c r="J4" t="n">
-        <v>-9.42331228400335</v>
+        <v>-10.23772316334506</v>
       </c>
       <c r="K4" t="n">
-        <v>-9.42331228400335</v>
+        <v>-10.23772316334506</v>
       </c>
       <c r="L4" t="n">
-        <v>-9.42331228400335</v>
+        <v>-10.23772316334506</v>
       </c>
       <c r="M4" t="n">
-        <v>-9.42331228400335</v>
+        <v>-10.23772316334506</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>448.1862476986996</v>
+        <v>450.3631253901256</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>456.8688090557147</v>
+        <v>459.4556491155769</v>
       </c>
       <c r="D5" t="n">
-        <v>405.3415126800187</v>
+        <v>404.9409481399235</v>
       </c>
       <c r="E5" t="n">
-        <v>489.3650520445303</v>
+        <v>487.3771416202018</v>
       </c>
       <c r="F5" t="n">
-        <v>456.8688090557147</v>
+        <v>459.4556491155769</v>
       </c>
       <c r="G5" t="n">
-        <v>456.8688090557147</v>
+        <v>459.4556491155769</v>
       </c>
       <c r="H5" t="n">
-        <v>-10.07121570738152</v>
+        <v>-10.84672523952445</v>
       </c>
       <c r="I5" t="n">
-        <v>-10.07121570738152</v>
+        <v>-10.84672523952445</v>
       </c>
       <c r="J5" t="n">
-        <v>-10.07121570738152</v>
+        <v>-10.84672523952445</v>
       </c>
       <c r="K5" t="n">
-        <v>-10.07121570738152</v>
+        <v>-10.84672523952445</v>
       </c>
       <c r="L5" t="n">
-        <v>-10.07121570738152</v>
+        <v>-10.84672523952445</v>
       </c>
       <c r="M5" t="n">
-        <v>-10.07121570738152</v>
+        <v>-10.84672523952445</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>446.7975933483332</v>
+        <v>448.6089238760524</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>456.1519533199195</v>
+        <v>458.3473915950346</v>
       </c>
       <c r="D6" t="n">
-        <v>407.8394321341469</v>
+        <v>410.5005487403408</v>
       </c>
       <c r="E6" t="n">
-        <v>492.3424640905224</v>
+        <v>495.6078350655198</v>
       </c>
       <c r="F6" t="n">
-        <v>456.1519533199195</v>
+        <v>458.3473915950346</v>
       </c>
       <c r="G6" t="n">
-        <v>456.1519533199195</v>
+        <v>458.3473915950346</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.911349308826043</v>
+        <v>-6.571531387837135</v>
       </c>
       <c r="I6" t="n">
-        <v>-5.911349308826043</v>
+        <v>-6.571531387837135</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.911349308826043</v>
+        <v>-6.571531387837135</v>
       </c>
       <c r="K6" t="n">
-        <v>-5.911349308826043</v>
+        <v>-6.571531387837135</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.911349308826043</v>
+        <v>-6.571531387837135</v>
       </c>
       <c r="M6" t="n">
-        <v>-5.911349308826043</v>
+        <v>-6.571531387837135</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>450.2406040110935</v>
+        <v>451.7758602071975</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>455.4112023924092</v>
+        <v>457.202192144966</v>
       </c>
       <c r="D7" t="n">
-        <v>416.6559913103114</v>
+        <v>420.7491271942792</v>
       </c>
       <c r="E7" t="n">
-        <v>503.4571008393248</v>
+        <v>504.5477780437872</v>
       </c>
       <c r="F7" t="n">
-        <v>455.4112023924092</v>
+        <v>457.202192144966</v>
       </c>
       <c r="G7" t="n">
-        <v>455.4112023924092</v>
+        <v>457.202192144966</v>
       </c>
       <c r="H7" t="n">
-        <v>3.503583742491565</v>
+        <v>4.943547726182993</v>
       </c>
       <c r="I7" t="n">
-        <v>3.503583742491565</v>
+        <v>4.943547726182993</v>
       </c>
       <c r="J7" t="n">
-        <v>3.503583742491565</v>
+        <v>4.943547726182993</v>
       </c>
       <c r="K7" t="n">
-        <v>3.503583742491565</v>
+        <v>4.943547726182993</v>
       </c>
       <c r="L7" t="n">
-        <v>3.503583742491565</v>
+        <v>4.943547726182993</v>
       </c>
       <c r="M7" t="n">
-        <v>3.503583742491565</v>
+        <v>4.943547726182993</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>458.9147861349008</v>
+        <v>462.145739871149</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>454.6943466561089</v>
+        <v>456.0939346126416</v>
       </c>
       <c r="D8" t="n">
-        <v>424.395500955289</v>
+        <v>424.7970549732325</v>
       </c>
       <c r="E8" t="n">
-        <v>504.9580596024727</v>
+        <v>507.4874249636899</v>
       </c>
       <c r="F8" t="n">
-        <v>454.6943466561089</v>
+        <v>456.0939346126416</v>
       </c>
       <c r="G8" t="n">
-        <v>454.6943466561089</v>
+        <v>456.0939346126416</v>
       </c>
       <c r="H8" t="n">
-        <v>10.24797141670004</v>
+        <v>9.755318949610821</v>
       </c>
       <c r="I8" t="n">
-        <v>10.24797141670004</v>
+        <v>9.755318949610821</v>
       </c>
       <c r="J8" t="n">
-        <v>10.24797141670004</v>
+        <v>9.755318949610821</v>
       </c>
       <c r="K8" t="n">
-        <v>10.24797141670004</v>
+        <v>9.755318949610821</v>
       </c>
       <c r="L8" t="n">
-        <v>10.24797141670004</v>
+        <v>9.755318949610821</v>
       </c>
       <c r="M8" t="n">
-        <v>10.24797141670004</v>
+        <v>9.755318949610821</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>464.9423180728089</v>
+        <v>465.8492535622524</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>453.9535957308064</v>
+        <v>454.9487351778124</v>
       </c>
       <c r="D9" t="n">
-        <v>409.3858651133342</v>
+        <v>409.2499867199315</v>
       </c>
       <c r="E9" t="n">
-        <v>488.8949320131334</v>
+        <v>490.7458923144399</v>
       </c>
       <c r="F9" t="n">
-        <v>453.9535957308064</v>
+        <v>454.9487351778124</v>
       </c>
       <c r="G9" t="n">
-        <v>453.9535957308064</v>
+        <v>454.9487351778124</v>
       </c>
       <c r="H9" t="n">
-        <v>-5.771189356453241</v>
+        <v>-6.119128637859385</v>
       </c>
       <c r="I9" t="n">
-        <v>-5.771189356453241</v>
+        <v>-6.119128637859385</v>
       </c>
       <c r="J9" t="n">
-        <v>-5.771189356453241</v>
+        <v>-6.119128637859385</v>
       </c>
       <c r="K9" t="n">
-        <v>-5.771189356453241</v>
+        <v>-6.119128637859385</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.771189356453241</v>
+        <v>-6.119128637859385</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.771189356453241</v>
+        <v>-6.119128637859385</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.1824063743531</v>
+        <v>448.829606539953</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>453.2128448055038</v>
+        <v>453.8035357429832</v>
       </c>
       <c r="D10" t="n">
-        <v>399.9603116987567</v>
+        <v>400.3708550384925</v>
       </c>
       <c r="E10" t="n">
-        <v>479.9045304339994</v>
+        <v>478.4426104095256</v>
       </c>
       <c r="F10" t="n">
-        <v>453.2128448055038</v>
+        <v>453.8035357429832</v>
       </c>
       <c r="G10" t="n">
-        <v>453.2128448055038</v>
+        <v>453.8035357429832</v>
       </c>
       <c r="H10" t="n">
-        <v>-14.63427280406135</v>
+        <v>-14.80268295877721</v>
       </c>
       <c r="I10" t="n">
-        <v>-14.63427280406135</v>
+        <v>-14.80268295877721</v>
       </c>
       <c r="J10" t="n">
-        <v>-14.63427280406135</v>
+        <v>-14.80268295877721</v>
       </c>
       <c r="K10" t="n">
-        <v>-14.63427280406135</v>
+        <v>-14.80268295877721</v>
       </c>
       <c r="L10" t="n">
-        <v>-14.63427280406135</v>
+        <v>-14.80268295877721</v>
       </c>
       <c r="M10" t="n">
-        <v>-14.63427280406135</v>
+        <v>-14.80268295877721</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>438.5785720014425</v>
+        <v>439.000852784206</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>452.4959890710966</v>
+        <v>452.695278229836</v>
       </c>
       <c r="D11" t="n">
-        <v>403.9766468396194</v>
+        <v>402.7325116365972</v>
       </c>
       <c r="E11" t="n">
-        <v>484.1140800850985</v>
+        <v>484.6075711793791</v>
       </c>
       <c r="F11" t="n">
-        <v>452.4959890710966</v>
+        <v>452.695278229836</v>
       </c>
       <c r="G11" t="n">
-        <v>452.4959890710966</v>
+        <v>452.695278229836</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.783967964140059</v>
+        <v>-8.764354796647089</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.783967964140059</v>
+        <v>-8.764354796647089</v>
       </c>
       <c r="J11" t="n">
-        <v>-8.783967964140059</v>
+        <v>-8.764354796647089</v>
       </c>
       <c r="K11" t="n">
-        <v>-8.783967964140059</v>
+        <v>-8.764354796647089</v>
       </c>
       <c r="L11" t="n">
-        <v>-8.783967964140059</v>
+        <v>-8.764354796647089</v>
       </c>
       <c r="M11" t="n">
-        <v>-8.783967964140059</v>
+        <v>-8.764354796647089</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>443.7120211069566</v>
+        <v>443.9309234331889</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>451.7552381455425</v>
+        <v>451.5500787995837</v>
       </c>
       <c r="D12" t="n">
-        <v>421.2469207430683</v>
+        <v>421.6854209853428</v>
       </c>
       <c r="E12" t="n">
-        <v>502.2122342211827</v>
+        <v>506.1940234860054</v>
       </c>
       <c r="F12" t="n">
-        <v>451.7552381455425</v>
+        <v>451.5500787995837</v>
       </c>
       <c r="G12" t="n">
-        <v>451.7552381455425</v>
+        <v>451.5500787995837</v>
       </c>
       <c r="H12" t="n">
-        <v>10.89731604923849</v>
+        <v>11.13155216395269</v>
       </c>
       <c r="I12" t="n">
-        <v>10.89731604923849</v>
+        <v>11.13155216395269</v>
       </c>
       <c r="J12" t="n">
-        <v>10.89731604923849</v>
+        <v>11.13155216395269</v>
       </c>
       <c r="K12" t="n">
-        <v>10.89731604923849</v>
+        <v>11.13155216395269</v>
       </c>
       <c r="L12" t="n">
-        <v>10.89731604923849</v>
+        <v>11.13155216395269</v>
       </c>
       <c r="M12" t="n">
-        <v>10.89731604923849</v>
+        <v>11.13155216395269</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>462.652554194781</v>
+        <v>462.6816309635364</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>451.0383824120615</v>
+        <v>450.4418213029345</v>
       </c>
       <c r="D13" t="n">
-        <v>420.7189735397569</v>
+        <v>425.0093157641982</v>
       </c>
       <c r="E13" t="n">
-        <v>508.3704372932592</v>
+        <v>505.3210002366977</v>
       </c>
       <c r="F13" t="n">
-        <v>451.0383824120615</v>
+        <v>450.4418213029345</v>
       </c>
       <c r="G13" t="n">
-        <v>451.0383824120615</v>
+        <v>450.4418213029345</v>
       </c>
       <c r="H13" t="n">
-        <v>15.20228874068018</v>
+        <v>15.6591159414475</v>
       </c>
       <c r="I13" t="n">
-        <v>15.20228874068018</v>
+        <v>15.6591159414475</v>
       </c>
       <c r="J13" t="n">
-        <v>15.20228874068018</v>
+        <v>15.6591159414475</v>
       </c>
       <c r="K13" t="n">
-        <v>15.20228874068018</v>
+        <v>15.6591159414475</v>
       </c>
       <c r="L13" t="n">
-        <v>15.20228874068018</v>
+        <v>15.6591159414475</v>
       </c>
       <c r="M13" t="n">
-        <v>15.20228874068018</v>
+        <v>15.6591159414475</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>466.2406711527416</v>
+        <v>466.100937244382</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>450.2976314874645</v>
+        <v>449.2966218897303</v>
       </c>
       <c r="D14" t="n">
-        <v>414.8717176990723</v>
+        <v>417.2210392128886</v>
       </c>
       <c r="E14" t="n">
-        <v>500.822314309104</v>
+        <v>497.0240501924257</v>
       </c>
       <c r="F14" t="n">
-        <v>450.2976314874645</v>
+        <v>449.2966218897303</v>
       </c>
       <c r="G14" t="n">
-        <v>450.2976314874645</v>
+        <v>449.2966218897303</v>
       </c>
       <c r="H14" t="n">
-        <v>7.04677666728006</v>
+        <v>6.837784553453504</v>
       </c>
       <c r="I14" t="n">
-        <v>7.04677666728006</v>
+        <v>6.837784553453504</v>
       </c>
       <c r="J14" t="n">
-        <v>7.04677666728006</v>
+        <v>6.837784553453504</v>
       </c>
       <c r="K14" t="n">
-        <v>7.04677666728006</v>
+        <v>6.837784553453504</v>
       </c>
       <c r="L14" t="n">
-        <v>7.04677666728006</v>
+        <v>6.837784553453504</v>
       </c>
       <c r="M14" t="n">
-        <v>7.04677666728006</v>
+        <v>6.837784553453504</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>457.3444081547445</v>
+        <v>456.1344064431838</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>449.5568805811096</v>
+        <v>448.1514224909239</v>
       </c>
       <c r="D15" t="n">
-        <v>406.6789903408566</v>
+        <v>403.9600530806163</v>
       </c>
       <c r="E15" t="n">
-        <v>489.921500674222</v>
+        <v>485.8784268757524</v>
       </c>
       <c r="F15" t="n">
-        <v>449.5568805811096</v>
+        <v>448.1514224909239</v>
       </c>
       <c r="G15" t="n">
-        <v>449.5568805811096</v>
+        <v>448.1514224909239</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.7147433240692663</v>
+        <v>-1.130103803815271</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7147433240692663</v>
+        <v>-1.130103803815271</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.7147433240692663</v>
+        <v>-1.130103803815271</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.7147433240692663</v>
+        <v>-1.130103803815271</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.7147433240692663</v>
+        <v>-1.130103803815271</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.7147433240692663</v>
+        <v>-1.130103803815271</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>448.8421372570403</v>
+        <v>447.0213186871086</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>448.8878152463375</v>
+        <v>447.1170488403891</v>
       </c>
       <c r="D16" t="n">
-        <v>402.155070930452</v>
+        <v>399.4501091898426</v>
       </c>
       <c r="E16" t="n">
-        <v>487.1027710194218</v>
+        <v>479.9185676276193</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8878152463375</v>
+        <v>447.1170488403891</v>
       </c>
       <c r="G16" t="n">
-        <v>448.8878152463375</v>
+        <v>447.1170488403891</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.129263358901601</v>
+        <v>-6.765950349734485</v>
       </c>
       <c r="I16" t="n">
-        <v>-6.129263358901601</v>
+        <v>-6.765950349734485</v>
       </c>
       <c r="J16" t="n">
-        <v>-6.129263358901601</v>
+        <v>-6.765950349734485</v>
       </c>
       <c r="K16" t="n">
-        <v>-6.129263358901601</v>
+        <v>-6.765950349734485</v>
       </c>
       <c r="L16" t="n">
-        <v>-6.129263358901601</v>
+        <v>-6.765950349734485</v>
       </c>
       <c r="M16" t="n">
-        <v>-6.129263358901601</v>
+        <v>-6.765950349734485</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>442.7585518874359</v>
+        <v>440.3510984906546</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>448.147547703848</v>
+        <v>445.9718731646755</v>
       </c>
       <c r="D17" t="n">
-        <v>397.1389596953733</v>
+        <v>394.2602621110694</v>
       </c>
       <c r="E17" t="n">
-        <v>483.726764178712</v>
+        <v>479.5463725238146</v>
       </c>
       <c r="F17" t="n">
-        <v>448.147547703848</v>
+        <v>445.9718731646755</v>
       </c>
       <c r="G17" t="n">
-        <v>448.147547703848</v>
+        <v>445.9718731646755</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.752693721568894</v>
+        <v>-9.066875111492797</v>
       </c>
       <c r="I17" t="n">
-        <v>-7.752693721568894</v>
+        <v>-9.066875111492797</v>
       </c>
       <c r="J17" t="n">
-        <v>-7.752693721568894</v>
+        <v>-9.066875111492797</v>
       </c>
       <c r="K17" t="n">
-        <v>-7.752693721568894</v>
+        <v>-9.066875111492797</v>
       </c>
       <c r="L17" t="n">
-        <v>-7.752693721568894</v>
+        <v>-9.066875111492797</v>
       </c>
       <c r="M17" t="n">
-        <v>-7.752693721568894</v>
+        <v>-9.066875111492797</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>440.3948539822791</v>
+        <v>436.9049980531827</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>447.4311597595034</v>
+        <v>444.8636386397914</v>
       </c>
       <c r="D18" t="n">
-        <v>398.7958066088242</v>
+        <v>399.7384101594159</v>
       </c>
       <c r="E18" t="n">
-        <v>485.1210937359657</v>
+        <v>480.5800097295185</v>
       </c>
       <c r="F18" t="n">
-        <v>447.4311597595034</v>
+        <v>444.8636386397914</v>
       </c>
       <c r="G18" t="n">
-        <v>447.4311597595034</v>
+        <v>444.8636386397914</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.590866520302798</v>
+        <v>-4.692322238547217</v>
       </c>
       <c r="I18" t="n">
-        <v>-3.590866520302798</v>
+        <v>-4.692322238547217</v>
       </c>
       <c r="J18" t="n">
-        <v>-3.590866520302798</v>
+        <v>-4.692322238547217</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.590866520302798</v>
+        <v>-4.692322238547217</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.590866520302798</v>
+        <v>-4.692322238547217</v>
       </c>
       <c r="M18" t="n">
-        <v>-3.590866520302798</v>
+        <v>-4.692322238547217</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>443.8402932392005</v>
+        <v>440.1713164012442</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>446.6923688393248</v>
+        <v>443.7200654295834</v>
       </c>
       <c r="D19" t="n">
-        <v>406.427493782111</v>
+        <v>405.0677892040256</v>
       </c>
       <c r="E19" t="n">
-        <v>489.0979287437185</v>
+        <v>485.1217341353669</v>
       </c>
       <c r="F19" t="n">
-        <v>446.6923688393248</v>
+        <v>443.7200654295834</v>
       </c>
       <c r="G19" t="n">
-        <v>446.6923688393248</v>
+        <v>443.7200654295834</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2274718660764166</v>
+        <v>2.804050509006724</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2274718660764166</v>
+        <v>2.804050509006724</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2274718660764166</v>
+        <v>2.804050509006724</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2274718660764166</v>
+        <v>2.804050509006724</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2274718660764166</v>
+        <v>2.804050509006724</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2274718660764166</v>
+        <v>2.804050509006724</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>446.9198407054012</v>
+        <v>446.5241159385902</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>445.9774098843132</v>
+        <v>442.6133816777693</v>
       </c>
       <c r="D20" t="n">
-        <v>406.8892438065942</v>
+        <v>402.9348937278185</v>
       </c>
       <c r="E20" t="n">
-        <v>489.9530362180943</v>
+        <v>484.5046364098341</v>
       </c>
       <c r="F20" t="n">
-        <v>445.9774098843132</v>
+        <v>442.6133816777693</v>
       </c>
       <c r="G20" t="n">
-        <v>445.9774098843132</v>
+        <v>442.6133816777693</v>
       </c>
       <c r="H20" t="n">
-        <v>3.183442923720184</v>
+        <v>2.417357100717159</v>
       </c>
       <c r="I20" t="n">
-        <v>3.183442923720184</v>
+        <v>2.417357100717159</v>
       </c>
       <c r="J20" t="n">
-        <v>3.183442923720184</v>
+        <v>2.417357100717159</v>
       </c>
       <c r="K20" t="n">
-        <v>3.183442923720184</v>
+        <v>2.417357100717159</v>
       </c>
       <c r="L20" t="n">
-        <v>3.183442923720184</v>
+        <v>2.417357100717159</v>
       </c>
       <c r="M20" t="n">
-        <v>3.183442923720184</v>
+        <v>2.417357100717159</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>449.1608528080334</v>
+        <v>445.0307387784865</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>445.2445661086051</v>
+        <v>441.4733386478642</v>
       </c>
       <c r="D21" t="n">
-        <v>396.9657612299033</v>
+        <v>389.8251415865005</v>
       </c>
       <c r="E21" t="n">
-        <v>478.4833715189426</v>
+        <v>475.8890533004212</v>
       </c>
       <c r="F21" t="n">
-        <v>445.2445661086051</v>
+        <v>441.4733386478642</v>
       </c>
       <c r="G21" t="n">
-        <v>445.2445661086051</v>
+        <v>441.4733386478642</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.957114574483072</v>
+        <v>-7.433124997237368</v>
       </c>
       <c r="I21" t="n">
-        <v>-6.957114574483072</v>
+        <v>-7.433124997237368</v>
       </c>
       <c r="J21" t="n">
-        <v>-6.957114574483072</v>
+        <v>-7.433124997237368</v>
       </c>
       <c r="K21" t="n">
-        <v>-6.957114574483072</v>
+        <v>-7.433124997237368</v>
       </c>
       <c r="L21" t="n">
-        <v>-6.957114574483072</v>
+        <v>-7.433124997237368</v>
       </c>
       <c r="M21" t="n">
-        <v>-6.957114574483072</v>
+        <v>-7.433124997237368</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>438.287451534122</v>
+        <v>434.0402136506269</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>444.511722332897</v>
+        <v>440.3332956179592</v>
       </c>
       <c r="D22" t="n">
-        <v>395.1261073956534</v>
+        <v>388.6594983463273</v>
       </c>
       <c r="E22" t="n">
-        <v>475.116318341367</v>
+        <v>470.4056190381071</v>
       </c>
       <c r="F22" t="n">
-        <v>444.511722332897</v>
+        <v>440.3332956179592</v>
       </c>
       <c r="G22" t="n">
-        <v>444.511722332897</v>
+        <v>440.3332956179592</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.907318232840165</v>
+        <v>-10.14191132914826</v>
       </c>
       <c r="I22" t="n">
-        <v>-9.907318232840165</v>
+        <v>-10.14191132914826</v>
       </c>
       <c r="J22" t="n">
-        <v>-9.907318232840165</v>
+        <v>-10.14191132914826</v>
       </c>
       <c r="K22" t="n">
-        <v>-9.907318232840165</v>
+        <v>-10.14191132914826</v>
       </c>
       <c r="L22" t="n">
-        <v>-9.907318232840165</v>
+        <v>-10.14191132914826</v>
       </c>
       <c r="M22" t="n">
-        <v>-9.907318232840165</v>
+        <v>-10.14191132914826</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>434.6044041000568</v>
+        <v>430.1913842888109</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>443.8132082734325</v>
+        <v>439.230490864762</v>
       </c>
       <c r="D23" t="n">
-        <v>400.2624173586813</v>
+        <v>396.4597357196992</v>
       </c>
       <c r="E23" t="n">
-        <v>482.2262977485702</v>
+        <v>479.5125671465617</v>
       </c>
       <c r="F23" t="n">
-        <v>443.8132082734325</v>
+        <v>439.230490864762</v>
       </c>
       <c r="G23" t="n">
-        <v>443.8132082734325</v>
+        <v>439.230490864762</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.422774003150453</v>
+        <v>-1.447893081557213</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.422774003150453</v>
+        <v>-1.447893081557213</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.422774003150453</v>
+        <v>-1.447893081557213</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.422774003150453</v>
+        <v>-1.447893081557213</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.422774003150453</v>
+        <v>-1.447893081557213</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.422774003150453</v>
+        <v>-1.447893081557213</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>442.3904342702821</v>
+        <v>437.7825977832048</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>443.0914104119859</v>
+        <v>438.090925953125</v>
       </c>
       <c r="D24" t="n">
-        <v>413.3161914863506</v>
+        <v>409.7293580162256</v>
       </c>
       <c r="E24" t="n">
-        <v>498.612635374868</v>
+        <v>492.5400822791066</v>
       </c>
       <c r="F24" t="n">
-        <v>443.0914104119859</v>
+        <v>438.090925953125</v>
       </c>
       <c r="G24" t="n">
-        <v>443.0914104119859</v>
+        <v>438.090925953125</v>
       </c>
       <c r="H24" t="n">
-        <v>12.90529901609956</v>
+        <v>13.06314241261243</v>
       </c>
       <c r="I24" t="n">
-        <v>12.90529901609956</v>
+        <v>13.06314241261243</v>
       </c>
       <c r="J24" t="n">
-        <v>12.90529901609956</v>
+        <v>13.06314241261243</v>
       </c>
       <c r="K24" t="n">
-        <v>12.90529901609956</v>
+        <v>13.06314241261243</v>
       </c>
       <c r="L24" t="n">
-        <v>12.90529901609956</v>
+        <v>13.06314241261243</v>
       </c>
       <c r="M24" t="n">
-        <v>12.90529901609956</v>
+        <v>13.06314241261243</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>455.9967094280855</v>
+        <v>451.1540683657374</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>442.3943777573575</v>
+        <v>436.9947176452453</v>
       </c>
       <c r="D25" t="n">
-        <v>404.98872249741</v>
+        <v>399.5533220701993</v>
       </c>
       <c r="E25" t="n">
-        <v>489.3752049189532</v>
+        <v>485.2104882563268</v>
       </c>
       <c r="F25" t="n">
-        <v>442.3943777573575</v>
+        <v>436.9947176452453</v>
       </c>
       <c r="G25" t="n">
-        <v>442.3943777573575</v>
+        <v>436.9947176452453</v>
       </c>
       <c r="H25" t="n">
-        <v>4.538096363861372</v>
+        <v>4.849154122307872</v>
       </c>
       <c r="I25" t="n">
-        <v>4.538096363861372</v>
+        <v>4.849154122307872</v>
       </c>
       <c r="J25" t="n">
-        <v>4.538096363861372</v>
+        <v>4.849154122307872</v>
       </c>
       <c r="K25" t="n">
-        <v>4.538096363861372</v>
+        <v>4.849154122307872</v>
       </c>
       <c r="L25" t="n">
-        <v>4.538096363861372</v>
+        <v>4.849154122307872</v>
       </c>
       <c r="M25" t="n">
-        <v>4.538096363861372</v>
+        <v>4.849154122307872</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>446.9324741212189</v>
+        <v>441.8438717675531</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>441.6741106809081</v>
+        <v>435.8619690604361</v>
       </c>
       <c r="D26" t="n">
-        <v>402.3316675921673</v>
+        <v>399.2560323932856</v>
       </c>
       <c r="E26" t="n">
-        <v>489.8604738285523</v>
+        <v>482.8264916750259</v>
       </c>
       <c r="F26" t="n">
-        <v>441.6741106809081</v>
+        <v>435.8619690604361</v>
       </c>
       <c r="G26" t="n">
-        <v>441.6741106809081</v>
+        <v>435.8619690604361</v>
       </c>
       <c r="H26" t="n">
-        <v>5.108949849372692</v>
+        <v>5.428865861378747</v>
       </c>
       <c r="I26" t="n">
-        <v>5.108949849372692</v>
+        <v>5.428865861378747</v>
       </c>
       <c r="J26" t="n">
-        <v>5.108949849372692</v>
+        <v>5.428865861378747</v>
       </c>
       <c r="K26" t="n">
-        <v>5.108949849372692</v>
+        <v>5.428865861378747</v>
       </c>
       <c r="L26" t="n">
-        <v>5.108949849372692</v>
+        <v>5.428865861378747</v>
       </c>
       <c r="M26" t="n">
-        <v>5.108949849372692</v>
+        <v>5.428865861378747</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>446.7830605302809</v>
+        <v>441.2908349218149</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>440.9576288373445</v>
+        <v>438.0789199124735</v>
       </c>
       <c r="D27" t="n">
-        <v>395.3018815006022</v>
+        <v>398.5019473362744</v>
       </c>
       <c r="E27" t="n">
-        <v>482.1106074049453</v>
+        <v>482.9460598893545</v>
       </c>
       <c r="F27" t="n">
-        <v>440.9576288373445</v>
+        <v>438.0789199124735</v>
       </c>
       <c r="G27" t="n">
-        <v>440.9576288373445</v>
+        <v>438.0789199124735</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3606274844027267</v>
+        <v>-0.1646548282751433</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3606274844027267</v>
+        <v>-0.1646548282751433</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3606274844027267</v>
+        <v>-0.1646548282751433</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3606274844027267</v>
+        <v>-0.1646548282751433</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3606274844027267</v>
+        <v>-0.1646548282751433</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3606274844027267</v>
+        <v>-0.1646548282751433</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>441.3182563217472</v>
+        <v>437.9142650841983</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>440.3104839463837</v>
+        <v>440.0813271336685</v>
       </c>
       <c r="D28" t="n">
-        <v>398.3208402715653</v>
+        <v>396.228813967531</v>
       </c>
       <c r="E28" t="n">
-        <v>477.9322586144082</v>
+        <v>476.9910853878388</v>
       </c>
       <c r="F28" t="n">
-        <v>440.3104839463837</v>
+        <v>440.0813271336685</v>
       </c>
       <c r="G28" t="n">
-        <v>440.3104839463837</v>
+        <v>440.0813271336685</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.807353967828815</v>
+        <v>-3.274835629357479</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.807353967828815</v>
+        <v>-3.274835629357479</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.807353967828815</v>
+        <v>-3.274835629357479</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.807353967828815</v>
+        <v>-3.274835629357479</v>
       </c>
       <c r="L28" t="n">
-        <v>-2.807353967828815</v>
+        <v>-3.274835629357479</v>
       </c>
       <c r="M28" t="n">
-        <v>-2.807353967828815</v>
+        <v>-3.274835629357479</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>437.5031299785549</v>
+        <v>436.806491504311</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>439.59400210282</v>
+        <v>442.2982779857057</v>
       </c>
       <c r="D29" t="n">
-        <v>393.7233478688714</v>
+        <v>393.6505943152464</v>
       </c>
       <c r="E29" t="n">
-        <v>476.9477616119146</v>
+        <v>474.8846901296989</v>
       </c>
       <c r="F29" t="n">
-        <v>439.59400210282</v>
+        <v>442.2982779857057</v>
       </c>
       <c r="G29" t="n">
-        <v>439.59400210282</v>
+        <v>442.2982779857057</v>
       </c>
       <c r="H29" t="n">
-        <v>-5.481289680307745</v>
+        <v>-7.338046065563245</v>
       </c>
       <c r="I29" t="n">
-        <v>-5.481289680307745</v>
+        <v>-7.338046065563245</v>
       </c>
       <c r="J29" t="n">
-        <v>-5.481289680307745</v>
+        <v>-7.338046065563245</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.481289680307745</v>
+        <v>-7.338046065563245</v>
       </c>
       <c r="L29" t="n">
-        <v>-5.481289680307745</v>
+        <v>-7.338046065563245</v>
       </c>
       <c r="M29" t="n">
-        <v>-5.481289680307745</v>
+        <v>-7.338046065563245</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>434.1127124225123</v>
+        <v>434.9602319201425</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>441.8243176087895</v>
+        <v>444.4577983844523</v>
       </c>
       <c r="D30" t="n">
-        <v>397.0946618199086</v>
+        <v>402.9227490665418</v>
       </c>
       <c r="E30" t="n">
-        <v>482.5809821029803</v>
+        <v>482.5859591250555</v>
       </c>
       <c r="F30" t="n">
-        <v>441.8243176087895</v>
+        <v>444.4577983844523</v>
       </c>
       <c r="G30" t="n">
-        <v>441.8243176087895</v>
+        <v>444.4577983844523</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.416835543322853</v>
+        <v>-2.936338427549483</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.416835543322853</v>
+        <v>-2.936338427549483</v>
       </c>
       <c r="J30" t="n">
-        <v>-1.416835543322853</v>
+        <v>-2.936338427549483</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.416835543322853</v>
+        <v>-2.936338427549483</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.416835543322853</v>
+        <v>-2.936338427549483</v>
       </c>
       <c r="M30" t="n">
-        <v>-1.416835543322853</v>
+        <v>-2.936338427549483</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>440.4074820654666</v>
+        <v>441.5214599569028</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>444.128976964958</v>
+        <v>446.6893027964904</v>
       </c>
       <c r="D31" t="n">
-        <v>399.2369294381965</v>
+        <v>407.8981461848226</v>
       </c>
       <c r="E31" t="n">
-        <v>482.8728252937294</v>
+        <v>487.740672708491</v>
       </c>
       <c r="F31" t="n">
-        <v>444.128976964958</v>
+        <v>446.6893027964904</v>
       </c>
       <c r="G31" t="n">
-        <v>444.128976964958</v>
+        <v>446.6893027964904</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.204302157503518</v>
+        <v>0.5127582949164293</v>
       </c>
       <c r="I31" t="n">
-        <v>-3.204302157503518</v>
+        <v>0.5127582949164293</v>
       </c>
       <c r="J31" t="n">
-        <v>-3.204302157503518</v>
+        <v>0.5127582949164293</v>
       </c>
       <c r="K31" t="n">
-        <v>-3.204302157503518</v>
+        <v>0.5127582949164293</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.204302157503518</v>
+        <v>0.5127582949164293</v>
       </c>
       <c r="M31" t="n">
-        <v>-3.204302157503518</v>
+        <v>0.5127582949164293</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>440.9246748074545</v>
+        <v>447.2020610914068</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>446.3611425721162</v>
+        <v>448.8523163191634</v>
       </c>
       <c r="D32" t="n">
-        <v>399.6479684898454</v>
+        <v>404.1321619970357</v>
       </c>
       <c r="E32" t="n">
-        <v>483.8684276787454</v>
+        <v>485.3320624900724</v>
       </c>
       <c r="F32" t="n">
-        <v>446.3611425721162</v>
+        <v>448.8523163191634</v>
       </c>
       <c r="G32" t="n">
-        <v>446.3611425721162</v>
+        <v>448.8523163191634</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.81246981941387</v>
+        <v>-4.867313752252765</v>
       </c>
       <c r="I32" t="n">
-        <v>-3.81246981941387</v>
+        <v>-4.867313752252765</v>
       </c>
       <c r="J32" t="n">
-        <v>-3.81246981941387</v>
+        <v>-4.867313752252765</v>
       </c>
       <c r="K32" t="n">
-        <v>-3.81246981941387</v>
+        <v>-4.867313752252765</v>
       </c>
       <c r="L32" t="n">
-        <v>-3.81246981941387</v>
+        <v>-4.867313752252765</v>
       </c>
       <c r="M32" t="n">
-        <v>-3.81246981941387</v>
+        <v>-4.867313752252765</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>442.5486727527023</v>
+        <v>443.9850025669106</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>448.6677136995129</v>
+        <v>451.0874302925922</v>
       </c>
       <c r="D33" t="n">
-        <v>399.2676081706527</v>
+        <v>398.4830028071668</v>
       </c>
       <c r="E33" t="n">
-        <v>479.0357755338437</v>
+        <v>484.2203065210783</v>
       </c>
       <c r="F33" t="n">
-        <v>448.6677136995129</v>
+        <v>451.0874302925922</v>
       </c>
       <c r="G33" t="n">
-        <v>448.6677136995129</v>
+        <v>451.0874302925922</v>
       </c>
       <c r="H33" t="n">
-        <v>-7.905222887691687</v>
+        <v>-8.511805331735745</v>
       </c>
       <c r="I33" t="n">
-        <v>-7.905222887691687</v>
+        <v>-8.511805331735745</v>
       </c>
       <c r="J33" t="n">
-        <v>-7.905222887691687</v>
+        <v>-8.511805331735745</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.905222887691687</v>
+        <v>-8.511805331735745</v>
       </c>
       <c r="L33" t="n">
-        <v>-7.905222887691687</v>
+        <v>-8.511805331735745</v>
       </c>
       <c r="M33" t="n">
-        <v>-7.905222887691687</v>
+        <v>-8.511805331735745</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>440.7624908118212</v>
+        <v>442.5756249608564</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>450.974760859543</v>
+        <v>453.3248338240758</v>
       </c>
       <c r="D34" t="n">
-        <v>404.2097557006953</v>
+        <v>407.8093827657344</v>
       </c>
       <c r="E34" t="n">
-        <v>485.964202841142</v>
+        <v>488.8182525235287</v>
       </c>
       <c r="F34" t="n">
-        <v>450.974760859543</v>
+        <v>453.3248338240758</v>
       </c>
       <c r="G34" t="n">
-        <v>450.974760859543</v>
+        <v>453.3248338240758</v>
       </c>
       <c r="H34" t="n">
-        <v>-5.010191466962871</v>
+        <v>-5.310971754854124</v>
       </c>
       <c r="I34" t="n">
-        <v>-5.010191466962871</v>
+        <v>-5.310971754854124</v>
       </c>
       <c r="J34" t="n">
-        <v>-5.010191466962871</v>
+        <v>-5.310971754854124</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.010191466962871</v>
+        <v>-5.310971754854124</v>
       </c>
       <c r="L34" t="n">
-        <v>-5.010191466962871</v>
+        <v>-5.310971754854124</v>
       </c>
       <c r="M34" t="n">
-        <v>-5.010191466962871</v>
+        <v>-5.310971754854124</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>445.9645693925801</v>
+        <v>448.0138620692217</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>453.207387143443</v>
+        <v>455.4900630480922</v>
       </c>
       <c r="D35" t="n">
-        <v>416.3542196788955</v>
+        <v>420.9799914427109</v>
       </c>
       <c r="E35" t="n">
-        <v>500.8885264043583</v>
+        <v>505.2415320842574</v>
       </c>
       <c r="F35" t="n">
-        <v>453.207387143443</v>
+        <v>455.4900630480922</v>
       </c>
       <c r="G35" t="n">
-        <v>453.207387143443</v>
+        <v>455.4900630480922</v>
       </c>
       <c r="H35" t="n">
-        <v>5.845127573008082</v>
+        <v>5.776044777674684</v>
       </c>
       <c r="I35" t="n">
-        <v>5.845127573008082</v>
+        <v>5.776044777674684</v>
       </c>
       <c r="J35" t="n">
-        <v>5.845127573008082</v>
+        <v>5.776044777674684</v>
       </c>
       <c r="K35" t="n">
-        <v>5.845127573008082</v>
+        <v>5.776044777674684</v>
       </c>
       <c r="L35" t="n">
-        <v>5.845127573008082</v>
+        <v>5.776044777674684</v>
       </c>
       <c r="M35" t="n">
-        <v>5.845127573008082</v>
+        <v>5.776044777674684</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>459.0525147164511</v>
+        <v>461.2661078257669</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>455.5144343045795</v>
+        <v>457.7274665801889</v>
       </c>
       <c r="D36" t="n">
-        <v>427.7870360518027</v>
+        <v>434.477779638304</v>
       </c>
       <c r="E36" t="n">
-        <v>512.3417062003155</v>
+        <v>514.810564052623</v>
       </c>
       <c r="F36" t="n">
-        <v>455.5144343045795</v>
+        <v>457.7274665801889</v>
       </c>
       <c r="G36" t="n">
-        <v>455.5144343045795</v>
+        <v>457.7274665801889</v>
       </c>
       <c r="H36" t="n">
-        <v>14.61541988661441</v>
+        <v>14.69866964013945</v>
       </c>
       <c r="I36" t="n">
-        <v>14.61541988661441</v>
+        <v>14.69866964013945</v>
       </c>
       <c r="J36" t="n">
-        <v>14.61541988661441</v>
+        <v>14.69866964013945</v>
       </c>
       <c r="K36" t="n">
-        <v>14.61541988661441</v>
+        <v>14.69866964013945</v>
       </c>
       <c r="L36" t="n">
-        <v>14.61541988661441</v>
+        <v>14.69866964013945</v>
       </c>
       <c r="M36" t="n">
-        <v>14.61541988661441</v>
+        <v>14.69866964013945</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>470.1298541911939</v>
+        <v>472.4261362203284</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>457.7470605895502</v>
+        <v>459.8926958047987</v>
       </c>
       <c r="D37" t="n">
-        <v>409.7265401191817</v>
+        <v>411.8069598900834</v>
       </c>
       <c r="E37" t="n">
-        <v>491.5279843101457</v>
+        <v>494.9344534833779</v>
       </c>
       <c r="F37" t="n">
-        <v>457.7470605895502</v>
+        <v>459.8926958047987</v>
       </c>
       <c r="G37" t="n">
-        <v>457.7470605895502</v>
+        <v>459.8926958047987</v>
       </c>
       <c r="H37" t="n">
-        <v>-6.20001981674995</v>
+        <v>-6.025939964928081</v>
       </c>
       <c r="I37" t="n">
-        <v>-6.20001981674995</v>
+        <v>-6.025939964928081</v>
       </c>
       <c r="J37" t="n">
-        <v>-6.20001981674995</v>
+        <v>-6.025939964928081</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.20001981674995</v>
+        <v>-6.025939964928081</v>
       </c>
       <c r="L37" t="n">
-        <v>-6.20001981674995</v>
+        <v>-6.025939964928081</v>
       </c>
       <c r="M37" t="n">
-        <v>-6.20001981674995</v>
+        <v>-6.025939964928081</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>451.5470407728002</v>
+        <v>453.8667558398706</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>460.0541077524279</v>
+        <v>462.130099341859</v>
       </c>
       <c r="D38" t="n">
-        <v>420.681236372772</v>
+        <v>423.6547280072553</v>
       </c>
       <c r="E38" t="n">
-        <v>502.9973753102173</v>
+        <v>506.4632437834375</v>
       </c>
       <c r="F38" t="n">
-        <v>460.0541077524279</v>
+        <v>462.130099341859</v>
       </c>
       <c r="G38" t="n">
-        <v>460.0541077524279</v>
+        <v>462.130099341859</v>
       </c>
       <c r="H38" t="n">
-        <v>3.344645489368544</v>
+        <v>4.194240185413008</v>
       </c>
       <c r="I38" t="n">
-        <v>3.344645489368544</v>
+        <v>4.194240185413008</v>
       </c>
       <c r="J38" t="n">
-        <v>3.344645489368544</v>
+        <v>4.194240185413008</v>
       </c>
       <c r="K38" t="n">
-        <v>3.344645489368544</v>
+        <v>4.194240185413008</v>
       </c>
       <c r="L38" t="n">
-        <v>3.344645489368544</v>
+        <v>4.194240185413008</v>
       </c>
       <c r="M38" t="n">
-        <v>3.344645489368544</v>
+        <v>4.194240185413008</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.3987532417964</v>
+        <v>466.3243395272721</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>462.3611549153056</v>
+        <v>464.3675028789193</v>
       </c>
       <c r="D39" t="n">
-        <v>421.1083635108886</v>
+        <v>423.9133598928614</v>
       </c>
       <c r="E39" t="n">
-        <v>507.4283997057028</v>
+        <v>506.9367651497371</v>
       </c>
       <c r="F39" t="n">
-        <v>462.3611549153056</v>
+        <v>464.3675028789193</v>
       </c>
       <c r="G39" t="n">
-        <v>462.3611549153056</v>
+        <v>464.3675028789193</v>
       </c>
       <c r="H39" t="n">
-        <v>1.574794117232408</v>
+        <v>0.9330958287622961</v>
       </c>
       <c r="I39" t="n">
-        <v>1.574794117232408</v>
+        <v>0.9330958287622961</v>
       </c>
       <c r="J39" t="n">
-        <v>1.574794117232408</v>
+        <v>0.9330958287622961</v>
       </c>
       <c r="K39" t="n">
-        <v>1.574794117232408</v>
+        <v>0.9330958287622961</v>
       </c>
       <c r="L39" t="n">
-        <v>1.574794117232408</v>
+        <v>0.9330958287622961</v>
       </c>
       <c r="M39" t="n">
-        <v>1.574794117232408</v>
+        <v>0.9330958287622961</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>463.935949032538</v>
+        <v>465.3005987076816</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>464.5193603239138</v>
+        <v>466.4605578110398</v>
       </c>
       <c r="D40" t="n">
-        <v>409.4985910578625</v>
+        <v>410.5463571269675</v>
       </c>
       <c r="E40" t="n">
-        <v>496.3217235280748</v>
+        <v>492.0234391462797</v>
       </c>
       <c r="F40" t="n">
-        <v>464.5193603239138</v>
+        <v>466.4605578110398</v>
       </c>
       <c r="G40" t="n">
-        <v>464.5193603239138</v>
+        <v>466.4605578110398</v>
       </c>
       <c r="H40" t="n">
-        <v>-12.68390706657896</v>
+        <v>-13.68457658415669</v>
       </c>
       <c r="I40" t="n">
-        <v>-12.68390706657896</v>
+        <v>-13.68457658415669</v>
       </c>
       <c r="J40" t="n">
-        <v>-12.68390706657896</v>
+        <v>-13.68457658415669</v>
       </c>
       <c r="K40" t="n">
-        <v>-12.68390706657896</v>
+        <v>-13.68457658415669</v>
       </c>
       <c r="L40" t="n">
-        <v>-12.68390706657896</v>
+        <v>-13.68457658415669</v>
       </c>
       <c r="M40" t="n">
-        <v>-12.68390706657896</v>
+        <v>-13.68457658415669</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>451.8354532573348</v>
+        <v>452.7759812268831</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>466.8264074848397</v>
+        <v>468.6979613591686</v>
       </c>
       <c r="D41" t="n">
-        <v>414.6889514129061</v>
+        <v>417.216085237322</v>
       </c>
       <c r="E41" t="n">
-        <v>496.2013063311882</v>
+        <v>500.0113606523713</v>
       </c>
       <c r="F41" t="n">
-        <v>466.8264074848397</v>
+        <v>468.6979613591686</v>
       </c>
       <c r="G41" t="n">
-        <v>466.8264074848397</v>
+        <v>468.6979613591686</v>
       </c>
       <c r="H41" t="n">
-        <v>-12.4319849040092</v>
+        <v>-12.67344616993064</v>
       </c>
       <c r="I41" t="n">
-        <v>-12.4319849040092</v>
+        <v>-12.67344616993064</v>
       </c>
       <c r="J41" t="n">
-        <v>-12.4319849040092</v>
+        <v>-12.67344616993064</v>
       </c>
       <c r="K41" t="n">
-        <v>-12.4319849040092</v>
+        <v>-12.67344616993064</v>
       </c>
       <c r="L41" t="n">
-        <v>-12.4319849040092</v>
+        <v>-12.67344616993064</v>
       </c>
       <c r="M41" t="n">
-        <v>-12.4319849040092</v>
+        <v>-12.67344616993064</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>454.3944225808305</v>
+        <v>456.0245151892379</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>469.0590306196585</v>
+        <v>470.8631905819628</v>
       </c>
       <c r="D42" t="n">
-        <v>417.5500895426429</v>
+        <v>421.5251107798186</v>
       </c>
       <c r="E42" t="n">
-        <v>501.2424681008981</v>
+        <v>501.8579069977378</v>
       </c>
       <c r="F42" t="n">
-        <v>469.0590306196585</v>
+        <v>470.8631905819628</v>
       </c>
       <c r="G42" t="n">
-        <v>469.0590306196585</v>
+        <v>470.8631905819628</v>
       </c>
       <c r="H42" t="n">
-        <v>-8.376001724168681</v>
+        <v>-8.572000858562514</v>
       </c>
       <c r="I42" t="n">
-        <v>-8.376001724168681</v>
+        <v>-8.572000858562514</v>
       </c>
       <c r="J42" t="n">
-        <v>-8.376001724168681</v>
+        <v>-8.572000858562514</v>
       </c>
       <c r="K42" t="n">
-        <v>-8.376001724168681</v>
+        <v>-8.572000858562514</v>
       </c>
       <c r="L42" t="n">
-        <v>-8.376001724168681</v>
+        <v>-8.572000858562514</v>
       </c>
       <c r="M42" t="n">
-        <v>-8.376001724168681</v>
+        <v>-8.572000858562514</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>460.6830288954898</v>
+        <v>462.2911897234003</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>471.3660745256379</v>
+        <v>473.1005941121834</v>
       </c>
       <c r="D43" t="n">
-        <v>438.293362425361</v>
+        <v>442.4742435153298</v>
       </c>
       <c r="E43" t="n">
-        <v>519.5302862278382</v>
+        <v>523.9661356429698</v>
       </c>
       <c r="F43" t="n">
-        <v>471.3660745256379</v>
+        <v>473.1005941121834</v>
       </c>
       <c r="G43" t="n">
-        <v>471.3660745256379</v>
+        <v>473.1005941121834</v>
       </c>
       <c r="H43" t="n">
-        <v>6.618611073407603</v>
+        <v>6.926980189222282</v>
       </c>
       <c r="I43" t="n">
-        <v>6.618611073407603</v>
+        <v>6.926980189222282</v>
       </c>
       <c r="J43" t="n">
-        <v>6.618611073407603</v>
+        <v>6.926980189222282</v>
       </c>
       <c r="K43" t="n">
-        <v>6.618611073407603</v>
+        <v>6.926980189222282</v>
       </c>
       <c r="L43" t="n">
-        <v>6.618611073407603</v>
+        <v>6.926980189222282</v>
       </c>
       <c r="M43" t="n">
-        <v>6.618611073407603</v>
+        <v>6.926980189222282</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>477.9846855990455</v>
+        <v>480.0275743014057</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>473.5986782714576</v>
+        <v>475.2652529358375</v>
       </c>
       <c r="D44" t="n">
-        <v>447.3267951830176</v>
+        <v>451.6869024929117</v>
       </c>
       <c r="E44" t="n">
-        <v>530.81356716892</v>
+        <v>534.3919241894358</v>
       </c>
       <c r="F44" t="n">
-        <v>473.5986782714576</v>
+        <v>475.2652529358375</v>
       </c>
       <c r="G44" t="n">
-        <v>473.5986782714576</v>
+        <v>475.2652529358375</v>
       </c>
       <c r="H44" t="n">
-        <v>17.37113849787994</v>
+        <v>17.1365360711566</v>
       </c>
       <c r="I44" t="n">
-        <v>17.37113849787994</v>
+        <v>17.1365360711566</v>
       </c>
       <c r="J44" t="n">
-        <v>17.37113849787994</v>
+        <v>17.1365360711566</v>
       </c>
       <c r="K44" t="n">
-        <v>17.37113849787994</v>
+        <v>17.1365360711566</v>
       </c>
       <c r="L44" t="n">
-        <v>17.37113849787994</v>
+        <v>17.1365360711566</v>
       </c>
       <c r="M44" t="n">
-        <v>17.37113849787994</v>
+        <v>17.1365360711566</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>490.9698167693376</v>
+        <v>492.4017890069941</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>475.905702142138</v>
+        <v>477.5020670536133</v>
       </c>
       <c r="D45" t="n">
-        <v>431.1448254768503</v>
+        <v>433.3063630422004</v>
       </c>
       <c r="E45" t="n">
-        <v>514.1130645136667</v>
+        <v>514.2676881254334</v>
       </c>
       <c r="F45" t="n">
-        <v>475.905702142138</v>
+        <v>477.5020670536133</v>
       </c>
       <c r="G45" t="n">
-        <v>475.905702142138</v>
+        <v>477.5020670536133</v>
       </c>
       <c r="H45" t="n">
-        <v>-4.349587315619806</v>
+        <v>-4.57217533542454</v>
       </c>
       <c r="I45" t="n">
-        <v>-4.349587315619806</v>
+        <v>-4.57217533542454</v>
       </c>
       <c r="J45" t="n">
-        <v>-4.349587315619806</v>
+        <v>-4.57217533542454</v>
       </c>
       <c r="K45" t="n">
-        <v>-4.349587315619806</v>
+        <v>-4.57217533542454</v>
       </c>
       <c r="L45" t="n">
-        <v>-4.349587315619806</v>
+        <v>-4.57217533542454</v>
       </c>
       <c r="M45" t="n">
-        <v>-4.349587315619806</v>
+        <v>-4.57217533542454</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>471.5561148265181</v>
+        <v>472.9298917181887</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>478.2092804230047</v>
+        <v>479.7387079464173</v>
       </c>
       <c r="D46" t="n">
-        <v>417.5058774288859</v>
+        <v>421.7904940705528</v>
       </c>
       <c r="E46" t="n">
-        <v>499.4000850340443</v>
+        <v>501.51043096622</v>
       </c>
       <c r="F46" t="n">
-        <v>478.2092804230047</v>
+        <v>479.7387079464173</v>
       </c>
       <c r="G46" t="n">
-        <v>478.2092804230047</v>
+        <v>479.7387079464173</v>
       </c>
       <c r="H46" t="n">
-        <v>-19.18352905809908</v>
+        <v>-19.28590877070186</v>
       </c>
       <c r="I46" t="n">
-        <v>-19.18352905809908</v>
+        <v>-19.28590877070186</v>
       </c>
       <c r="J46" t="n">
-        <v>-19.18352905809908</v>
+        <v>-19.28590877070186</v>
       </c>
       <c r="K46" t="n">
-        <v>-19.18352905809908</v>
+        <v>-19.28590877070186</v>
       </c>
       <c r="L46" t="n">
-        <v>-19.18352905809908</v>
+        <v>-19.28590877070186</v>
       </c>
       <c r="M46" t="n">
-        <v>-19.18352905809908</v>
+        <v>-19.28590877070186</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>459.0257513649056</v>
+        <v>460.4527991757154</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>480.4385497270692</v>
+        <v>481.9031991330016</v>
       </c>
       <c r="D47" t="n">
-        <v>421.2081411555539</v>
+        <v>425.1342875342438</v>
       </c>
       <c r="E47" t="n">
-        <v>504.6058608291446</v>
+        <v>505.6461816779708</v>
       </c>
       <c r="F47" t="n">
-        <v>480.4385497270692</v>
+        <v>481.9031991330016</v>
       </c>
       <c r="G47" t="n">
-        <v>480.4385497270692</v>
+        <v>481.9031991330016</v>
       </c>
       <c r="H47" t="n">
-        <v>-16.22744205682543</v>
+        <v>-16.16244280972628</v>
       </c>
       <c r="I47" t="n">
-        <v>-16.22744205682543</v>
+        <v>-16.16244280972628</v>
       </c>
       <c r="J47" t="n">
-        <v>-16.22744205682543</v>
+        <v>-16.16244280972628</v>
       </c>
       <c r="K47" t="n">
-        <v>-16.22744205682543</v>
+        <v>-16.16244280972628</v>
       </c>
       <c r="L47" t="n">
-        <v>-16.22744205682543</v>
+        <v>-16.16244280972628</v>
       </c>
       <c r="M47" t="n">
-        <v>-16.22744205682543</v>
+        <v>-16.16244280972628</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>464.2111076702438</v>
+        <v>465.7407563232754</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>482.7387495062102</v>
+        <v>484.1334278683863</v>
       </c>
       <c r="D48" t="n">
-        <v>449.4911910786099</v>
+        <v>453.7556547254363</v>
       </c>
       <c r="E48" t="n">
-        <v>534.1142021328022</v>
+        <v>534.8794457486188</v>
       </c>
       <c r="F48" t="n">
-        <v>482.7387495062102</v>
+        <v>484.1334278683863</v>
       </c>
       <c r="G48" t="n">
-        <v>482.7387495062102</v>
+        <v>484.1334278683863</v>
       </c>
       <c r="H48" t="n">
-        <v>8.59348506612481</v>
+        <v>8.905769573720047</v>
       </c>
       <c r="I48" t="n">
-        <v>8.59348506612481</v>
+        <v>8.905769573720047</v>
       </c>
       <c r="J48" t="n">
-        <v>8.59348506612481</v>
+        <v>8.905769573720047</v>
       </c>
       <c r="K48" t="n">
-        <v>8.59348506612481</v>
+        <v>8.905769573720047</v>
       </c>
       <c r="L48" t="n">
-        <v>8.59348506612481</v>
+        <v>8.905769573720047</v>
       </c>
       <c r="M48" t="n">
-        <v>8.59348506612481</v>
+        <v>8.905769573720047</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>491.332234572335</v>
+        <v>493.0391974421063</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>484.9647492924757</v>
+        <v>486.2917137413391</v>
       </c>
       <c r="D49" t="n">
-        <v>469.530487696294</v>
+        <v>472.1088939620918</v>
       </c>
       <c r="E49" t="n">
-        <v>550.3490277650727</v>
+        <v>555.9874723543199</v>
       </c>
       <c r="F49" t="n">
-        <v>484.9647492924757</v>
+        <v>486.2917137413391</v>
       </c>
       <c r="G49" t="n">
-        <v>484.9647492924757</v>
+        <v>486.2917137413391</v>
       </c>
       <c r="H49" t="n">
-        <v>25.77943574454211</v>
+        <v>26.39079689158634</v>
       </c>
       <c r="I49" t="n">
-        <v>25.77943574454211</v>
+        <v>26.39079689158634</v>
       </c>
       <c r="J49" t="n">
-        <v>25.77943574454211</v>
+        <v>26.39079689158634</v>
       </c>
       <c r="K49" t="n">
-        <v>25.77943574454211</v>
+        <v>26.39079689158634</v>
       </c>
       <c r="L49" t="n">
-        <v>25.77943574454211</v>
+        <v>26.39079689158634</v>
       </c>
       <c r="M49" t="n">
-        <v>25.77943574454211</v>
+        <v>26.39079689158634</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>510.7441850370178</v>
+        <v>512.6825106329254</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>487.2590816225047</v>
+        <v>488.5174310138083</v>
       </c>
       <c r="D50" t="n">
-        <v>453.5024241507463</v>
+        <v>453.9532498423935</v>
       </c>
       <c r="E50" t="n">
-        <v>534.2847734774687</v>
+        <v>538.0366951522159</v>
       </c>
       <c r="F50" t="n">
-        <v>487.2590816225047</v>
+        <v>488.5174310138083</v>
       </c>
       <c r="G50" t="n">
-        <v>487.2590816225047</v>
+        <v>488.5174310138083</v>
       </c>
       <c r="H50" t="n">
-        <v>9.152610243443512</v>
+        <v>8.416045170524608</v>
       </c>
       <c r="I50" t="n">
-        <v>9.152610243443512</v>
+        <v>8.416045170524608</v>
       </c>
       <c r="J50" t="n">
-        <v>9.152610243443512</v>
+        <v>8.416045170524608</v>
       </c>
       <c r="K50" t="n">
-        <v>9.152610243443512</v>
+        <v>8.416045170524608</v>
       </c>
       <c r="L50" t="n">
-        <v>9.152610243443512</v>
+        <v>8.416045170524608</v>
       </c>
       <c r="M50" t="n">
-        <v>9.152610243443512</v>
+        <v>8.416045170524608</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>496.4116918659482</v>
+        <v>496.9334761843329</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>489.5534139525336</v>
+        <v>490.7431482862775</v>
       </c>
       <c r="D51" t="n">
-        <v>444.253357739062</v>
+        <v>449.0594665647482</v>
       </c>
       <c r="E51" t="n">
-        <v>529.3674451964519</v>
+        <v>529.9628343833843</v>
       </c>
       <c r="F51" t="n">
-        <v>489.5534139525336</v>
+        <v>490.7431482862775</v>
       </c>
       <c r="G51" t="n">
-        <v>489.5534139525336</v>
+        <v>490.7431482862775</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.650499565429222</v>
+        <v>-1.962352075960526</v>
       </c>
       <c r="I51" t="n">
-        <v>-1.650499565429222</v>
+        <v>-1.962352075960526</v>
       </c>
       <c r="J51" t="n">
-        <v>-1.650499565429222</v>
+        <v>-1.962352075960526</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.650499565429222</v>
+        <v>-1.962352075960526</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.650499565429222</v>
+        <v>-1.962352075960526</v>
       </c>
       <c r="M51" t="n">
-        <v>-1.650499565429222</v>
+        <v>-1.962352075960526</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>487.9029143871044</v>
+        <v>488.780796210317</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>491.6220034496611</v>
+        <v>492.7499756326352</v>
       </c>
       <c r="D52" t="n">
-        <v>438.9152250684524</v>
+        <v>442.5687972608143</v>
       </c>
       <c r="E52" t="n">
-        <v>523.4408397859172</v>
+        <v>524.5449627518519</v>
       </c>
       <c r="F52" t="n">
-        <v>491.6220034496611</v>
+        <v>492.7499756326352</v>
       </c>
       <c r="G52" t="n">
-        <v>491.6220034496611</v>
+        <v>492.7499756326352</v>
       </c>
       <c r="H52" t="n">
-        <v>-9.423312284019753</v>
+        <v>-10.23772316336438</v>
       </c>
       <c r="I52" t="n">
-        <v>-9.423312284019753</v>
+        <v>-10.23772316336438</v>
       </c>
       <c r="J52" t="n">
-        <v>-9.423312284019753</v>
+        <v>-10.23772316336438</v>
       </c>
       <c r="K52" t="n">
-        <v>-9.423312284019753</v>
+        <v>-10.23772316336438</v>
       </c>
       <c r="L52" t="n">
-        <v>-9.423312284019753</v>
+        <v>-10.23772316336438</v>
       </c>
       <c r="M52" t="n">
-        <v>-9.423312284019753</v>
+        <v>-10.23772316336438</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>482.1986911656414</v>
+        <v>482.5122524692708</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>493.9122275357665</v>
+        <v>494.9718201946741</v>
       </c>
       <c r="D53" t="n">
-        <v>443.1586441148112</v>
+        <v>446.4400774477454</v>
       </c>
       <c r="E53" t="n">
-        <v>526.9151488693642</v>
+        <v>524.5746981505996</v>
       </c>
       <c r="F53" t="n">
-        <v>493.9122275357665</v>
+        <v>494.9718201946741</v>
       </c>
       <c r="G53" t="n">
-        <v>493.9122275357665</v>
+        <v>494.9718201946741</v>
       </c>
       <c r="H53" t="n">
-        <v>-10.0712157074342</v>
+        <v>-10.84672523957373</v>
       </c>
       <c r="I53" t="n">
-        <v>-10.0712157074342</v>
+        <v>-10.84672523957373</v>
       </c>
       <c r="J53" t="n">
-        <v>-10.0712157074342</v>
+        <v>-10.84672523957373</v>
       </c>
       <c r="K53" t="n">
-        <v>-10.0712157074342</v>
+        <v>-10.84672523957373</v>
       </c>
       <c r="L53" t="n">
-        <v>-10.0712157074342</v>
+        <v>-10.84672523957373</v>
       </c>
       <c r="M53" t="n">
-        <v>-10.0712157074342</v>
+        <v>-10.84672523957373</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>483.8410118283323</v>
+        <v>484.1250949551003</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>496.1272857089572</v>
+        <v>497.1219923365412</v>
       </c>
       <c r="D54" t="n">
-        <v>447.9475946729497</v>
+        <v>452.0149156407616</v>
       </c>
       <c r="E54" t="n">
-        <v>534.4596605741727</v>
+        <v>530.4835771853091</v>
       </c>
       <c r="F54" t="n">
-        <v>496.1272857089572</v>
+        <v>497.1219923365412</v>
       </c>
       <c r="G54" t="n">
-        <v>496.1272857089572</v>
+        <v>497.1219923365412</v>
       </c>
       <c r="H54" t="n">
-        <v>-5.911349308826205</v>
+        <v>-6.571531387837457</v>
       </c>
       <c r="I54" t="n">
-        <v>-5.911349308826205</v>
+        <v>-6.571531387837457</v>
       </c>
       <c r="J54" t="n">
-        <v>-5.911349308826205</v>
+        <v>-6.571531387837457</v>
       </c>
       <c r="K54" t="n">
-        <v>-5.911349308826205</v>
+        <v>-6.571531387837457</v>
       </c>
       <c r="L54" t="n">
-        <v>-5.911349308826205</v>
+        <v>-6.571531387837457</v>
       </c>
       <c r="M54" t="n">
-        <v>-5.911349308826205</v>
+        <v>-6.571531387837457</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>490.2159364001309</v>
+        <v>490.5504609487037</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>498.4161791545874</v>
+        <v>499.3438368831371</v>
       </c>
       <c r="D55" t="n">
-        <v>460.8685044642672</v>
+        <v>462.955204837144</v>
       </c>
       <c r="E55" t="n">
-        <v>543.1191591568419</v>
+        <v>545.446047984558</v>
       </c>
       <c r="F55" t="n">
-        <v>498.4161791545874</v>
+        <v>499.3438368831371</v>
       </c>
       <c r="G55" t="n">
-        <v>498.4161791545874</v>
+        <v>499.3438368831371</v>
       </c>
       <c r="H55" t="n">
-        <v>3.503583742515806</v>
+        <v>4.943547726206347</v>
       </c>
       <c r="I55" t="n">
-        <v>3.503583742515806</v>
+        <v>4.943547726206347</v>
       </c>
       <c r="J55" t="n">
-        <v>3.503583742515806</v>
+        <v>4.943547726206347</v>
       </c>
       <c r="K55" t="n">
-        <v>3.503583742515806</v>
+        <v>4.943547726206347</v>
       </c>
       <c r="L55" t="n">
-        <v>3.503583742515806</v>
+        <v>4.943547726206347</v>
       </c>
       <c r="M55" t="n">
-        <v>3.503583742515806</v>
+        <v>4.943547726206347</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>501.9197628971032</v>
+        <v>504.2873846093435</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>500.631237327778</v>
+        <v>501.4940090250042</v>
       </c>
       <c r="D56" t="n">
-        <v>471.5599678105626</v>
+        <v>470.8545750116306</v>
       </c>
       <c r="E56" t="n">
-        <v>551.0979465371752</v>
+        <v>553.6522240531201</v>
       </c>
       <c r="F56" t="n">
-        <v>500.631237327778</v>
+        <v>501.4940090250042</v>
       </c>
       <c r="G56" t="n">
-        <v>500.631237327778</v>
+        <v>501.4940090250042</v>
       </c>
       <c r="H56" t="n">
-        <v>10.24797141667642</v>
+        <v>9.755318949586961</v>
       </c>
       <c r="I56" t="n">
-        <v>10.24797141667642</v>
+        <v>9.755318949586961</v>
       </c>
       <c r="J56" t="n">
-        <v>10.24797141667642</v>
+        <v>9.755318949586961</v>
       </c>
       <c r="K56" t="n">
-        <v>10.24797141667642</v>
+        <v>9.755318949586961</v>
       </c>
       <c r="L56" t="n">
-        <v>10.24797141667642</v>
+        <v>9.755318949586961</v>
       </c>
       <c r="M56" t="n">
-        <v>10.24797141667642</v>
+        <v>9.755318949586961</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>510.8792087444544</v>
+        <v>511.2493279745912</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>502.9201307734082</v>
+        <v>503.7158535716002</v>
       </c>
       <c r="D57" t="n">
-        <v>455.9496582606374</v>
+        <v>456.5540776705884</v>
       </c>
       <c r="E57" t="n">
-        <v>537.585305759624</v>
+        <v>539.2670738483509</v>
       </c>
       <c r="F57" t="n">
-        <v>502.9201307734082</v>
+        <v>503.7158535716002</v>
       </c>
       <c r="G57" t="n">
-        <v>502.9201307734082</v>
+        <v>503.7158535716002</v>
       </c>
       <c r="H57" t="n">
-        <v>-5.771189356461719</v>
+        <v>-6.119128637870458</v>
       </c>
       <c r="I57" t="n">
-        <v>-5.771189356461719</v>
+        <v>-6.119128637870458</v>
       </c>
       <c r="J57" t="n">
-        <v>-5.771189356461719</v>
+        <v>-6.119128637870458</v>
       </c>
       <c r="K57" t="n">
-        <v>-5.771189356461719</v>
+        <v>-6.119128637870458</v>
       </c>
       <c r="L57" t="n">
-        <v>-5.771189356461719</v>
+        <v>-6.119128637870458</v>
       </c>
       <c r="M57" t="n">
-        <v>-5.771189356461719</v>
+        <v>-6.119128637870458</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>497.1489414169465</v>
+        <v>497.5967249337297</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>505.2090242190384</v>
+        <v>505.9376981181961</v>
       </c>
       <c r="D58" t="n">
-        <v>448.1896612403768</v>
+        <v>450.647748942256</v>
       </c>
       <c r="E58" t="n">
-        <v>531.2855330681338</v>
+        <v>533.2009267402503</v>
       </c>
       <c r="F58" t="n">
-        <v>505.2090242190384</v>
+        <v>505.9376981181961</v>
       </c>
       <c r="G58" t="n">
-        <v>505.2090242190384</v>
+        <v>505.9376981181961</v>
       </c>
       <c r="H58" t="n">
-        <v>-14.63427280403126</v>
+        <v>-14.80268295874772</v>
       </c>
       <c r="I58" t="n">
-        <v>-14.63427280403126</v>
+        <v>-14.80268295874772</v>
       </c>
       <c r="J58" t="n">
-        <v>-14.63427280403126</v>
+        <v>-14.80268295874772</v>
       </c>
       <c r="K58" t="n">
-        <v>-14.63427280403126</v>
+        <v>-14.80268295874772</v>
       </c>
       <c r="L58" t="n">
-        <v>-14.63427280403126</v>
+        <v>-14.80268295874772</v>
       </c>
       <c r="M58" t="n">
-        <v>-14.63427280403126</v>
+        <v>-14.80268295874772</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>490.5747514150072</v>
+        <v>491.1350151594484</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>507.424082392229</v>
+        <v>508.0878702600632</v>
       </c>
       <c r="D59" t="n">
-        <v>455.8586798271809</v>
+        <v>459.2465341411244</v>
       </c>
       <c r="E59" t="n">
-        <v>539.9739036656148</v>
+        <v>542.8370472489505</v>
       </c>
       <c r="F59" t="n">
-        <v>507.424082392229</v>
+        <v>508.0878702600632</v>
       </c>
       <c r="G59" t="n">
-        <v>507.424082392229</v>
+        <v>508.0878702600632</v>
       </c>
       <c r="H59" t="n">
-        <v>-8.783967964157499</v>
+        <v>-8.764354796663788</v>
       </c>
       <c r="I59" t="n">
-        <v>-8.783967964157499</v>
+        <v>-8.764354796663788</v>
       </c>
       <c r="J59" t="n">
-        <v>-8.783967964157499</v>
+        <v>-8.764354796663788</v>
       </c>
       <c r="K59" t="n">
-        <v>-8.783967964157499</v>
+        <v>-8.764354796663788</v>
       </c>
       <c r="L59" t="n">
-        <v>-8.783967964157499</v>
+        <v>-8.764354796663788</v>
       </c>
       <c r="M59" t="n">
-        <v>-8.783967964157499</v>
+        <v>-8.764354796663788</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>498.6401144280715</v>
+        <v>499.3235154633994</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>509.7129758378593</v>
+        <v>510.3097148066591</v>
       </c>
       <c r="D60" t="n">
-        <v>480.1381719924244</v>
+        <v>481.1079371894209</v>
       </c>
       <c r="E60" t="n">
-        <v>563.7801764254257</v>
+        <v>562.0867060834987</v>
       </c>
       <c r="F60" t="n">
-        <v>509.7129758378593</v>
+        <v>510.3097148066591</v>
       </c>
       <c r="G60" t="n">
-        <v>509.7129758378593</v>
+        <v>510.3097148066591</v>
       </c>
       <c r="H60" t="n">
-        <v>10.89731604924355</v>
+        <v>11.13155216395507</v>
       </c>
       <c r="I60" t="n">
-        <v>10.89731604924355</v>
+        <v>11.13155216395507</v>
       </c>
       <c r="J60" t="n">
-        <v>10.89731604924355</v>
+        <v>11.13155216395507</v>
       </c>
       <c r="K60" t="n">
-        <v>10.89731604924355</v>
+        <v>11.13155216395507</v>
       </c>
       <c r="L60" t="n">
-        <v>10.89731604924355</v>
+        <v>11.13155216395507</v>
       </c>
       <c r="M60" t="n">
-        <v>10.89731604924355</v>
+        <v>11.13155216395507</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>520.6102918871028</v>
+        <v>521.4412669706143</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>511.9280340110498</v>
+        <v>512.4598869485262</v>
       </c>
       <c r="D61" t="n">
-        <v>486.3500921529724</v>
+        <v>486.7272985809043</v>
       </c>
       <c r="E61" t="n">
-        <v>571.341746396152</v>
+        <v>567.619370824577</v>
       </c>
       <c r="F61" t="n">
-        <v>511.9280340110498</v>
+        <v>512.4598869485262</v>
       </c>
       <c r="G61" t="n">
-        <v>511.9280340110498</v>
+        <v>512.4598869485262</v>
       </c>
       <c r="H61" t="n">
-        <v>15.20228874064008</v>
+        <v>15.65911594140301</v>
       </c>
       <c r="I61" t="n">
-        <v>15.20228874064008</v>
+        <v>15.65911594140301</v>
       </c>
       <c r="J61" t="n">
-        <v>15.20228874064008</v>
+        <v>15.65911594140301</v>
       </c>
       <c r="K61" t="n">
-        <v>15.20228874064008</v>
+        <v>15.65911594140301</v>
       </c>
       <c r="L61" t="n">
-        <v>15.20228874064008</v>
+        <v>15.65911594140301</v>
       </c>
       <c r="M61" t="n">
-        <v>15.20228874064008</v>
+        <v>15.65911594140301</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>527.1303227516898</v>
+        <v>528.1190028899292</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>514.2169274566801</v>
+        <v>514.6817314951222</v>
       </c>
       <c r="D62" t="n">
-        <v>478.9264119411498</v>
+        <v>478.2138409877846</v>
       </c>
       <c r="E62" t="n">
-        <v>562.0435413533611</v>
+        <v>561.1115790092817</v>
       </c>
       <c r="F62" t="n">
-        <v>514.2169274566801</v>
+        <v>514.6817314951222</v>
       </c>
       <c r="G62" t="n">
-        <v>514.2169274566801</v>
+        <v>514.6817314951222</v>
       </c>
       <c r="H62" t="n">
-        <v>7.046776667220843</v>
+        <v>6.837784553399154</v>
       </c>
       <c r="I62" t="n">
-        <v>7.046776667220843</v>
+        <v>6.837784553399154</v>
       </c>
       <c r="J62" t="n">
-        <v>7.046776667220843</v>
+        <v>6.837784553399154</v>
       </c>
       <c r="K62" t="n">
-        <v>7.046776667220843</v>
+        <v>6.837784553399154</v>
       </c>
       <c r="L62" t="n">
-        <v>7.046776667220843</v>
+        <v>6.837784553399154</v>
       </c>
       <c r="M62" t="n">
-        <v>7.046776667220843</v>
+        <v>6.837784553399154</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>521.2637041239009</v>
+        <v>521.5195160485214</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>516.5058209023103</v>
+        <v>516.9035760417181</v>
       </c>
       <c r="D63" t="n">
-        <v>471.7015963198319</v>
+        <v>477.9773231391794</v>
       </c>
       <c r="E63" t="n">
-        <v>555.4557554608315</v>
+        <v>555.0975564410688</v>
       </c>
       <c r="F63" t="n">
-        <v>516.5058209023103</v>
+        <v>516.9035760417181</v>
       </c>
       <c r="G63" t="n">
-        <v>516.5058209023103</v>
+        <v>516.9035760417181</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.7147433240225082</v>
+        <v>-1.130103803768255</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.7147433240225082</v>
+        <v>-1.130103803768255</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.7147433240225082</v>
+        <v>-1.130103803768255</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.7147433240225082</v>
+        <v>-1.130103803768255</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.7147433240225082</v>
+        <v>-1.130103803768255</v>
       </c>
       <c r="M63" t="n">
-        <v>-0.7147433240225082</v>
+        <v>-1.130103803768255</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>515.7910775782879</v>
+        <v>515.7734722379498</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>518.5732085306215</v>
+        <v>518.9104033741274</v>
       </c>
       <c r="D64" t="n">
-        <v>472.587064347275</v>
+        <v>470.1959084960307</v>
       </c>
       <c r="E64" t="n">
-        <v>552.7238180259598</v>
+        <v>551.9986321330693</v>
       </c>
       <c r="F64" t="n">
-        <v>518.5732085306215</v>
+        <v>518.9104033741274</v>
       </c>
       <c r="G64" t="n">
-        <v>518.5732085306215</v>
+        <v>518.9104033741274</v>
       </c>
       <c r="H64" t="n">
-        <v>-6.129263358848327</v>
+        <v>-6.765950349683286</v>
       </c>
       <c r="I64" t="n">
-        <v>-6.129263358848327</v>
+        <v>-6.765950349683286</v>
       </c>
       <c r="J64" t="n">
-        <v>-6.129263358848327</v>
+        <v>-6.765950349683286</v>
       </c>
       <c r="K64" t="n">
-        <v>-6.129263358848327</v>
+        <v>-6.765950349683286</v>
       </c>
       <c r="L64" t="n">
-        <v>-6.129263358848327</v>
+        <v>-6.765950349683286</v>
       </c>
       <c r="M64" t="n">
-        <v>-6.129263358848327</v>
+        <v>-6.765950349683286</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>512.4439451717732</v>
+        <v>512.1444530244441</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>520.8621019762518</v>
+        <v>521.1322479207234</v>
       </c>
       <c r="D65" t="n">
-        <v>472.3699915243142</v>
+        <v>470.8025341952967</v>
       </c>
       <c r="E65" t="n">
-        <v>559.137146831986</v>
+        <v>551.489280406878</v>
       </c>
       <c r="F65" t="n">
-        <v>520.8621019762518</v>
+        <v>521.1322479207234</v>
       </c>
       <c r="G65" t="n">
-        <v>520.8621019762518</v>
+        <v>521.1322479207234</v>
       </c>
       <c r="H65" t="n">
-        <v>-7.752693721643516</v>
+        <v>-9.066875111566565</v>
       </c>
       <c r="I65" t="n">
-        <v>-7.752693721643516</v>
+        <v>-9.066875111566565</v>
       </c>
       <c r="J65" t="n">
-        <v>-7.752693721643516</v>
+        <v>-9.066875111566565</v>
       </c>
       <c r="K65" t="n">
-        <v>-7.752693721643516</v>
+        <v>-9.066875111566565</v>
       </c>
       <c r="L65" t="n">
-        <v>-7.752693721643516</v>
+        <v>-9.066875111566565</v>
       </c>
       <c r="M65" t="n">
-        <v>-7.752693721643516</v>
+        <v>-9.066875111566565</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>513.1094082546083</v>
+        <v>512.0653728091569</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>523.0771601494423</v>
+        <v>523.2824200625905</v>
       </c>
       <c r="D66" t="n">
-        <v>477.3178238259194</v>
+        <v>477.0150179282837</v>
       </c>
       <c r="E66" t="n">
-        <v>563.7556175972925</v>
+        <v>559.6203925601972</v>
       </c>
       <c r="F66" t="n">
-        <v>523.0771601494423</v>
+        <v>523.2824200625905</v>
       </c>
       <c r="G66" t="n">
-        <v>523.0771601494423</v>
+        <v>523.2824200625905</v>
       </c>
       <c r="H66" t="n">
-        <v>-3.590866520296351</v>
+        <v>-4.692322238540005</v>
       </c>
       <c r="I66" t="n">
-        <v>-3.590866520296351</v>
+        <v>-4.692322238540005</v>
       </c>
       <c r="J66" t="n">
-        <v>-3.590866520296351</v>
+        <v>-4.692322238540005</v>
       </c>
       <c r="K66" t="n">
-        <v>-3.590866520296351</v>
+        <v>-4.692322238540005</v>
       </c>
       <c r="L66" t="n">
-        <v>-3.590866520296351</v>
+        <v>-4.692322238540005</v>
       </c>
       <c r="M66" t="n">
-        <v>-3.590866520296351</v>
+        <v>-4.692322238540005</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>519.486293629146</v>
+        <v>518.5900978240505</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>525.3660535950726</v>
+        <v>525.5042646091864</v>
       </c>
       <c r="D67" t="n">
-        <v>483.7332239093914</v>
+        <v>487.850726528651</v>
       </c>
       <c r="E67" t="n">
-        <v>567.8007044298927</v>
+        <v>567.1131191191529</v>
       </c>
       <c r="F67" t="n">
-        <v>525.3423255244924</v>
+        <v>525.5042646091864</v>
       </c>
       <c r="G67" t="n">
-        <v>525.3945140700417</v>
+        <v>525.5042646091864</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2274718661034142</v>
+        <v>2.804050509029611</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2274718661034142</v>
+        <v>2.804050509029611</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2274718661034142</v>
+        <v>2.804050509029611</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2274718661034142</v>
+        <v>2.804050509029611</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2274718661034142</v>
+        <v>2.804050509029611</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2274718661034142</v>
+        <v>2.804050509029611</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>525.593525461176</v>
+        <v>528.308315118216</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>527.5811117682631</v>
+        <v>527.6544367510535</v>
       </c>
       <c r="D68" t="n">
-        <v>490.9326253865106</v>
+        <v>491.8217533416597</v>
       </c>
       <c r="E68" t="n">
-        <v>574.682949163594</v>
+        <v>571.7805114438304</v>
       </c>
       <c r="F68" t="n">
-        <v>527.4339709628762</v>
+        <v>527.615861730714</v>
       </c>
       <c r="G68" t="n">
-        <v>527.7387010357394</v>
+        <v>527.6712095568178</v>
       </c>
       <c r="H68" t="n">
-        <v>3.183442923729702</v>
+        <v>2.41735710072587</v>
       </c>
       <c r="I68" t="n">
-        <v>3.183442923729702</v>
+        <v>2.41735710072587</v>
       </c>
       <c r="J68" t="n">
-        <v>3.183442923729702</v>
+        <v>2.41735710072587</v>
       </c>
       <c r="K68" t="n">
-        <v>3.183442923729702</v>
+        <v>2.41735710072587</v>
       </c>
       <c r="L68" t="n">
-        <v>3.183442923729702</v>
+        <v>2.41735710072587</v>
       </c>
       <c r="M68" t="n">
-        <v>3.183442923729702</v>
+        <v>2.41735710072587</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>530.7645546919928</v>
+        <v>530.0717938517794</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>529.8700052138934</v>
+        <v>529.8762812976495</v>
       </c>
       <c r="D69" t="n">
-        <v>480.2081271801451</v>
+        <v>480.9733199443411</v>
       </c>
       <c r="E69" t="n">
-        <v>563.0681367706621</v>
+        <v>562.898510842236</v>
       </c>
       <c r="F69" t="n">
-        <v>529.5636392005314</v>
+        <v>529.710268453637</v>
       </c>
       <c r="G69" t="n">
-        <v>530.223693159803</v>
+        <v>530.0242006547753</v>
       </c>
       <c r="H69" t="n">
-        <v>-6.957114574490761</v>
+        <v>-7.433124997243605</v>
       </c>
       <c r="I69" t="n">
-        <v>-6.957114574490761</v>
+        <v>-7.433124997243605</v>
       </c>
       <c r="J69" t="n">
-        <v>-6.957114574490761</v>
+        <v>-7.433124997243605</v>
       </c>
       <c r="K69" t="n">
-        <v>-6.957114574490761</v>
+        <v>-7.433124997243605</v>
       </c>
       <c r="L69" t="n">
-        <v>-6.957114574490761</v>
+        <v>-7.433124997243605</v>
       </c>
       <c r="M69" t="n">
-        <v>-6.957114574490761</v>
+        <v>-7.433124997243605</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>522.9128906394026</v>
+        <v>522.4431563004059</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>532.1588986595236</v>
+        <v>532.0981258442455</v>
       </c>
       <c r="D70" t="n">
-        <v>481.1727027116433</v>
+        <v>483.6475525690246</v>
       </c>
       <c r="E70" t="n">
-        <v>567.9198816080776</v>
+        <v>562.6634388525366</v>
       </c>
       <c r="F70" t="n">
-        <v>531.6696496110378</v>
+        <v>531.7390137186231</v>
       </c>
       <c r="G70" t="n">
-        <v>532.7246789681193</v>
+        <v>532.4367765929378</v>
       </c>
       <c r="H70" t="n">
-        <v>-9.907318232850658</v>
+        <v>-10.14191132915723</v>
       </c>
       <c r="I70" t="n">
-        <v>-9.907318232850658</v>
+        <v>-10.14191132915723</v>
       </c>
       <c r="J70" t="n">
-        <v>-9.907318232850658</v>
+        <v>-10.14191132915723</v>
       </c>
       <c r="K70" t="n">
-        <v>-9.907318232850658</v>
+        <v>-10.14191132915723</v>
       </c>
       <c r="L70" t="n">
-        <v>-9.907318232850658</v>
+        <v>-10.14191132915723</v>
       </c>
       <c r="M70" t="n">
-        <v>-9.907318232850658</v>
+        <v>-10.14191132915723</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>522.2515804266729</v>
+        <v>521.9562145150883</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>534.3739568327142</v>
+        <v>534.2482979861126</v>
       </c>
       <c r="D71" t="n">
-        <v>490.4693539287421</v>
+        <v>490.95864243943</v>
       </c>
       <c r="E71" t="n">
-        <v>575.9993856043028</v>
+        <v>573.4974143820764</v>
       </c>
       <c r="F71" t="n">
-        <v>533.6475320419717</v>
+        <v>533.6914141533296</v>
       </c>
       <c r="G71" t="n">
-        <v>535.226144523722</v>
+        <v>534.8269395365927</v>
       </c>
       <c r="H71" t="n">
-        <v>-1.422774003122263</v>
+        <v>-1.447893081530634</v>
       </c>
       <c r="I71" t="n">
-        <v>-1.422774003122263</v>
+        <v>-1.447893081530634</v>
       </c>
       <c r="J71" t="n">
-        <v>-1.422774003122263</v>
+        <v>-1.447893081530634</v>
       </c>
       <c r="K71" t="n">
-        <v>-1.422774003122263</v>
+        <v>-1.447893081530634</v>
       </c>
       <c r="L71" t="n">
-        <v>-1.422774003122263</v>
+        <v>-1.447893081530634</v>
       </c>
       <c r="M71" t="n">
-        <v>-1.422774003122263</v>
+        <v>-1.447893081530634</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>532.9511828295919</v>
+        <v>532.8004049045819</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>536.6628502783444</v>
+        <v>536.4701425327085</v>
       </c>
       <c r="D72" t="n">
-        <v>507.4861790559893</v>
+        <v>509.801805340225</v>
       </c>
       <c r="E72" t="n">
-        <v>590.3978405565259</v>
+        <v>590.1922556181082</v>
       </c>
       <c r="F72" t="n">
-        <v>535.683296215507</v>
+        <v>535.6260362544177</v>
       </c>
       <c r="G72" t="n">
-        <v>537.7843330645196</v>
+        <v>537.3141987812493</v>
       </c>
       <c r="H72" t="n">
-        <v>12.90529901610133</v>
+        <v>13.06314241261327</v>
       </c>
       <c r="I72" t="n">
-        <v>12.90529901610133</v>
+        <v>13.06314241261327</v>
       </c>
       <c r="J72" t="n">
-        <v>12.90529901610133</v>
+        <v>13.06314241261327</v>
       </c>
       <c r="K72" t="n">
-        <v>12.90529901610133</v>
+        <v>13.06314241261327</v>
       </c>
       <c r="L72" t="n">
-        <v>12.90529901610133</v>
+        <v>13.06314241261327</v>
       </c>
       <c r="M72" t="n">
-        <v>12.90529901610133</v>
+        <v>13.06314241261327</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>549.5681492944458</v>
+        <v>549.5332849453217</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>538.8779084515349</v>
+        <v>538.6203146745755</v>
       </c>
       <c r="D73" t="n">
-        <v>498.0150249598572</v>
+        <v>503.5276371968959</v>
       </c>
       <c r="E73" t="n">
-        <v>584.9461045881624</v>
+        <v>585.5530524194412</v>
       </c>
       <c r="F73" t="n">
-        <v>537.6142050719795</v>
+        <v>537.4686389759979</v>
       </c>
       <c r="G73" t="n">
-        <v>540.2819865164047</v>
+        <v>539.7604399993479</v>
       </c>
       <c r="H73" t="n">
-        <v>4.538096363880601</v>
+        <v>4.849154122324671</v>
       </c>
       <c r="I73" t="n">
-        <v>4.538096363880601</v>
+        <v>4.849154122324671</v>
       </c>
       <c r="J73" t="n">
-        <v>4.538096363880601</v>
+        <v>4.849154122324671</v>
       </c>
       <c r="K73" t="n">
-        <v>4.538096363880601</v>
+        <v>4.849154122324671</v>
       </c>
       <c r="L73" t="n">
-        <v>4.538096363880601</v>
+        <v>4.849154122324671</v>
       </c>
       <c r="M73" t="n">
-        <v>4.538096363880601</v>
+        <v>4.849154122324671</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>543.4160048154156</v>
+        <v>543.4694687969002</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>541.1668018971653</v>
+        <v>540.8421592211715</v>
       </c>
       <c r="D74" t="n">
-        <v>505.0826937665012</v>
+        <v>504.5027693013012</v>
       </c>
       <c r="E74" t="n">
-        <v>585.4813562815867</v>
+        <v>587.8537382703031</v>
       </c>
       <c r="F74" t="n">
-        <v>539.5288654092963</v>
+        <v>539.3393469298828</v>
       </c>
       <c r="G74" t="n">
-        <v>542.8673990248193</v>
+        <v>542.3108181348616</v>
       </c>
       <c r="H74" t="n">
-        <v>5.108949849419531</v>
+        <v>5.428865861422379</v>
       </c>
       <c r="I74" t="n">
-        <v>5.108949849419531</v>
+        <v>5.428865861422379</v>
       </c>
       <c r="J74" t="n">
-        <v>5.108949849419531</v>
+        <v>5.428865861422379</v>
       </c>
       <c r="K74" t="n">
-        <v>5.108949849419531</v>
+        <v>5.428865861422379</v>
       </c>
       <c r="L74" t="n">
-        <v>5.108949849419531</v>
+        <v>5.428865861422379</v>
       </c>
       <c r="M74" t="n">
-        <v>5.108949849419531</v>
+        <v>5.428865861422379</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>546.2757517465849</v>
+        <v>546.271025082594</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>543.4556953427955</v>
+        <v>543.0640037677675</v>
       </c>
       <c r="D75" t="n">
-        <v>502.9928707719752</v>
+        <v>499.956471473913</v>
       </c>
       <c r="E75" t="n">
-        <v>586.51089354362</v>
+        <v>584.6524211242104</v>
       </c>
       <c r="F75" t="n">
-        <v>541.4305380257308</v>
+        <v>541.1503290061617</v>
       </c>
       <c r="G75" t="n">
-        <v>545.5213434814231</v>
+        <v>544.8826937548579</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3606274844280963</v>
+        <v>-0.1646548282428429</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3606274844280963</v>
+        <v>-0.1646548282428429</v>
       </c>
       <c r="J75" t="n">
-        <v>0.3606274844280963</v>
+        <v>-0.1646548282428429</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3606274844280963</v>
+        <v>-0.1646548282428429</v>
       </c>
       <c r="L75" t="n">
-        <v>0.3606274844280963</v>
+        <v>-0.1646548282428429</v>
       </c>
       <c r="M75" t="n">
-        <v>0.3606274844280963</v>
+        <v>-0.1646548282428429</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>543.8163228272235</v>
+        <v>542.8993489395247</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>545.5230829711068</v>
+        <v>545.0708311001767</v>
       </c>
       <c r="D76" t="n">
-        <v>499.1299642165683</v>
+        <v>500.9142187807494</v>
       </c>
       <c r="E76" t="n">
-        <v>582.1616811465721</v>
+        <v>581.9828023834757</v>
       </c>
       <c r="F76" t="n">
-        <v>543.2113652232466</v>
+        <v>542.8202830132818</v>
       </c>
       <c r="G76" t="n">
-        <v>547.9363001269382</v>
+        <v>547.1984846101756</v>
       </c>
       <c r="H76" t="n">
-        <v>-2.807353967879841</v>
+        <v>-3.274835629404386</v>
       </c>
       <c r="I76" t="n">
-        <v>-2.807353967879841</v>
+        <v>-3.274835629404386</v>
       </c>
       <c r="J76" t="n">
-        <v>-2.807353967879841</v>
+        <v>-3.274835629404386</v>
       </c>
       <c r="K76" t="n">
-        <v>-2.807353967879841</v>
+        <v>-3.274835629404386</v>
       </c>
       <c r="L76" t="n">
-        <v>-2.807353967879841</v>
+        <v>-3.274835629404386</v>
       </c>
       <c r="M76" t="n">
-        <v>-2.807353967879841</v>
+        <v>-3.274835629404386</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>542.7157290032269</v>
+        <v>541.7959954707724</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>547.8119764167369</v>
+        <v>547.2926756467728</v>
       </c>
       <c r="D77" t="n">
-        <v>502.2818517045218</v>
+        <v>499.2353755376196</v>
       </c>
       <c r="E77" t="n">
-        <v>581.0427248130826</v>
+        <v>582.0547730339581</v>
       </c>
       <c r="F77" t="n">
-        <v>545.1242072144544</v>
+        <v>544.5817860752542</v>
       </c>
       <c r="G77" t="n">
-        <v>550.5553349133992</v>
+        <v>549.8209337537954</v>
       </c>
       <c r="H77" t="n">
-        <v>-5.481289680301181</v>
+        <v>-7.338046065556846</v>
       </c>
       <c r="I77" t="n">
-        <v>-5.481289680301181</v>
+        <v>-7.338046065556846</v>
       </c>
       <c r="J77" t="n">
-        <v>-5.481289680301181</v>
+        <v>-7.338046065556846</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.481289680301181</v>
+        <v>-7.338046065556846</v>
       </c>
       <c r="L77" t="n">
-        <v>-5.481289680301181</v>
+        <v>-7.338046065556846</v>
       </c>
       <c r="M77" t="n">
-        <v>-5.481289680301181</v>
+        <v>-7.338046065556846</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>542.3306867364357</v>
+        <v>539.954629581216</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>550.0270345899276</v>
+        <v>549.4428477886398</v>
       </c>
       <c r="D78" t="n">
-        <v>504.9639272943533</v>
+        <v>507.3959489900435</v>
       </c>
       <c r="E78" t="n">
-        <v>590.2525904521593</v>
+        <v>585.5921200783329</v>
       </c>
       <c r="F78" t="n">
-        <v>546.9149734109654</v>
+        <v>546.2011149614336</v>
       </c>
       <c r="G78" t="n">
-        <v>553.149370878008</v>
+        <v>552.3586118131687</v>
       </c>
       <c r="H78" t="n">
-        <v>-1.416835543331106</v>
+        <v>-2.936338427558758</v>
       </c>
       <c r="I78" t="n">
-        <v>-1.416835543331106</v>
+        <v>-2.936338427558758</v>
       </c>
       <c r="J78" t="n">
-        <v>-1.416835543331106</v>
+        <v>-2.936338427558758</v>
       </c>
       <c r="K78" t="n">
-        <v>-1.416835543331106</v>
+        <v>-2.936338427558758</v>
       </c>
       <c r="L78" t="n">
-        <v>-1.416835543331106</v>
+        <v>-2.936338427558758</v>
       </c>
       <c r="M78" t="n">
-        <v>-1.416835543331106</v>
+        <v>-2.936338427558758</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>548.6101990465964</v>
+        <v>546.506509361081</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>552.3159280355577</v>
+        <v>551.6646923352357</v>
       </c>
       <c r="D79" t="n">
-        <v>506.195461223217</v>
+        <v>513.2108975062619</v>
       </c>
       <c r="E79" t="n">
-        <v>589.7321136198867</v>
+        <v>589.8825358500391</v>
       </c>
       <c r="F79" t="n">
-        <v>548.8660078300053</v>
+        <v>547.982956778412</v>
       </c>
       <c r="G79" t="n">
-        <v>555.7862878304195</v>
+        <v>554.9624763008767</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.204302157517831</v>
+        <v>0.5127582949031482</v>
       </c>
       <c r="I79" t="n">
-        <v>-3.204302157517831</v>
+        <v>0.5127582949031482</v>
       </c>
       <c r="J79" t="n">
-        <v>-3.204302157517831</v>
+        <v>0.5127582949031482</v>
       </c>
       <c r="K79" t="n">
-        <v>-3.204302157517831</v>
+        <v>0.5127582949031482</v>
       </c>
       <c r="L79" t="n">
-        <v>-3.204302157517831</v>
+        <v>0.5127582949031482</v>
       </c>
       <c r="M79" t="n">
-        <v>-3.204302157517831</v>
+        <v>0.5127582949031482</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>549.1116258780398</v>
+        <v>552.1774506301389</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>554.5309862087483</v>
+        <v>553.8148644771028</v>
       </c>
       <c r="D80" t="n">
-        <v>507.3842396212368</v>
+        <v>507.8893821150637</v>
       </c>
       <c r="E80" t="n">
-        <v>593.7742443067244</v>
+        <v>588.9464459382328</v>
       </c>
       <c r="F80" t="n">
-        <v>550.680540231037</v>
+        <v>549.7764270243508</v>
       </c>
       <c r="G80" t="n">
-        <v>558.4008894217303</v>
+        <v>557.5365246123852</v>
       </c>
       <c r="H80" t="n">
-        <v>-3.812469819415349</v>
+        <v>-4.867313752252725</v>
       </c>
       <c r="I80" t="n">
-        <v>-3.812469819415349</v>
+        <v>-4.867313752252725</v>
       </c>
       <c r="J80" t="n">
-        <v>-3.812469819415349</v>
+        <v>-4.867313752252725</v>
       </c>
       <c r="K80" t="n">
-        <v>-3.812469819415349</v>
+        <v>-4.867313752252725</v>
       </c>
       <c r="L80" t="n">
-        <v>-3.812469819415349</v>
+        <v>-4.867313752252725</v>
       </c>
       <c r="M80" t="n">
-        <v>-3.812469819415349</v>
+        <v>-4.867313752252725</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>550.718516389333</v>
+        <v>548.9475507248501</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>556.8198796543785</v>
+        <v>556.0367090236988</v>
       </c>
       <c r="D81" t="n">
-        <v>508.5556147741648</v>
+        <v>508.3783423510047</v>
       </c>
       <c r="E81" t="n">
-        <v>589.1275856267592</v>
+        <v>590.0701470969365</v>
       </c>
       <c r="F81" t="n">
-        <v>552.5537965357689</v>
+        <v>551.5550232023747</v>
       </c>
       <c r="G81" t="n">
-        <v>561.0928527402509</v>
+        <v>560.2431811269475</v>
       </c>
       <c r="H81" t="n">
-        <v>-7.905222887697603</v>
+        <v>-8.511805331740371</v>
       </c>
       <c r="I81" t="n">
-        <v>-7.905222887697603</v>
+        <v>-8.511805331740371</v>
       </c>
       <c r="J81" t="n">
-        <v>-7.905222887697603</v>
+        <v>-8.511805331740371</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.905222887697603</v>
+        <v>-8.511805331740371</v>
       </c>
       <c r="L81" t="n">
-        <v>-7.905222887697603</v>
+        <v>-8.511805331740371</v>
       </c>
       <c r="M81" t="n">
-        <v>-7.905222887697603</v>
+        <v>-8.511805331740371</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>548.9146567666809</v>
+        <v>547.5249036919585</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>559.1087731000088</v>
+        <v>558.2585535702948</v>
       </c>
       <c r="D82" t="n">
-        <v>514.421018570768</v>
+        <v>516.412570370132</v>
       </c>
       <c r="E82" t="n">
-        <v>595.0426251748936</v>
+        <v>594.5763557445963</v>
       </c>
       <c r="F82" t="n">
-        <v>554.4339734032768</v>
+        <v>553.137748969533</v>
       </c>
       <c r="G82" t="n">
-        <v>563.8897209961826</v>
+        <v>562.9811606345975</v>
       </c>
       <c r="H82" t="n">
-        <v>-5.010191466966159</v>
+        <v>-5.31097175486039</v>
       </c>
       <c r="I82" t="n">
-        <v>-5.010191466966159</v>
+        <v>-5.31097175486039</v>
       </c>
       <c r="J82" t="n">
-        <v>-5.010191466966159</v>
+        <v>-5.31097175486039</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.010191466966159</v>
+        <v>-5.31097175486039</v>
       </c>
       <c r="L82" t="n">
-        <v>-5.010191466966159</v>
+        <v>-5.31097175486039</v>
       </c>
       <c r="M82" t="n">
-        <v>-5.010191466966159</v>
+        <v>-5.31097175486039</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>554.0985816330426</v>
+        <v>552.9475818154344</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>561.3238312731994</v>
+        <v>560.4087257121619</v>
       </c>
       <c r="D83" t="n">
-        <v>527.6523969234632</v>
+        <v>525.8367136467222</v>
       </c>
       <c r="E83" t="n">
-        <v>610.3162097240222</v>
+        <v>606.5343240527515</v>
       </c>
       <c r="F83" t="n">
-        <v>556.2649290999037</v>
+        <v>554.8081011874136</v>
       </c>
       <c r="G83" t="n">
-        <v>566.5913960803639</v>
+        <v>565.6464834884977</v>
       </c>
       <c r="H83" t="n">
-        <v>5.84512757298997</v>
+        <v>5.776044777664381</v>
       </c>
       <c r="I83" t="n">
-        <v>5.84512757298997</v>
+        <v>5.776044777664381</v>
       </c>
       <c r="J83" t="n">
-        <v>5.84512757298997</v>
+        <v>5.776044777664381</v>
       </c>
       <c r="K83" t="n">
-        <v>5.84512757298997</v>
+        <v>5.776044777664381</v>
       </c>
       <c r="L83" t="n">
-        <v>5.84512757298997</v>
+        <v>5.776044777664381</v>
       </c>
       <c r="M83" t="n">
-        <v>5.84512757298997</v>
+        <v>5.776044777664381</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,60 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>567.1689588461894</v>
+        <v>566.1847704898263</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C84" t="n">
+        <v>562.6305702587578</v>
+      </c>
+      <c r="D84" t="n">
+        <v>534.5208996380583</v>
+      </c>
+      <c r="E84" t="n">
+        <v>616.3775930443605</v>
+      </c>
+      <c r="F84" t="n">
+        <v>556.4756339226711</v>
+      </c>
+      <c r="G84" t="n">
+        <v>568.3542635922691</v>
+      </c>
+      <c r="H84" t="n">
+        <v>14.69866964015751</v>
+      </c>
+      <c r="I84" t="n">
+        <v>14.69866964015751</v>
+      </c>
+      <c r="J84" t="n">
+        <v>14.69866964015751</v>
+      </c>
+      <c r="K84" t="n">
+        <v>14.69866964015751</v>
+      </c>
+      <c r="L84" t="n">
+        <v>14.69866964015751</v>
+      </c>
+      <c r="M84" t="n">
+        <v>14.69866964015751</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>577.3292398989153</v>
       </c>
     </row>
   </sheetData>
